--- a/proj_wikipedia/records_athletics/records_athletics_table_main.xlsx
+++ b/proj_wikipedia/records_athletics/records_athletics_table_main.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="327">
   <si>
     <t>Event</t>
   </si>
@@ -41,10 +41,16 @@
     <t>sex</t>
   </si>
   <si>
+    <t>Athlete_profile</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>units</t>
   </si>
   <si>
-    <t>category</t>
+    <t>distance</t>
   </si>
   <si>
     <t>100 m</t>
@@ -56,6 +62,12 @@
     <t>400 m</t>
   </si>
   <si>
+    <t>500 m</t>
+  </si>
+  <si>
+    <t>600 m</t>
+  </si>
+  <si>
     <t>800 m</t>
   </si>
   <si>
@@ -65,6 +77,9 @@
     <t>1500 m</t>
   </si>
   <si>
+    <t>2000 m</t>
+  </si>
+  <si>
     <t>3000 m</t>
   </si>
   <si>
@@ -74,6 +89,9 @@
     <t>5 km (road)</t>
   </si>
   <si>
+    <t>8 km (road)</t>
+  </si>
+  <si>
     <t>10000 m</t>
   </si>
   <si>
@@ -83,634 +101,763 @@
     <t>15 km (road)</t>
   </si>
   <si>
-    <t>10 miles (road)</t>
+    <t>20 km (road)</t>
+  </si>
+  <si>
+    <t>Half marathon</t>
+  </si>
+  <si>
+    <t>25000 m (track)</t>
+  </si>
+  <si>
+    <t>25 km (road)</t>
+  </si>
+  <si>
+    <t>30000 m (track)</t>
+  </si>
+  <si>
+    <t>30 km (road)</t>
+  </si>
+  <si>
+    <t>Marathon</t>
   </si>
   <si>
     <t>20000 m (track)</t>
   </si>
   <si>
-    <t>20 km (road)</t>
-  </si>
-  <si>
-    <t>Half marathon</t>
-  </si>
-  <si>
-    <t>25 km (road)</t>
-  </si>
-  <si>
-    <t>30 km (road)</t>
-  </si>
-  <si>
-    <t>35 km (road)</t>
-  </si>
-  <si>
-    <t>40 km (road)</t>
-  </si>
-  <si>
-    <t>Marathon</t>
-  </si>
-  <si>
-    <t>2000 m</t>
-  </si>
-  <si>
     <t>60 m</t>
   </si>
   <si>
-    <t>600 m</t>
-  </si>
-  <si>
-    <t>10.61 A (-0.4 m/s)</t>
-  </si>
-  <si>
-    <t>10.1 A #</t>
-  </si>
-  <si>
-    <t>21.30</t>
-  </si>
-  <si>
-    <t>20.7 A #</t>
-  </si>
-  <si>
-    <t>45.42 A</t>
-  </si>
-  <si>
-    <t>1:42.37</t>
-  </si>
-  <si>
-    <t>2:15.75</t>
-  </si>
-  <si>
-    <t>3:29.91</t>
-  </si>
-  <si>
-    <t>7:25.09</t>
-  </si>
-  <si>
-    <t>12:37.35</t>
-  </si>
-  <si>
-    <t>13:10</t>
-  </si>
-  <si>
-    <t>26:17.53</t>
-  </si>
-  <si>
-    <t>27:02</t>
-  </si>
-  <si>
-    <t>41:29+</t>
-  </si>
-  <si>
-    <t>44:23</t>
-  </si>
-  <si>
-    <t>56:25.98+</t>
-  </si>
-  <si>
-    <t>55:48+</t>
-  </si>
-  <si>
-    <t>58:47</t>
-  </si>
-  <si>
-    <t>1:12:47+</t>
-  </si>
-  <si>
-    <t>1:11:37 #</t>
-  </si>
-  <si>
-    <t>1:27:30+</t>
-  </si>
-  <si>
-    <t>1:42:01+</t>
-  </si>
-  <si>
-    <t>1:56:55+</t>
-  </si>
-  <si>
-    <t>2:03:03</t>
-  </si>
-  <si>
-    <t>12.10</t>
-  </si>
-  <si>
-    <t>11.8 A #</t>
-  </si>
-  <si>
-    <t>11.55 A #</t>
-  </si>
-  <si>
-    <t>23.84 A (-1.6 m/s)</t>
-  </si>
-  <si>
-    <t>51.44 A</t>
-  </si>
-  <si>
-    <t>1:57.48</t>
-  </si>
-  <si>
-    <t>3:50.07</t>
-  </si>
-  <si>
-    <t>5:27.50</t>
-  </si>
-  <si>
-    <t>8:22.22</t>
-  </si>
-  <si>
-    <t>14:11.15</t>
-  </si>
-  <si>
-    <t>14:46</t>
-  </si>
-  <si>
-    <t>29:17.45</t>
-  </si>
-  <si>
-    <t>30:30</t>
-  </si>
-  <si>
-    <t>46:27.7</t>
-  </si>
-  <si>
-    <t>1:05:35.3</t>
-  </si>
-  <si>
-    <t>1:02:47+</t>
-  </si>
-  <si>
-    <t>1:06:14</t>
-  </si>
-  <si>
-    <t>1:20:51+</t>
-  </si>
-  <si>
-    <t>1:37:23+</t>
-  </si>
-  <si>
-    <t>2:17:56</t>
-  </si>
-  <si>
-    <t>6.82</t>
-  </si>
-  <si>
-    <t>21.90</t>
-  </si>
-  <si>
-    <t>46.96</t>
-  </si>
-  <si>
-    <t>1:15.31</t>
-  </si>
-  <si>
-    <t>1:44.52</t>
-  </si>
-  <si>
-    <t>3:31.76</t>
-  </si>
-  <si>
-    <t>4:49.99</t>
-  </si>
-  <si>
-    <t>7:26.15</t>
-  </si>
-  <si>
-    <t>12:49.60</t>
-  </si>
-  <si>
-    <t>1:29.36+</t>
-  </si>
-  <si>
-    <t>1:59.17</t>
-  </si>
-  <si>
-    <t>2:33.06</t>
-  </si>
-  <si>
-    <t>3:55.17</t>
-  </si>
-  <si>
-    <t>5:23.75</t>
-  </si>
-  <si>
-    <t>8:16.60</t>
-  </si>
-  <si>
-    <t>14:18.86</t>
-  </si>
-  <si>
-    <t>Wetere Galcha</t>
-  </si>
-  <si>
-    <t>Gebre Gebregzi</t>
-  </si>
-  <si>
-    <t>Negussie Gechamo</t>
-  </si>
-  <si>
-    <t>Tegegne Bezabeh</t>
-  </si>
-  <si>
-    <t>Mohamed Aman</t>
-  </si>
-  <si>
-    <t>Aman Wote</t>
-  </si>
-  <si>
-    <t>Haile Gebrselassie</t>
-  </si>
-  <si>
-    <t>Kenenisa Bekele</t>
-  </si>
-  <si>
-    <t>Birhanu Dejene</t>
-  </si>
-  <si>
-    <t>Deriba Merga</t>
-  </si>
-  <si>
-    <t>Atsedu Tsegay</t>
-  </si>
-  <si>
-    <t>Fethiya Hassen</t>
-  </si>
-  <si>
-    <t>Atkelt Wubeshet</t>
-  </si>
-  <si>
-    <t>Tegest Tamangnu Yuma</t>
-  </si>
-  <si>
-    <t>Genet Lire</t>
-  </si>
-  <si>
-    <t>Fantu Magiso</t>
-  </si>
-  <si>
-    <t>Genzebe Dibaba</t>
-  </si>
-  <si>
-    <t>Almaz Ayana</t>
-  </si>
-  <si>
-    <t>Tirunesh Dibaba</t>
-  </si>
-  <si>
-    <t>Meseret Defar</t>
-  </si>
-  <si>
-    <t>Dire Tune</t>
-  </si>
-  <si>
-    <t>Worknesh Degefa</t>
-  </si>
-  <si>
-    <t>Berhane Haile</t>
-  </si>
-  <si>
-    <t>Alemayehu Gudeta</t>
-  </si>
-  <si>
-    <t>Mohammed Aman</t>
-  </si>
-  <si>
-    <t>Kutre Dulecha</t>
-  </si>
-  <si>
-    <t>30 April 2008</t>
-  </si>
-  <si>
-    <t>6 June 1971</t>
-  </si>
-  <si>
-    <t>31 May 2007</t>
-  </si>
-  <si>
-    <t>17 May 1998</t>
-  </si>
-  <si>
-    <t>18 October 1968</t>
-  </si>
-  <si>
-    <t>6 September 2013</t>
-  </si>
-  <si>
-    <t>5 September 2014</t>
-  </si>
-  <si>
-    <t>18 July 2014</t>
-  </si>
-  <si>
-    <t>28 August 1998</t>
-  </si>
-  <si>
-    <t>31 May 2004</t>
-  </si>
-  <si>
-    <t>3 April 2005</t>
-  </si>
-  <si>
-    <t>26 August 2005</t>
-  </si>
-  <si>
-    <t>11 December 2002</t>
-  </si>
-  <si>
-    <t>20 February 2009</t>
-  </si>
-  <si>
-    <t>4 September 2005</t>
-  </si>
-  <si>
-    <t>27 June 2007</t>
-  </si>
-  <si>
-    <t>15 January 2006</t>
-  </si>
-  <si>
-    <t>31 March 2012</t>
-  </si>
-  <si>
-    <t>25 September 2016</t>
-  </si>
-  <si>
-    <t>12 March 2006</t>
+    <t>300 m</t>
+  </si>
+  <si>
+    <t>10.23 A (+0.8 m/s)</t>
+  </si>
+  <si>
+    <t>20.14 (+1.9 m/s)</t>
+  </si>
+  <si>
+    <t>44.18</t>
+  </si>
+  <si>
+    <t>57.69 [4]</t>
+  </si>
+  <si>
+    <t>1:13.10</t>
+  </si>
+  <si>
+    <t>1:40.91</t>
+  </si>
+  <si>
+    <t>2:11.96</t>
+  </si>
+  <si>
+    <t>3:26.34</t>
+  </si>
+  <si>
+    <t>4:48.74</t>
+  </si>
+  <si>
+    <t>7:20.67</t>
+  </si>
+  <si>
+    <t>12:39.74</t>
+  </si>
+  <si>
+    <t>12:59.5</t>
+  </si>
+  <si>
+    <t>21:54+</t>
+  </si>
+  <si>
+    <t>26:27.85</t>
+  </si>
+  <si>
+    <t>26:44</t>
+  </si>
+  <si>
+    <t>41:13</t>
+  </si>
+  <si>
+    <t>56:41</t>
+  </si>
+  <si>
+    <t>58:33</t>
+  </si>
+  <si>
+    <t>1:12:25.4+</t>
+  </si>
+  <si>
+    <t>1:11:18</t>
+  </si>
+  <si>
+    <t>1:26:47.4</t>
+  </si>
+  <si>
+    <t>1:27:13+</t>
+  </si>
+  <si>
+    <t>2:02:57</t>
+  </si>
+  <si>
+    <t>2:00:25</t>
+  </si>
+  <si>
+    <t>11.47 (+0.6 m/s)</t>
+  </si>
+  <si>
+    <t>23.37</t>
+  </si>
+  <si>
+    <t>22.4 A (ht)</t>
+  </si>
+  <si>
+    <t>51.14 A</t>
+  </si>
+  <si>
+    <t>50.71 X</t>
+  </si>
+  <si>
+    <t>1:23.35</t>
+  </si>
+  <si>
+    <t>1:54.01</t>
+  </si>
+  <si>
+    <t>2:35.39</t>
+  </si>
+  <si>
+    <t>3:56.41</t>
+  </si>
+  <si>
+    <t>5:31.52</t>
+  </si>
+  <si>
+    <t>8:20.68</t>
+  </si>
+  <si>
+    <t>14:20.87</t>
+  </si>
+  <si>
+    <t>29:32.53</t>
+  </si>
+  <si>
+    <t>30:04+</t>
+  </si>
+  <si>
+    <t>45:37+</t>
+  </si>
+  <si>
+    <t>1:05:26.6</t>
+  </si>
+  <si>
+    <t>1:01:25+</t>
+  </si>
+  <si>
+    <t>1:04:52</t>
+  </si>
+  <si>
+    <t>1:27:05.84</t>
+  </si>
+  <si>
+    <t>1:19:43+</t>
+  </si>
+  <si>
+    <t>1:45:50.00</t>
+  </si>
+  <si>
+    <t>1:36:05+</t>
+  </si>
+  <si>
+    <t>2:17:01</t>
+  </si>
+  <si>
+    <t>6.70</t>
+  </si>
+  <si>
+    <t>20.85</t>
+  </si>
+  <si>
+    <t>32.60 OT</t>
+  </si>
+  <si>
+    <t>45.98</t>
+  </si>
+  <si>
+    <t>1:14.97 A</t>
+  </si>
+  <si>
+    <t>1:44.71</t>
+  </si>
+  <si>
+    <t>2:15.50</t>
+  </si>
+  <si>
+    <t>3:32.11</t>
+  </si>
+  <si>
+    <t>7:24.90</t>
+  </si>
+  <si>
+    <t>12:51.48</t>
+  </si>
+  <si>
+    <t>27:50.29</t>
+  </si>
+  <si>
+    <t>7.89</t>
+  </si>
+  <si>
+    <t>25.30</t>
+  </si>
+  <si>
+    <t>54.21</t>
+  </si>
+  <si>
+    <t>53.34 A OT</t>
+  </si>
+  <si>
+    <t>1:58.83</t>
+  </si>
+  <si>
+    <t>4:05.17</t>
+  </si>
+  <si>
+    <t>8:29.41</t>
+  </si>
+  <si>
+    <t>14:51.69</t>
+  </si>
+  <si>
+    <t>Mike Mokamba Nyang'au</t>
+  </si>
+  <si>
+    <t>Carvin Nkanata</t>
+  </si>
+  <si>
+    <t>Samson Kitur</t>
+  </si>
+  <si>
+    <t>David Rudisha</t>
+  </si>
+  <si>
+    <t>Noah Ngeny</t>
+  </si>
+  <si>
+    <t>Bernard Lagat</t>
+  </si>
+  <si>
+    <t>John Kemboi Kibowen</t>
+  </si>
+  <si>
+    <t>Daniel Komen</t>
+  </si>
+  <si>
+    <t>Sammy Kipketer</t>
+  </si>
+  <si>
+    <t>Isaiah Kiplangat Koech</t>
+  </si>
+  <si>
+    <t>Paul Tergat</t>
+  </si>
+  <si>
+    <t>Leonard Patrick Komon</t>
+  </si>
+  <si>
+    <t>Robert Kipchumba</t>
+  </si>
+  <si>
+    <t>Samuel Wanjiru</t>
+  </si>
+  <si>
+    <t>Moses Mosop</t>
+  </si>
+  <si>
+    <t>Dennis Kipruto Kimetto</t>
+  </si>
+  <si>
+    <t>Stanley Biwott</t>
+  </si>
+  <si>
+    <t>Eliud Kipchoge</t>
+  </si>
+  <si>
+    <t>Eunice Kadogo</t>
+  </si>
+  <si>
+    <t>Ruth Waithera</t>
+  </si>
+  <si>
+    <t>Joyce Zakari</t>
+  </si>
+  <si>
+    <t>Pamela Jelimo</t>
+  </si>
+  <si>
+    <t>Faith Macharia</t>
+  </si>
+  <si>
+    <t>Faith Kipyegon</t>
+  </si>
+  <si>
+    <t>Vivian Cheruiyot</t>
+  </si>
+  <si>
+    <t>Hellen Obiri</t>
+  </si>
+  <si>
+    <t>Joyciline Jepkosgei</t>
+  </si>
+  <si>
+    <t>Tegla Loroupe</t>
+  </si>
+  <si>
+    <t>Mary Jepkosgei Keitany</t>
+  </si>
+  <si>
+    <t>Paulvince Obuon</t>
+  </si>
+  <si>
+    <t>Charles Gitonga</t>
+  </si>
+  <si>
+    <t>Emmanuel Korir</t>
+  </si>
+  <si>
+    <t>Joseph Mwengi Mutua</t>
+  </si>
+  <si>
+    <t>Kennedy Kimwetich</t>
+  </si>
+  <si>
+    <t>Laban Rotich</t>
+  </si>
+  <si>
+    <t>Mark Bett</t>
+  </si>
+  <si>
+    <t>Ivy Atieno</t>
+  </si>
+  <si>
+    <t>Joyce Odhiambo</t>
+  </si>
+  <si>
+    <t>Irene Jelagat</t>
+  </si>
+  <si>
+    <t>11 July 2015</t>
+  </si>
+  <si>
+    <t>18 April 2015</t>
+  </si>
+  <si>
+    <t>3 August 1992</t>
+  </si>
+  <si>
+    <t>10 September 2016</t>
+  </si>
+  <si>
+    <t>5 June 2016</t>
+  </si>
+  <si>
+    <t>9 August 2012</t>
+  </si>
+  <si>
+    <t>5 September 1999</t>
+  </si>
+  <si>
+    <t>24 August 2001</t>
+  </si>
+  <si>
+    <t>1 August 1998</t>
+  </si>
+  <si>
+    <t>1 September 1996</t>
+  </si>
+  <si>
+    <t>22 August 1997</t>
+  </si>
+  <si>
+    <t>26 March 2000</t>
+  </si>
+  <si>
+    <t>30 March 2013</t>
+  </si>
+  <si>
+    <t>26 September 2010</t>
+  </si>
+  <si>
+    <t>21 November 2010</t>
+  </si>
+  <si>
+    <t>8 October 2006</t>
+  </si>
+  <si>
+    <t>17 March 2007</t>
   </si>
   <si>
     <t>3 June 2011</t>
   </si>
   <si>
-    <t>5 May 2005</t>
-  </si>
-  <si>
-    <t>20 April 2006</t>
-  </si>
-  <si>
-    <t>8 March 2015</t>
-  </si>
-  <si>
-    <t>13 June 2014</t>
-  </si>
-  <si>
-    <t>9 June 2012</t>
-  </si>
-  <si>
-    <t>17 July 2015</t>
-  </si>
-  <si>
-    <t>17 June 2014</t>
-  </si>
-  <si>
-    <t>14 June 2015</t>
-  </si>
-  <si>
-    <t>6 June 2008</t>
-  </si>
-  <si>
-    <t>9 April 2006</t>
+    <t>6 May 2012</t>
+  </si>
+  <si>
+    <t>24 April 2016</t>
+  </si>
+  <si>
+    <t>28 September 2014</t>
+  </si>
+  <si>
+    <t>6 May 2017</t>
+  </si>
+  <si>
+    <t>14 September 2015</t>
+  </si>
+  <si>
+    <t>8 August 1984</t>
+  </si>
+  <si>
+    <t>10 July 2015</t>
+  </si>
+  <si>
+    <t>24 August 2015</t>
+  </si>
+  <si>
+    <t>5 July 2012</t>
+  </si>
+  <si>
+    <t>29 August 2008</t>
+  </si>
+  <si>
+    <t>9 July 2001</t>
+  </si>
+  <si>
+    <t>28 May 2016</t>
+  </si>
+  <si>
+    <t>7 June 2009</t>
+  </si>
+  <si>
+    <t>9 May 2014</t>
+  </si>
+  <si>
+    <t>29 July 2011</t>
   </si>
   <si>
     <t>12 August 2016</t>
   </si>
   <si>
-    <t>1 September 2013</t>
-  </si>
-  <si>
-    <t>15 November 2009</t>
-  </si>
-  <si>
-    <t>12 June 2008</t>
-  </si>
-  <si>
-    <t>2 April 2016</t>
+    <t>1 April 2017</t>
+  </si>
+  <si>
+    <t>3 September 2000</t>
+  </si>
+  <si>
+    <t>21 September 2002</t>
   </si>
   <si>
     <t>23 April 2017</t>
   </si>
   <si>
-    <t>12 January 1991</t>
-  </si>
-  <si>
-    <t>3 March 1989</t>
-  </si>
-  <si>
-    <t>5 March 1989</t>
-  </si>
-  <si>
-    <t>2 February 2014</t>
-  </si>
-  <si>
-    <t>15 February 2014</t>
+    <t>6 June 2003</t>
+  </si>
+  <si>
+    <t>28 January 2005</t>
+  </si>
+  <si>
+    <t>6 March 2004</t>
+  </si>
+  <si>
+    <t>7 December 2013</t>
+  </si>
+  <si>
+    <t>19 February 1995</t>
+  </si>
+  <si>
+    <t>20 January 2017</t>
+  </si>
+  <si>
+    <t>31 January 2004</t>
+  </si>
+  <si>
+    <t>6 February 2000</t>
   </si>
   <si>
     <t>1 February 1998</t>
   </si>
   <si>
-    <t>17 February 2007</t>
-  </si>
-  <si>
-    <t>25 January 1998</t>
-  </si>
-  <si>
-    <t>20 February 2004</t>
-  </si>
-  <si>
-    <t>24 February 2017</t>
-  </si>
-  <si>
-    <t>14 February 1999</t>
-  </si>
-  <si>
-    <t>1 February 2014</t>
-  </si>
-  <si>
-    <t>7 February 2017</t>
-  </si>
-  <si>
-    <t>6 February 2014</t>
-  </si>
-  <si>
-    <t>19 February 2015</t>
-  </si>
-  <si>
-    <t>African Championships</t>
+    <t>6 February 1998</t>
+  </si>
+  <si>
+    <t>19 February 1998</t>
+  </si>
+  <si>
+    <t>10 February 2002</t>
+  </si>
+  <si>
+    <t>15 January 2012</t>
+  </si>
+  <si>
+    <t>6 March 1987</t>
+  </si>
+  <si>
+    <t>10 March 1984</t>
+  </si>
+  <si>
+    <t>3 March 1984</t>
+  </si>
+  <si>
+    <t>11 March 2012</t>
+  </si>
+  <si>
+    <t>22 February 2011</t>
+  </si>
+  <si>
+    <t>18 February 2017</t>
+  </si>
+  <si>
+    <t>13 February 1999</t>
+  </si>
+  <si>
+    <t>Kenyan Championships</t>
+  </si>
+  <si>
+    <t>NTC Pure Athletics Sprint Elite Meet</t>
+  </si>
+  <si>
+    <t>Olympic Games</t>
+  </si>
+  <si>
+    <t>Great North CityGames</t>
+  </si>
+  <si>
+    <t>British Grand Prix</t>
+  </si>
+  <si>
+    <t>IAAF Grand Prix</t>
+  </si>
+  <si>
+    <t>Memorial Van Damme</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Olympic Games</t>
-  </si>
-  <si>
-    <t>Memorial Van Damme</t>
-  </si>
-  <si>
-    <t>Herculis</t>
-  </si>
-  <si>
-    <t>20th Carlsbad 5000</t>
-  </si>
-  <si>
-    <t>Ras Al Khaimah Half Marathon</t>
-  </si>
-  <si>
-    <t>Golden Spike Ostrava</t>
+    <t>15th Carlsbad 5000</t>
+  </si>
+  <si>
+    <t>Allstate Sugar Bowl Crescent City Classic</t>
+  </si>
+  <si>
+    <t>Singelloop</t>
+  </si>
+  <si>
+    <t>Zevenheuvelenloop</t>
+  </si>
+  <si>
+    <t>World Road Running Championships</t>
+  </si>
+  <si>
+    <t>City-Pier-City Loop</t>
+  </si>
+  <si>
+    <t>Prefontaine Classic</t>
+  </si>
+  <si>
+    <t>BIG 25</t>
+  </si>
+  <si>
+    <t>London Marathon</t>
+  </si>
+  <si>
+    <t>Berlin Marathon</t>
+  </si>
+  <si>
+    <t>Breaking2</t>
+  </si>
+  <si>
+    <t>All-Africa Games</t>
+  </si>
+  <si>
+    <t>World Championships</t>
+  </si>
+  <si>
+    <t>Meeting de la Province de Liège</t>
+  </si>
+  <si>
+    <t>Weltklasse Zürich</t>
+  </si>
+  <si>
+    <t>Qatar Athletic Super Grand Prix</t>
+  </si>
+  <si>
+    <t>DN Galan</t>
   </si>
   <si>
     <t>Prague Half Marathon</t>
   </si>
   <si>
-    <t>Berlin Marathon</t>
-  </si>
-  <si>
-    <t>20 van Alphen</t>
-  </si>
-  <si>
-    <t>African Junior Championships</t>
-  </si>
-  <si>
-    <t>Ethiopian Championships</t>
-  </si>
-  <si>
-    <t>Adidas Grand Prix</t>
-  </si>
-  <si>
-    <t>Meeting International Mohammed VI d'Athlétisme de Rabat</t>
-  </si>
-  <si>
-    <t>Bislett Games</t>
-  </si>
-  <si>
-    <t>15th Carlsbad 5000</t>
-  </si>
-  <si>
-    <t>Tilburg Ten Miles</t>
-  </si>
-  <si>
-    <t>Zevenheuvelenloop</t>
-  </si>
-  <si>
-    <t>London Marathon</t>
-  </si>
-  <si>
-    <t>World Championships</t>
-  </si>
-  <si>
-    <t>Russian Winter Meeting</t>
-  </si>
-  <si>
-    <t>Aviva Indoor Grand Prix</t>
+    <t>Kent State Golden Flash Gala</t>
+  </si>
+  <si>
+    <t>Meeting Pas de Calais</t>
+  </si>
+  <si>
+    <t>Cherry &amp; Silver Collegiate Invitational</t>
   </si>
   <si>
     <t>Sparkassen Cup</t>
   </si>
   <si>
-    <t>BW-Bank Meeting</t>
-  </si>
-  <si>
-    <t>Meeting Ville de Madrid</t>
-  </si>
-  <si>
-    <t>Weltklasse in Karlsruhe</t>
-  </si>
-  <si>
-    <t>Míting Internacional de Catalunya</t>
-  </si>
-  <si>
-    <t>XL Galan</t>
-  </si>
-  <si>
-    <t>Addis Ababa, Ethiopia</t>
-  </si>
-  <si>
-    <t>Kampala, Uganda</t>
-  </si>
-  <si>
-    <t>Mexico City, Mexico</t>
+    <t>GE Galan</t>
+  </si>
+  <si>
+    <t>Indoor Flanders Meeting</t>
+  </si>
+  <si>
+    <t>Birmingham Indoor Grand Prix</t>
+  </si>
+  <si>
+    <t>Kasarani, Kenya</t>
+  </si>
+  <si>
+    <t>Clermont, United States</t>
+  </si>
+  <si>
+    <t>Barcelona, Spain</t>
+  </si>
+  <si>
+    <t>Newcastle, United Kingdom</t>
+  </si>
+  <si>
+    <t>Birmingham, Great Britain</t>
+  </si>
+  <si>
+    <t>London, United Kingdom</t>
+  </si>
+  <si>
+    <t>Rieti, Italy</t>
   </si>
   <si>
     <t>Brussels, Belgium</t>
   </si>
   <si>
-    <t>Fontvieille, Monaco</t>
-  </si>
-  <si>
-    <t>Hengelo, Netherlands</t>
+    <t>Hechtel-Eksel, Belgium</t>
   </si>
   <si>
     <t>Carlsbad, United States</t>
   </si>
   <si>
+    <t>New Orleans, United States</t>
+  </si>
+  <si>
+    <t>Utrecht, Netherlands</t>
+  </si>
+  <si>
+    <t>Nijmegen, Netherlands</t>
+  </si>
+  <si>
+    <t>Debrecen, Hungary</t>
+  </si>
+  <si>
+    <t>The Hague, Netherlands</t>
+  </si>
+  <si>
+    <t>Eugene, United States</t>
+  </si>
+  <si>
+    <t>Berlin, Germany</t>
+  </si>
+  <si>
+    <t>London, Great Britain</t>
+  </si>
+  <si>
+    <t>Monza, Italy</t>
+  </si>
+  <si>
+    <t>Brazzaville, Republic of the Congo</t>
+  </si>
+  <si>
+    <t>Los Angeles, United States</t>
+  </si>
+  <si>
+    <t>Beijing, China</t>
+  </si>
+  <si>
+    <t>Liège, Belgium</t>
+  </si>
+  <si>
+    <t>Zürich, Switzerland</t>
+  </si>
+  <si>
+    <t>Nice, France</t>
+  </si>
+  <si>
     <t>Doha, Qatar</t>
   </si>
   <si>
-    <t>Ras al-Khaimah, United Arab Emirates</t>
-  </si>
-  <si>
-    <t>Tilburg, Netherlands</t>
-  </si>
-  <si>
-    <t>Ostrava, Czech Republic</t>
-  </si>
-  <si>
-    <t>Phoenix, United States</t>
+    <t>Stockholm, Sweden</t>
+  </si>
+  <si>
+    <t>Rio de Janeiro, Brazil</t>
   </si>
   <si>
     <t>Prague, Czech Republic</t>
   </si>
   <si>
-    <t>Berlin, Germany</t>
-  </si>
-  <si>
-    <t>Alphen aan den Rijn, Netherlands</t>
-  </si>
-  <si>
-    <t>Dar es Salaam, Tanzania</t>
-  </si>
-  <si>
-    <t>New York City, United States</t>
-  </si>
-  <si>
-    <t>Rabat, Morocco</t>
-  </si>
-  <si>
-    <t>Oslo, Norway</t>
-  </si>
-  <si>
-    <t>Rio de Janeiro, Brazil</t>
-  </si>
-  <si>
-    <t>Nijmegen, Netherlands</t>
-  </si>
-  <si>
-    <t>London, United Kingdom</t>
-  </si>
-  <si>
-    <t>Gothenburg, Sweden</t>
+    <t>Borgholzhausen, Germany</t>
+  </si>
+  <si>
+    <t>Mengerskirchen, Germany</t>
+  </si>
+  <si>
+    <t>Warstein, Germany</t>
+  </si>
+  <si>
+    <t>State College, United States</t>
+  </si>
+  <si>
+    <t>Allston, United States</t>
+  </si>
+  <si>
+    <t>Kent, United States</t>
+  </si>
+  <si>
+    <t>Liévin, France</t>
+  </si>
+  <si>
+    <t>Albuquerque, United States</t>
+  </si>
+  <si>
+    <t>Stuttgart, Germany</t>
   </si>
   <si>
     <t>Budapest, Hungary</t>
   </si>
   <si>
-    <t>Moscow, Russia</t>
+    <t>Ghent, Belgium</t>
+  </si>
+  <si>
+    <t>Leverkusen, Germany</t>
+  </si>
+  <si>
+    <t>Indianapolis, United States</t>
+  </si>
+  <si>
+    <t>Syracuse, United States</t>
+  </si>
+  <si>
+    <t>Flagstaff, United States</t>
+  </si>
+  <si>
+    <t>Istanbul, Turkey</t>
   </si>
   <si>
     <t>Birmingham, United Kingdom</t>
   </si>
   <si>
-    <t>Stuttgart, Germany</t>
-  </si>
-  <si>
-    <t>Karlsruhe, Germany</t>
-  </si>
-  <si>
-    <t>Madrid, Spain</t>
-  </si>
-  <si>
-    <t>Sabadell, Spain</t>
-  </si>
-  <si>
-    <t>Stockholm, Sweden</t>
+    <t>Dortmund, Germany</t>
   </si>
   <si>
     <t>[1]</t>
@@ -728,6 +875,9 @@
     <t>[6]</t>
   </si>
   <si>
+    <t>[7]</t>
+  </si>
+  <si>
     <t>[8]</t>
   </si>
   <si>
@@ -743,7 +893,13 @@
     <t>[12]</t>
   </si>
   <si>
-    <t>[19]</t>
+    <t>[15][16]</t>
+  </si>
+  <si>
+    <t>[17][18]</t>
+  </si>
+  <si>
+    <t>[15][19]</t>
   </si>
   <si>
     <t>[20]</t>
@@ -755,28 +911,7 @@
     <t>[22]</t>
   </si>
   <si>
-    <t>[24]</t>
-  </si>
-  <si>
-    <t>[25]</t>
-  </si>
-  <si>
-    <t>[26]</t>
-  </si>
-  <si>
-    <t>[27]</t>
-  </si>
-  <si>
-    <t>[28]</t>
-  </si>
-  <si>
-    <t>[29]</t>
-  </si>
-  <si>
-    <t>[31]</t>
-  </si>
-  <si>
-    <t>[32]</t>
+    <t>[23]</t>
   </si>
   <si>
     <t>[33]</t>
@@ -785,7 +920,31 @@
     <t>[34]</t>
   </si>
   <si>
-    <t>[35]</t>
+    <t>[35][36]</t>
+  </si>
+  <si>
+    <t>[37]</t>
+  </si>
+  <si>
+    <t>[39]</t>
+  </si>
+  <si>
+    <t>[40]</t>
+  </si>
+  <si>
+    <t>[42]</t>
+  </si>
+  <si>
+    <t>[43]</t>
+  </si>
+  <si>
+    <t>[44]</t>
+  </si>
+  <si>
+    <t>[46]</t>
+  </si>
+  <si>
+    <t>[47]</t>
   </si>
   <si>
     <t>[48]</t>
@@ -794,22 +953,22 @@
     <t>[49]</t>
   </si>
   <si>
-    <t>[53]</t>
-  </si>
-  <si>
-    <t>[54]</t>
-  </si>
-  <si>
-    <t>[55]</t>
-  </si>
-  <si>
-    <t>[57]</t>
-  </si>
-  <si>
-    <t>[58]</t>
-  </si>
-  <si>
-    <t>[60]</t>
+    <t>[50]</t>
+  </si>
+  <si>
+    <t>[65]</t>
+  </si>
+  <si>
+    <t>[66]</t>
+  </si>
+  <si>
+    <t>[71]</t>
+  </si>
+  <si>
+    <t>[72]</t>
+  </si>
+  <si>
+    <t>[73]</t>
   </si>
   <si>
     <t>outdoor</t>
@@ -824,19 +983,16 @@
     <t>f</t>
   </si>
   <si>
-    <t xml:space="preserve"> m</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> km (road)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> miles (road)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> m (track)</t>
+    <t>Kenyan</t>
   </si>
   <si>
     <t>main</t>
+  </si>
+  <si>
+    <t>km (road)</t>
+  </si>
+  <si>
+    <t>m (track)</t>
   </si>
 </sst>
 </file>
@@ -921,1510 +1077,1774 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="D2" t="s">
-        <v>121</v>
+        <v>144</v>
       </c>
       <c r="E2" t="s">
-        <v>173</v>
+        <v>202</v>
       </c>
       <c r="F2" t="s">
-        <v>202</v>
+        <v>235</v>
       </c>
       <c r="G2" t="s">
-        <v>174</v>
+        <v>282</v>
       </c>
       <c r="H2" t="s">
-        <v>266</v>
+        <v>319</v>
       </c>
       <c r="I2" t="s">
-        <v>268</v>
+        <v>321</v>
       </c>
       <c r="J2" t="s">
-        <v>270</v>
+        <v>323</v>
       </c>
       <c r="K2" t="s">
-        <v>274</v>
+        <v>324</v>
+      </c>
+      <c r="L2" t="s">
+        <v>321</v>
+      </c>
+      <c r="M2" t="n">
+        <v>100.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D3" t="s">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="E3" t="s">
-        <v>174</v>
+        <v>203</v>
       </c>
       <c r="F3" t="s">
-        <v>202</v>
+        <v>236</v>
       </c>
       <c r="G3" t="s">
-        <v>174</v>
+        <v>283</v>
       </c>
       <c r="H3" t="s">
-        <v>266</v>
+        <v>319</v>
       </c>
       <c r="I3" t="s">
-        <v>268</v>
+        <v>321</v>
       </c>
       <c r="J3" t="s">
-        <v>270</v>
+        <v>323</v>
       </c>
       <c r="K3" t="s">
-        <v>274</v>
+        <v>324</v>
+      </c>
+      <c r="L3" t="s">
+        <v>321</v>
+      </c>
+      <c r="M3" t="n">
+        <v>200.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="D4" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="E4" t="s">
-        <v>174</v>
+        <v>204</v>
       </c>
       <c r="F4" t="s">
-        <v>203</v>
+        <v>237</v>
       </c>
       <c r="G4" t="s">
-        <v>174</v>
+        <v>284</v>
       </c>
       <c r="H4" t="s">
-        <v>266</v>
+        <v>319</v>
       </c>
       <c r="I4" t="s">
-        <v>268</v>
+        <v>321</v>
       </c>
       <c r="J4" t="s">
-        <v>270</v>
+        <v>323</v>
       </c>
       <c r="K4" t="s">
-        <v>274</v>
+        <v>324</v>
+      </c>
+      <c r="L4" t="s">
+        <v>321</v>
+      </c>
+      <c r="M4" t="n">
+        <v>400.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="D5" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="E5" t="s">
-        <v>174</v>
+        <v>205</v>
       </c>
       <c r="F5" t="s">
-        <v>202</v>
+        <v>238</v>
       </c>
       <c r="G5" t="s">
-        <v>174</v>
+        <v>285</v>
       </c>
       <c r="H5" t="s">
-        <v>266</v>
+        <v>319</v>
       </c>
       <c r="I5" t="s">
-        <v>268</v>
+        <v>321</v>
       </c>
       <c r="J5" t="s">
-        <v>270</v>
+        <v>323</v>
       </c>
       <c r="K5" t="s">
-        <v>274</v>
+        <v>324</v>
+      </c>
+      <c r="L5" t="s">
+        <v>321</v>
+      </c>
+      <c r="M5" t="n">
+        <v>500.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D6" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="E6" t="s">
-        <v>175</v>
+        <v>206</v>
       </c>
       <c r="F6" t="s">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="G6" t="s">
-        <v>174</v>
+        <v>286</v>
       </c>
       <c r="H6" t="s">
-        <v>266</v>
+        <v>319</v>
       </c>
       <c r="I6" t="s">
-        <v>268</v>
+        <v>321</v>
       </c>
       <c r="J6" t="s">
-        <v>270</v>
+        <v>323</v>
       </c>
       <c r="K6" t="s">
-        <v>274</v>
+        <v>324</v>
+      </c>
+      <c r="L6" t="s">
+        <v>321</v>
+      </c>
+      <c r="M6" t="n">
+        <v>600.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D7" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="E7" t="s">
-        <v>176</v>
+        <v>204</v>
       </c>
       <c r="F7" t="s">
-        <v>205</v>
+        <v>240</v>
       </c>
       <c r="G7" t="s">
-        <v>233</v>
+        <v>287</v>
       </c>
       <c r="H7" t="s">
-        <v>266</v>
+        <v>319</v>
       </c>
       <c r="I7" t="s">
-        <v>268</v>
+        <v>321</v>
       </c>
       <c r="J7" t="s">
-        <v>270</v>
+        <v>323</v>
       </c>
       <c r="K7" t="s">
-        <v>274</v>
+        <v>324</v>
+      </c>
+      <c r="L7" t="s">
+        <v>321</v>
+      </c>
+      <c r="M7" t="n">
+        <v>800.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="D8" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="E8" t="s">
-        <v>176</v>
+        <v>207</v>
       </c>
       <c r="F8" t="s">
-        <v>205</v>
+        <v>241</v>
       </c>
       <c r="G8" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="H8" t="s">
-        <v>266</v>
+        <v>319</v>
       </c>
       <c r="I8" t="s">
-        <v>268</v>
+        <v>321</v>
       </c>
       <c r="J8" t="s">
-        <v>270</v>
+        <v>323</v>
       </c>
       <c r="K8" t="s">
-        <v>274</v>
+        <v>324</v>
+      </c>
+      <c r="L8" t="s">
+        <v>321</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1000.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D9" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="E9" t="s">
-        <v>177</v>
+        <v>208</v>
       </c>
       <c r="F9" t="s">
-        <v>206</v>
+        <v>242</v>
       </c>
       <c r="G9" t="s">
-        <v>235</v>
+        <v>288</v>
       </c>
       <c r="H9" t="s">
-        <v>266</v>
+        <v>319</v>
       </c>
       <c r="I9" t="s">
-        <v>268</v>
+        <v>321</v>
       </c>
       <c r="J9" t="s">
-        <v>270</v>
+        <v>323</v>
       </c>
       <c r="K9" t="s">
-        <v>274</v>
+        <v>324</v>
+      </c>
+      <c r="L9" t="s">
+        <v>321</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1500.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="D10" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="E10" t="s">
-        <v>176</v>
+        <v>209</v>
       </c>
       <c r="F10" t="s">
-        <v>205</v>
+        <v>243</v>
       </c>
       <c r="G10" t="s">
-        <v>174</v>
+        <v>209</v>
       </c>
       <c r="H10" t="s">
-        <v>266</v>
+        <v>319</v>
       </c>
       <c r="I10" t="s">
-        <v>268</v>
+        <v>321</v>
       </c>
       <c r="J10" t="s">
-        <v>270</v>
+        <v>323</v>
       </c>
       <c r="K10" t="s">
-        <v>274</v>
+        <v>324</v>
+      </c>
+      <c r="L10" t="s">
+        <v>321</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2000.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="D11" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="E11" t="s">
-        <v>174</v>
+        <v>207</v>
       </c>
       <c r="F11" t="s">
-        <v>207</v>
+        <v>241</v>
       </c>
       <c r="G11" t="s">
-        <v>174</v>
+        <v>209</v>
       </c>
       <c r="H11" t="s">
-        <v>266</v>
+        <v>319</v>
       </c>
       <c r="I11" t="s">
-        <v>268</v>
+        <v>321</v>
       </c>
       <c r="J11" t="s">
-        <v>270</v>
+        <v>323</v>
       </c>
       <c r="K11" t="s">
-        <v>274</v>
+        <v>324</v>
+      </c>
+      <c r="L11" t="s">
+        <v>321</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3000.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="D12" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="E12" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="F12" t="s">
-        <v>208</v>
+        <v>242</v>
       </c>
       <c r="G12" t="s">
-        <v>174</v>
+        <v>209</v>
       </c>
       <c r="H12" t="s">
-        <v>266</v>
+        <v>319</v>
       </c>
       <c r="I12" t="s">
-        <v>268</v>
+        <v>321</v>
       </c>
       <c r="J12" t="s">
-        <v>271</v>
+        <v>323</v>
       </c>
       <c r="K12" t="s">
-        <v>274</v>
+        <v>324</v>
+      </c>
+      <c r="L12" t="s">
+        <v>321</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5000.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="D13" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="E13" t="s">
-        <v>176</v>
+        <v>210</v>
       </c>
       <c r="F13" t="s">
-        <v>205</v>
+        <v>244</v>
       </c>
       <c r="G13" t="s">
-        <v>174</v>
+        <v>209</v>
       </c>
       <c r="H13" t="s">
-        <v>266</v>
+        <v>319</v>
       </c>
       <c r="I13" t="s">
-        <v>268</v>
+        <v>321</v>
       </c>
       <c r="J13" t="s">
-        <v>270</v>
+        <v>323</v>
       </c>
       <c r="K13" t="s">
-        <v>274</v>
+        <v>324</v>
+      </c>
+      <c r="L13" t="s">
+        <v>325</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5000.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D14" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="E14" t="s">
-        <v>174</v>
+        <v>211</v>
       </c>
       <c r="F14" t="s">
-        <v>209</v>
+        <v>245</v>
       </c>
       <c r="G14" t="s">
-        <v>174</v>
+        <v>289</v>
       </c>
       <c r="H14" t="s">
-        <v>266</v>
+        <v>319</v>
       </c>
       <c r="I14" t="s">
-        <v>268</v>
+        <v>321</v>
       </c>
       <c r="J14" t="s">
-        <v>271</v>
+        <v>323</v>
       </c>
       <c r="K14" t="s">
-        <v>274</v>
+        <v>324</v>
+      </c>
+      <c r="L14" t="s">
+        <v>325</v>
+      </c>
+      <c r="M14" t="n">
+        <v>8000.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D15" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="E15" t="s">
-        <v>179</v>
+        <v>208</v>
       </c>
       <c r="F15" t="s">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="G15" t="s">
-        <v>174</v>
+        <v>290</v>
       </c>
       <c r="H15" t="s">
-        <v>266</v>
+        <v>319</v>
       </c>
       <c r="I15" t="s">
-        <v>268</v>
+        <v>321</v>
       </c>
       <c r="J15" t="s">
-        <v>271</v>
+        <v>323</v>
       </c>
       <c r="K15" t="s">
-        <v>274</v>
+        <v>324</v>
+      </c>
+      <c r="L15" t="s">
+        <v>321</v>
+      </c>
+      <c r="M15" t="n">
+        <v>10000.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="D16" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="E16" t="s">
-        <v>174</v>
+        <v>212</v>
       </c>
       <c r="F16" t="s">
-        <v>211</v>
+        <v>246</v>
       </c>
       <c r="G16" t="s">
-        <v>174</v>
+        <v>291</v>
       </c>
       <c r="H16" t="s">
-        <v>266</v>
+        <v>319</v>
       </c>
       <c r="I16" t="s">
-        <v>268</v>
+        <v>321</v>
       </c>
       <c r="J16" t="s">
-        <v>272</v>
+        <v>323</v>
       </c>
       <c r="K16" t="s">
-        <v>274</v>
+        <v>324</v>
+      </c>
+      <c r="L16" t="s">
+        <v>325</v>
+      </c>
+      <c r="M16" t="n">
+        <v>10000.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="D17" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="E17" t="s">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="F17" t="s">
-        <v>212</v>
+        <v>247</v>
       </c>
       <c r="G17" t="s">
-        <v>236</v>
+        <v>292</v>
       </c>
       <c r="H17" t="s">
-        <v>266</v>
+        <v>319</v>
       </c>
       <c r="I17" t="s">
-        <v>268</v>
+        <v>321</v>
       </c>
       <c r="J17" t="s">
-        <v>273</v>
+        <v>323</v>
       </c>
       <c r="K17" t="s">
-        <v>274</v>
+        <v>324</v>
+      </c>
+      <c r="L17" t="s">
+        <v>325</v>
+      </c>
+      <c r="M17" t="n">
+        <v>15000.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="D18" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="E18" t="s">
-        <v>174</v>
+        <v>214</v>
       </c>
       <c r="F18" t="s">
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="G18" t="s">
-        <v>174</v>
+        <v>209</v>
       </c>
       <c r="H18" t="s">
-        <v>266</v>
+        <v>319</v>
       </c>
       <c r="I18" t="s">
-        <v>268</v>
+        <v>321</v>
       </c>
       <c r="J18" t="s">
-        <v>271</v>
+        <v>323</v>
       </c>
       <c r="K18" t="s">
-        <v>274</v>
+        <v>324</v>
+      </c>
+      <c r="L18" t="s">
+        <v>325</v>
+      </c>
+      <c r="M18" t="n">
+        <v>20000.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D19" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="E19" t="s">
-        <v>181</v>
+        <v>215</v>
       </c>
       <c r="F19" t="s">
-        <v>214</v>
+        <v>249</v>
       </c>
       <c r="G19" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="H19" t="s">
-        <v>266</v>
+        <v>319</v>
       </c>
       <c r="I19" t="s">
-        <v>268</v>
+        <v>321</v>
       </c>
       <c r="J19" t="s">
-        <v>26</v>
+        <v>323</v>
       </c>
       <c r="K19" t="s">
-        <v>31</v>
+        <v>35</v>
+      </c>
+      <c r="L19" t="s">
+        <v>30</v>
+      </c>
+      <c r="M19" t="n">
+        <v>21000.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C20" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="D20" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="E20" t="s">
-        <v>182</v>
+        <v>216</v>
       </c>
       <c r="F20" t="s">
-        <v>215</v>
+        <v>250</v>
       </c>
       <c r="G20" t="s">
-        <v>238</v>
+        <v>293</v>
       </c>
       <c r="H20" t="s">
-        <v>266</v>
+        <v>319</v>
       </c>
       <c r="I20" t="s">
-        <v>268</v>
+        <v>321</v>
       </c>
       <c r="J20" t="s">
-        <v>271</v>
+        <v>323</v>
       </c>
       <c r="K20" t="s">
-        <v>274</v>
+        <v>324</v>
+      </c>
+      <c r="L20" t="s">
+        <v>326</v>
+      </c>
+      <c r="M20" t="n">
+        <v>25000.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="D21" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="E21" t="s">
-        <v>183</v>
+        <v>217</v>
       </c>
       <c r="F21" t="s">
-        <v>216</v>
+        <v>251</v>
       </c>
       <c r="G21" t="s">
-        <v>174</v>
+        <v>294</v>
       </c>
       <c r="H21" t="s">
-        <v>266</v>
+        <v>319</v>
       </c>
       <c r="I21" t="s">
-        <v>268</v>
+        <v>321</v>
       </c>
       <c r="J21" t="s">
-        <v>271</v>
+        <v>323</v>
       </c>
       <c r="K21" t="s">
-        <v>274</v>
+        <v>324</v>
+      </c>
+      <c r="L21" t="s">
+        <v>325</v>
+      </c>
+      <c r="M21" t="n">
+        <v>25000.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="D22" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="E22" t="s">
-        <v>182</v>
+        <v>216</v>
       </c>
       <c r="F22" t="s">
-        <v>215</v>
+        <v>250</v>
       </c>
       <c r="G22" t="s">
-        <v>239</v>
+        <v>295</v>
       </c>
       <c r="H22" t="s">
-        <v>266</v>
+        <v>319</v>
       </c>
       <c r="I22" t="s">
-        <v>268</v>
+        <v>321</v>
       </c>
       <c r="J22" t="s">
-        <v>271</v>
+        <v>323</v>
       </c>
       <c r="K22" t="s">
-        <v>274</v>
+        <v>324</v>
+      </c>
+      <c r="L22" t="s">
+        <v>326</v>
+      </c>
+      <c r="M22" t="n">
+        <v>30000.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="D23" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="E23" t="s">
-        <v>182</v>
+        <v>218</v>
       </c>
       <c r="F23" t="s">
-        <v>215</v>
+        <v>252</v>
       </c>
       <c r="G23" t="s">
-        <v>240</v>
+        <v>296</v>
       </c>
       <c r="H23" t="s">
-        <v>266</v>
+        <v>319</v>
       </c>
       <c r="I23" t="s">
-        <v>268</v>
+        <v>321</v>
       </c>
       <c r="J23" t="s">
-        <v>271</v>
+        <v>323</v>
       </c>
       <c r="K23" t="s">
-        <v>274</v>
+        <v>324</v>
+      </c>
+      <c r="L23" t="s">
+        <v>325</v>
+      </c>
+      <c r="M23" t="n">
+        <v>30000.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="D24" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="E24" t="s">
-        <v>182</v>
+        <v>218</v>
       </c>
       <c r="F24" t="s">
-        <v>215</v>
+        <v>252</v>
       </c>
       <c r="G24" t="s">
-        <v>241</v>
+        <v>297</v>
       </c>
       <c r="H24" t="s">
-        <v>266</v>
+        <v>319</v>
       </c>
       <c r="I24" t="s">
-        <v>268</v>
+        <v>321</v>
       </c>
       <c r="J24" t="s">
-        <v>271</v>
+        <v>323</v>
       </c>
       <c r="K24" t="s">
-        <v>274</v>
+        <v>324</v>
+      </c>
+      <c r="L24" t="s">
+        <v>325</v>
+      </c>
+      <c r="M24" t="n">
+        <v>30000.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C25" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="D25" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="E25" t="s">
-        <v>182</v>
+        <v>219</v>
       </c>
       <c r="F25" t="s">
-        <v>215</v>
+        <v>251</v>
       </c>
       <c r="G25" t="s">
-        <v>242</v>
+        <v>298</v>
       </c>
       <c r="H25" t="s">
-        <v>266</v>
+        <v>319</v>
       </c>
       <c r="I25" t="s">
-        <v>268</v>
+        <v>321</v>
       </c>
       <c r="J25" t="s">
-        <v>31</v>
+        <v>323</v>
       </c>
       <c r="K25" t="s">
-        <v>31</v>
+        <v>35</v>
+      </c>
+      <c r="L25" t="s">
+        <v>35</v>
+      </c>
+      <c r="M25" t="n">
+        <v>42000.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C26" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="D26" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="E26" t="s">
-        <v>174</v>
+        <v>220</v>
       </c>
       <c r="F26" t="s">
-        <v>217</v>
+        <v>253</v>
       </c>
       <c r="G26" t="s">
-        <v>174</v>
+        <v>299</v>
       </c>
       <c r="H26" t="s">
-        <v>266</v>
+        <v>319</v>
       </c>
       <c r="I26" t="s">
-        <v>269</v>
+        <v>321</v>
       </c>
       <c r="J26" t="s">
-        <v>270</v>
+        <v>323</v>
       </c>
       <c r="K26" t="s">
-        <v>274</v>
+        <v>35</v>
+      </c>
+      <c r="L26" t="s">
+        <v>35</v>
+      </c>
+      <c r="M26" t="n">
+        <v>42000.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C27" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D27" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="E27" t="s">
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="F27" t="s">
-        <v>202</v>
+        <v>254</v>
       </c>
       <c r="G27" t="s">
-        <v>174</v>
+        <v>300</v>
       </c>
       <c r="H27" t="s">
-        <v>266</v>
+        <v>319</v>
       </c>
       <c r="I27" t="s">
-        <v>269</v>
+        <v>322</v>
       </c>
       <c r="J27" t="s">
-        <v>270</v>
+        <v>323</v>
       </c>
       <c r="K27" t="s">
-        <v>274</v>
+        <v>324</v>
+      </c>
+      <c r="L27" t="s">
+        <v>321</v>
+      </c>
+      <c r="M27" t="n">
+        <v>100.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C28" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="D28" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="E28" t="s">
-        <v>174</v>
+        <v>204</v>
       </c>
       <c r="F28" t="s">
-        <v>202</v>
+        <v>255</v>
       </c>
       <c r="G28" t="s">
-        <v>174</v>
+        <v>209</v>
       </c>
       <c r="H28" t="s">
-        <v>266</v>
+        <v>319</v>
       </c>
       <c r="I28" t="s">
-        <v>269</v>
+        <v>322</v>
       </c>
       <c r="J28" t="s">
-        <v>270</v>
+        <v>323</v>
       </c>
       <c r="K28" t="s">
-        <v>274</v>
+        <v>324</v>
+      </c>
+      <c r="L28" t="s">
+        <v>321</v>
+      </c>
+      <c r="M28" t="n">
+        <v>200.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C29" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="D29" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="E29" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="F29" t="s">
-        <v>202</v>
+        <v>235</v>
       </c>
       <c r="G29" t="s">
-        <v>243</v>
+        <v>282</v>
       </c>
       <c r="H29" t="s">
-        <v>266</v>
+        <v>319</v>
       </c>
       <c r="I29" t="s">
-        <v>269</v>
+        <v>322</v>
       </c>
       <c r="J29" t="s">
-        <v>270</v>
+        <v>323</v>
       </c>
       <c r="K29" t="s">
-        <v>274</v>
+        <v>324</v>
+      </c>
+      <c r="L29" t="s">
+        <v>321</v>
+      </c>
+      <c r="M29" t="n">
+        <v>200.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C30" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="D30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E30" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="F30" t="s">
-        <v>202</v>
+        <v>235</v>
       </c>
       <c r="G30" t="s">
-        <v>244</v>
+        <v>282</v>
       </c>
       <c r="H30" t="s">
-        <v>266</v>
+        <v>319</v>
       </c>
       <c r="I30" t="s">
-        <v>269</v>
+        <v>322</v>
       </c>
       <c r="J30" t="s">
-        <v>270</v>
+        <v>323</v>
       </c>
       <c r="K30" t="s">
-        <v>274</v>
+        <v>324</v>
+      </c>
+      <c r="L30" t="s">
+        <v>321</v>
+      </c>
+      <c r="M30" t="n">
+        <v>400.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C31" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="D31" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="E31" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="F31" t="s">
-        <v>218</v>
+        <v>256</v>
       </c>
       <c r="G31" t="s">
-        <v>245</v>
+        <v>301</v>
       </c>
       <c r="H31" t="s">
-        <v>266</v>
+        <v>319</v>
       </c>
       <c r="I31" t="s">
-        <v>269</v>
+        <v>322</v>
       </c>
       <c r="J31" t="s">
-        <v>270</v>
+        <v>323</v>
       </c>
       <c r="K31" t="s">
-        <v>274</v>
+        <v>324</v>
+      </c>
+      <c r="L31" t="s">
+        <v>321</v>
+      </c>
+      <c r="M31" t="n">
+        <v>400.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C32" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="D32" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="E32" t="s">
-        <v>177</v>
+        <v>223</v>
       </c>
       <c r="F32" t="s">
-        <v>206</v>
+        <v>257</v>
       </c>
       <c r="G32" t="s">
-        <v>246</v>
+        <v>302</v>
       </c>
       <c r="H32" t="s">
-        <v>266</v>
+        <v>319</v>
       </c>
       <c r="I32" t="s">
-        <v>269</v>
+        <v>322</v>
       </c>
       <c r="J32" t="s">
-        <v>270</v>
+        <v>323</v>
       </c>
       <c r="K32" t="s">
-        <v>274</v>
+        <v>324</v>
+      </c>
+      <c r="L32" t="s">
+        <v>321</v>
+      </c>
+      <c r="M32" t="n">
+        <v>600.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B33" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C33" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="D33" t="s">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="E33" t="s">
-        <v>180</v>
+        <v>224</v>
       </c>
       <c r="F33" t="s">
-        <v>212</v>
+        <v>258</v>
       </c>
       <c r="G33" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="H33" t="s">
-        <v>266</v>
+        <v>319</v>
       </c>
       <c r="I33" t="s">
-        <v>269</v>
+        <v>322</v>
       </c>
       <c r="J33" t="s">
-        <v>270</v>
+        <v>323</v>
       </c>
       <c r="K33" t="s">
-        <v>274</v>
+        <v>324</v>
+      </c>
+      <c r="L33" t="s">
+        <v>321</v>
+      </c>
+      <c r="M33" t="n">
+        <v>800.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C34" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="D34" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c r="E34" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="F34" t="s">
-        <v>219</v>
+        <v>259</v>
       </c>
       <c r="G34" t="s">
-        <v>248</v>
+        <v>209</v>
       </c>
       <c r="H34" t="s">
-        <v>266</v>
+        <v>319</v>
       </c>
       <c r="I34" t="s">
-        <v>269</v>
+        <v>322</v>
       </c>
       <c r="J34" t="s">
-        <v>270</v>
+        <v>323</v>
       </c>
       <c r="K34" t="s">
-        <v>274</v>
+        <v>324</v>
+      </c>
+      <c r="L34" t="s">
+        <v>321</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1000.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B35" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C35" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="D35" t="s">
-        <v>150</v>
+        <v>173</v>
       </c>
       <c r="E35" t="s">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="F35" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="G35" t="s">
-        <v>249</v>
+        <v>303</v>
       </c>
       <c r="H35" t="s">
-        <v>266</v>
+        <v>319</v>
       </c>
       <c r="I35" t="s">
-        <v>269</v>
+        <v>322</v>
       </c>
       <c r="J35" t="s">
-        <v>270</v>
+        <v>323</v>
       </c>
       <c r="K35" t="s">
-        <v>274</v>
+        <v>324</v>
+      </c>
+      <c r="L35" t="s">
+        <v>321</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1500.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B36" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C36" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="D36" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="E36" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="F36" t="s">
-        <v>208</v>
+        <v>250</v>
       </c>
       <c r="G36" t="s">
-        <v>174</v>
+        <v>209</v>
       </c>
       <c r="H36" t="s">
-        <v>266</v>
+        <v>319</v>
       </c>
       <c r="I36" t="s">
-        <v>269</v>
+        <v>322</v>
       </c>
       <c r="J36" t="s">
-        <v>271</v>
+        <v>323</v>
       </c>
       <c r="K36" t="s">
-        <v>274</v>
+        <v>324</v>
+      </c>
+      <c r="L36" t="s">
+        <v>321</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2000.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B37" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C37" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="D37" t="s">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="E37" t="s">
-        <v>175</v>
+        <v>225</v>
       </c>
       <c r="F37" t="s">
-        <v>221</v>
+        <v>260</v>
       </c>
       <c r="G37" t="s">
-        <v>250</v>
+        <v>304</v>
       </c>
       <c r="H37" t="s">
-        <v>266</v>
+        <v>319</v>
       </c>
       <c r="I37" t="s">
-        <v>269</v>
+        <v>322</v>
       </c>
       <c r="J37" t="s">
-        <v>270</v>
+        <v>323</v>
       </c>
       <c r="K37" t="s">
-        <v>274</v>
+        <v>324</v>
+      </c>
+      <c r="L37" t="s">
+        <v>321</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3000.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B38" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C38" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="D38" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="E38" t="s">
-        <v>190</v>
+        <v>226</v>
       </c>
       <c r="F38" t="s">
-        <v>211</v>
+        <v>261</v>
       </c>
       <c r="G38" t="s">
-        <v>251</v>
+        <v>305</v>
       </c>
       <c r="H38" t="s">
-        <v>266</v>
+        <v>319</v>
       </c>
       <c r="I38" t="s">
-        <v>269</v>
+        <v>322</v>
       </c>
       <c r="J38" t="s">
-        <v>271</v>
+        <v>323</v>
       </c>
       <c r="K38" t="s">
-        <v>274</v>
+        <v>324</v>
+      </c>
+      <c r="L38" t="s">
+        <v>321</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5000.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B39" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C39" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="D39" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="E39" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="F39" t="s">
-        <v>222</v>
+        <v>262</v>
       </c>
       <c r="G39" t="s">
-        <v>252</v>
+        <v>306</v>
       </c>
       <c r="H39" t="s">
-        <v>266</v>
+        <v>319</v>
       </c>
       <c r="I39" t="s">
-        <v>269</v>
+        <v>322</v>
       </c>
       <c r="J39" t="s">
-        <v>271</v>
+        <v>323</v>
       </c>
       <c r="K39" t="s">
-        <v>274</v>
+        <v>324</v>
+      </c>
+      <c r="L39" t="s">
+        <v>321</v>
+      </c>
+      <c r="M39" t="n">
+        <v>10000.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B40" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C40" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="D40" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="E40" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="F40" t="s">
-        <v>212</v>
+        <v>263</v>
       </c>
       <c r="G40" t="s">
-        <v>174</v>
+        <v>307</v>
       </c>
       <c r="H40" t="s">
-        <v>266</v>
+        <v>319</v>
       </c>
       <c r="I40" t="s">
-        <v>269</v>
+        <v>322</v>
       </c>
       <c r="J40" t="s">
-        <v>273</v>
+        <v>323</v>
       </c>
       <c r="K40" t="s">
-        <v>274</v>
+        <v>324</v>
+      </c>
+      <c r="L40" t="s">
+        <v>325</v>
+      </c>
+      <c r="M40" t="n">
+        <v>10000.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B41" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C41" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="D41" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="E41" t="s">
-        <v>181</v>
+        <v>227</v>
       </c>
       <c r="F41" t="s">
-        <v>214</v>
+        <v>263</v>
       </c>
       <c r="G41" t="s">
-        <v>253</v>
+        <v>308</v>
       </c>
       <c r="H41" t="s">
-        <v>266</v>
+        <v>319</v>
       </c>
       <c r="I41" t="s">
-        <v>269</v>
+        <v>322</v>
       </c>
       <c r="J41" t="s">
-        <v>271</v>
+        <v>323</v>
       </c>
       <c r="K41" t="s">
-        <v>274</v>
+        <v>324</v>
+      </c>
+      <c r="L41" t="s">
+        <v>325</v>
+      </c>
+      <c r="M41" t="n">
+        <v>15000.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B42" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C42" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="D42" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="E42" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="F42" t="s">
-        <v>214</v>
+        <v>264</v>
       </c>
       <c r="G42" t="s">
-        <v>254</v>
+        <v>209</v>
       </c>
       <c r="H42" t="s">
-        <v>266</v>
+        <v>319</v>
       </c>
       <c r="I42" t="s">
-        <v>269</v>
+        <v>322</v>
       </c>
       <c r="J42" t="s">
-        <v>26</v>
+        <v>323</v>
       </c>
       <c r="K42" t="s">
-        <v>31</v>
+        <v>324</v>
+      </c>
+      <c r="L42" t="s">
+        <v>326</v>
+      </c>
+      <c r="M42" t="n">
+        <v>20000.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B43" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C43" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="D43" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="E43" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="F43" t="s">
-        <v>223</v>
+        <v>263</v>
       </c>
       <c r="G43" t="s">
-        <v>255</v>
+        <v>309</v>
       </c>
       <c r="H43" t="s">
-        <v>266</v>
+        <v>319</v>
       </c>
       <c r="I43" t="s">
-        <v>269</v>
+        <v>322</v>
       </c>
       <c r="J43" t="s">
-        <v>271</v>
+        <v>323</v>
       </c>
       <c r="K43" t="s">
-        <v>274</v>
+        <v>324</v>
+      </c>
+      <c r="L43" t="s">
+        <v>325</v>
+      </c>
+      <c r="M43" t="n">
+        <v>20000.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B44" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C44" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="D44" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="E44" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="F44" t="s">
-        <v>223</v>
+        <v>263</v>
       </c>
       <c r="G44" t="s">
-        <v>256</v>
+        <v>310</v>
       </c>
       <c r="H44" t="s">
-        <v>266</v>
+        <v>319</v>
       </c>
       <c r="I44" t="s">
-        <v>269</v>
+        <v>322</v>
       </c>
       <c r="J44" t="s">
-        <v>271</v>
+        <v>323</v>
       </c>
       <c r="K44" t="s">
-        <v>274</v>
+        <v>35</v>
+      </c>
+      <c r="L44" t="s">
+        <v>30</v>
+      </c>
+      <c r="M44" t="n">
+        <v>21000.0</v>
       </c>
     </row>
     <row r="45">
@@ -2432,209 +2852,245 @@
         <v>31</v>
       </c>
       <c r="B45" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C45" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="D45" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="E45" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="F45" t="s">
-        <v>223</v>
+        <v>265</v>
       </c>
       <c r="G45" t="s">
-        <v>257</v>
+        <v>209</v>
       </c>
       <c r="H45" t="s">
-        <v>266</v>
+        <v>319</v>
       </c>
       <c r="I45" t="s">
-        <v>269</v>
+        <v>322</v>
       </c>
       <c r="J45" t="s">
-        <v>31</v>
+        <v>323</v>
       </c>
       <c r="K45" t="s">
-        <v>31</v>
+        <v>324</v>
+      </c>
+      <c r="L45" t="s">
+        <v>326</v>
+      </c>
+      <c r="M45" t="n">
+        <v>25000.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B46" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C46" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="D46" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="E46" t="s">
-        <v>174</v>
+        <v>218</v>
       </c>
       <c r="F46" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="G46" t="s">
-        <v>174</v>
+        <v>311</v>
       </c>
       <c r="H46" t="s">
-        <v>267</v>
+        <v>319</v>
       </c>
       <c r="I46" t="s">
-        <v>268</v>
+        <v>322</v>
       </c>
       <c r="J46" t="s">
-        <v>270</v>
+        <v>323</v>
       </c>
       <c r="K46" t="s">
-        <v>274</v>
+        <v>324</v>
+      </c>
+      <c r="L46" t="s">
+        <v>325</v>
+      </c>
+      <c r="M46" t="n">
+        <v>25000.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B47" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C47" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="D47" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="E47" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="F47" t="s">
-        <v>225</v>
+        <v>266</v>
       </c>
       <c r="G47" t="s">
-        <v>174</v>
+        <v>209</v>
       </c>
       <c r="H47" t="s">
-        <v>267</v>
+        <v>319</v>
       </c>
       <c r="I47" t="s">
-        <v>268</v>
+        <v>322</v>
       </c>
       <c r="J47" t="s">
-        <v>270</v>
+        <v>323</v>
       </c>
       <c r="K47" t="s">
-        <v>274</v>
+        <v>324</v>
+      </c>
+      <c r="L47" t="s">
+        <v>326</v>
+      </c>
+      <c r="M47" t="n">
+        <v>30000.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B48" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C48" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="D48" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="E48" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="F48" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="G48" t="s">
-        <v>174</v>
+        <v>312</v>
       </c>
       <c r="H48" t="s">
-        <v>267</v>
+        <v>319</v>
       </c>
       <c r="I48" t="s">
-        <v>268</v>
+        <v>322</v>
       </c>
       <c r="J48" t="s">
-        <v>270</v>
+        <v>323</v>
       </c>
       <c r="K48" t="s">
-        <v>274</v>
+        <v>324</v>
+      </c>
+      <c r="L48" t="s">
+        <v>325</v>
+      </c>
+      <c r="M48" t="n">
+        <v>30000.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B49" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C49" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="D49" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="E49" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="F49" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="G49" t="s">
-        <v>174</v>
+        <v>313</v>
       </c>
       <c r="H49" t="s">
-        <v>267</v>
+        <v>319</v>
       </c>
       <c r="I49" t="s">
-        <v>268</v>
+        <v>322</v>
       </c>
       <c r="J49" t="s">
-        <v>270</v>
+        <v>323</v>
       </c>
       <c r="K49" t="s">
-        <v>274</v>
+        <v>35</v>
+      </c>
+      <c r="L49" t="s">
+        <v>35</v>
+      </c>
+      <c r="M49" t="n">
+        <v>42000.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B50" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C50" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="D50" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="E50" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="F50" t="s">
-        <v>226</v>
+        <v>267</v>
       </c>
       <c r="G50" t="s">
-        <v>258</v>
+        <v>209</v>
       </c>
       <c r="H50" t="s">
-        <v>267</v>
+        <v>320</v>
       </c>
       <c r="I50" t="s">
-        <v>268</v>
+        <v>321</v>
       </c>
       <c r="J50" t="s">
-        <v>270</v>
+        <v>323</v>
       </c>
       <c r="K50" t="s">
-        <v>274</v>
+        <v>324</v>
+      </c>
+      <c r="L50" t="s">
+        <v>321</v>
+      </c>
+      <c r="M50" t="n">
+        <v>60.0</v>
       </c>
     </row>
     <row r="51">
@@ -2642,104 +3098,122 @@
         <v>14</v>
       </c>
       <c r="B51" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C51" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="D51" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="E51" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="F51" t="s">
-        <v>227</v>
+        <v>268</v>
       </c>
       <c r="G51" t="s">
-        <v>259</v>
+        <v>209</v>
       </c>
       <c r="H51" t="s">
-        <v>267</v>
+        <v>320</v>
       </c>
       <c r="I51" t="s">
-        <v>268</v>
+        <v>321</v>
       </c>
       <c r="J51" t="s">
-        <v>270</v>
+        <v>323</v>
       </c>
       <c r="K51" t="s">
-        <v>274</v>
+        <v>324</v>
+      </c>
+      <c r="L51" t="s">
+        <v>321</v>
+      </c>
+      <c r="M51" t="n">
+        <v>200.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="B52" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C52" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D52" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="E52" t="s">
-        <v>196</v>
+        <v>228</v>
       </c>
       <c r="F52" t="s">
-        <v>228</v>
+        <v>269</v>
       </c>
       <c r="G52" t="s">
-        <v>174</v>
+        <v>314</v>
       </c>
       <c r="H52" t="s">
-        <v>267</v>
+        <v>320</v>
       </c>
       <c r="I52" t="s">
-        <v>268</v>
+        <v>321</v>
       </c>
       <c r="J52" t="s">
-        <v>270</v>
+        <v>323</v>
       </c>
       <c r="K52" t="s">
-        <v>274</v>
+        <v>324</v>
+      </c>
+      <c r="L52" t="s">
+        <v>321</v>
+      </c>
+      <c r="M52" t="n">
+        <v>300.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B53" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C53" t="s">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="D53" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="E53" t="s">
-        <v>195</v>
+        <v>229</v>
       </c>
       <c r="F53" t="s">
-        <v>227</v>
+        <v>270</v>
       </c>
       <c r="G53" t="s">
-        <v>174</v>
+        <v>209</v>
       </c>
       <c r="H53" t="s">
-        <v>267</v>
+        <v>320</v>
       </c>
       <c r="I53" t="s">
-        <v>268</v>
+        <v>321</v>
       </c>
       <c r="J53" t="s">
-        <v>270</v>
+        <v>323</v>
       </c>
       <c r="K53" t="s">
-        <v>274</v>
+        <v>324</v>
+      </c>
+      <c r="L53" t="s">
+        <v>321</v>
+      </c>
+      <c r="M53" t="n">
+        <v>400.0</v>
       </c>
     </row>
     <row r="54">
@@ -2747,34 +3221,40 @@
         <v>17</v>
       </c>
       <c r="B54" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C54" t="s">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="D54" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="E54" t="s">
-        <v>197</v>
+        <v>230</v>
       </c>
       <c r="F54" t="s">
-        <v>229</v>
+        <v>271</v>
       </c>
       <c r="G54" t="s">
-        <v>174</v>
+        <v>315</v>
       </c>
       <c r="H54" t="s">
-        <v>267</v>
+        <v>320</v>
       </c>
       <c r="I54" t="s">
-        <v>268</v>
+        <v>321</v>
       </c>
       <c r="J54" t="s">
-        <v>270</v>
+        <v>323</v>
       </c>
       <c r="K54" t="s">
-        <v>274</v>
+        <v>324</v>
+      </c>
+      <c r="L54" t="s">
+        <v>321</v>
+      </c>
+      <c r="M54" t="n">
+        <v>600.0</v>
       </c>
     </row>
     <row r="55">
@@ -2782,279 +3262,573 @@
         <v>18</v>
       </c>
       <c r="B55" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C55" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="D55" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="E55" t="s">
-        <v>195</v>
+        <v>231</v>
       </c>
       <c r="F55" t="s">
-        <v>227</v>
+        <v>272</v>
       </c>
       <c r="G55" t="s">
-        <v>174</v>
+        <v>209</v>
       </c>
       <c r="H55" t="s">
-        <v>267</v>
+        <v>320</v>
       </c>
       <c r="I55" t="s">
-        <v>268</v>
+        <v>321</v>
       </c>
       <c r="J55" t="s">
-        <v>270</v>
+        <v>323</v>
       </c>
       <c r="K55" t="s">
-        <v>274</v>
+        <v>324</v>
+      </c>
+      <c r="L55" t="s">
+        <v>321</v>
+      </c>
+      <c r="M55" t="n">
+        <v>800.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B56" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C56" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="D56" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="E56" t="s">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="F56" t="s">
-        <v>230</v>
+        <v>272</v>
       </c>
       <c r="G56" t="s">
-        <v>260</v>
+        <v>209</v>
       </c>
       <c r="H56" t="s">
-        <v>267</v>
+        <v>320</v>
       </c>
       <c r="I56" t="s">
-        <v>269</v>
+        <v>321</v>
       </c>
       <c r="J56" t="s">
-        <v>270</v>
+        <v>323</v>
       </c>
       <c r="K56" t="s">
-        <v>274</v>
+        <v>324</v>
+      </c>
+      <c r="L56" t="s">
+        <v>321</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1000.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B57" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C57" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="D57" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="E57" t="s">
-        <v>195</v>
+        <v>231</v>
       </c>
       <c r="F57" t="s">
-        <v>227</v>
+        <v>272</v>
       </c>
       <c r="G57" t="s">
-        <v>174</v>
+        <v>209</v>
       </c>
       <c r="H57" t="s">
-        <v>267</v>
+        <v>320</v>
       </c>
       <c r="I57" t="s">
-        <v>269</v>
+        <v>321</v>
       </c>
       <c r="J57" t="s">
-        <v>270</v>
+        <v>323</v>
       </c>
       <c r="K57" t="s">
-        <v>274</v>
+        <v>324</v>
+      </c>
+      <c r="L57" t="s">
+        <v>321</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1500.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B58" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C58" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D58" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="E58" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="F58" t="s">
-        <v>230</v>
+        <v>273</v>
       </c>
       <c r="G58" t="s">
-        <v>261</v>
+        <v>209</v>
       </c>
       <c r="H58" t="s">
-        <v>267</v>
+        <v>320</v>
       </c>
       <c r="I58" t="s">
-        <v>269</v>
+        <v>321</v>
       </c>
       <c r="J58" t="s">
-        <v>270</v>
+        <v>323</v>
       </c>
       <c r="K58" t="s">
-        <v>274</v>
+        <v>324</v>
+      </c>
+      <c r="L58" t="s">
+        <v>321</v>
+      </c>
+      <c r="M58" t="n">
+        <v>3000.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B59" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C59" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D59" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="E59" t="s">
-        <v>199</v>
+        <v>232</v>
       </c>
       <c r="F59" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="G59" t="s">
-        <v>262</v>
+        <v>209</v>
       </c>
       <c r="H59" t="s">
-        <v>267</v>
+        <v>320</v>
       </c>
       <c r="I59" t="s">
-        <v>269</v>
+        <v>321</v>
       </c>
       <c r="J59" t="s">
-        <v>270</v>
+        <v>323</v>
       </c>
       <c r="K59" t="s">
-        <v>274</v>
+        <v>324</v>
+      </c>
+      <c r="L59" t="s">
+        <v>321</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5000.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B60" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C60" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="D60" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="E60" t="s">
-        <v>200</v>
+        <v>233</v>
       </c>
       <c r="F60" t="s">
-        <v>231</v>
+        <v>274</v>
       </c>
       <c r="G60" t="s">
-        <v>263</v>
+        <v>209</v>
       </c>
       <c r="H60" t="s">
-        <v>267</v>
+        <v>320</v>
       </c>
       <c r="I60" t="s">
-        <v>269</v>
+        <v>321</v>
       </c>
       <c r="J60" t="s">
-        <v>270</v>
+        <v>323</v>
       </c>
       <c r="K60" t="s">
-        <v>274</v>
+        <v>324</v>
+      </c>
+      <c r="L60" t="s">
+        <v>321</v>
+      </c>
+      <c r="M60" t="n">
+        <v>10000.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B61" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C61" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="D61" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="E61" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="F61" t="s">
-        <v>232</v>
+        <v>275</v>
       </c>
       <c r="G61" t="s">
-        <v>264</v>
+        <v>209</v>
       </c>
       <c r="H61" t="s">
-        <v>267</v>
+        <v>320</v>
       </c>
       <c r="I61" t="s">
-        <v>269</v>
+        <v>322</v>
       </c>
       <c r="J61" t="s">
-        <v>270</v>
+        <v>323</v>
       </c>
       <c r="K61" t="s">
-        <v>274</v>
+        <v>324</v>
+      </c>
+      <c r="L61" t="s">
+        <v>321</v>
+      </c>
+      <c r="M61" t="n">
+        <v>60.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
+        <v>14</v>
+      </c>
+      <c r="B62" t="s">
+        <v>98</v>
+      </c>
+      <c r="C62" t="s">
+        <v>142</v>
+      </c>
+      <c r="D62" t="s">
+        <v>195</v>
+      </c>
+      <c r="E62" t="s">
+        <v>222</v>
+      </c>
+      <c r="F62" t="s">
+        <v>276</v>
+      </c>
+      <c r="G62" t="s">
+        <v>209</v>
+      </c>
+      <c r="H62" t="s">
+        <v>320</v>
+      </c>
+      <c r="I62" t="s">
+        <v>322</v>
+      </c>
+      <c r="J62" t="s">
+        <v>323</v>
+      </c>
+      <c r="K62" t="s">
+        <v>324</v>
+      </c>
+      <c r="L62" t="s">
+        <v>321</v>
+      </c>
+      <c r="M62" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>15</v>
+      </c>
+      <c r="B63" t="s">
+        <v>99</v>
+      </c>
+      <c r="C63" t="s">
+        <v>124</v>
+      </c>
+      <c r="D63" t="s">
+        <v>196</v>
+      </c>
+      <c r="E63" t="s">
+        <v>209</v>
+      </c>
+      <c r="F63" t="s">
+        <v>277</v>
+      </c>
+      <c r="G63" t="s">
+        <v>209</v>
+      </c>
+      <c r="H63" t="s">
+        <v>320</v>
+      </c>
+      <c r="I63" t="s">
+        <v>322</v>
+      </c>
+      <c r="J63" t="s">
+        <v>323</v>
+      </c>
+      <c r="K63" t="s">
+        <v>324</v>
+      </c>
+      <c r="L63" t="s">
+        <v>321</v>
+      </c>
+      <c r="M63" t="n">
+        <v>400.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>15</v>
+      </c>
+      <c r="B64" t="s">
+        <v>100</v>
+      </c>
+      <c r="C64" t="s">
+        <v>124</v>
+      </c>
+      <c r="D64" t="s">
+        <v>197</v>
+      </c>
+      <c r="E64" t="s">
+        <v>209</v>
+      </c>
+      <c r="F64" t="s">
+        <v>278</v>
+      </c>
+      <c r="G64" t="s">
+        <v>209</v>
+      </c>
+      <c r="H64" t="s">
+        <v>320</v>
+      </c>
+      <c r="I64" t="s">
+        <v>322</v>
+      </c>
+      <c r="J64" t="s">
+        <v>323</v>
+      </c>
+      <c r="K64" t="s">
+        <v>324</v>
+      </c>
+      <c r="L64" t="s">
+        <v>321</v>
+      </c>
+      <c r="M64" t="n">
+        <v>400.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
         <v>18</v>
       </c>
-      <c r="B62" t="s">
-        <v>94</v>
-      </c>
-      <c r="C62" t="s">
-        <v>111</v>
-      </c>
-      <c r="D62" t="s">
-        <v>172</v>
-      </c>
-      <c r="E62" t="s">
+      <c r="B65" t="s">
+        <v>101</v>
+      </c>
+      <c r="C65" t="s">
+        <v>126</v>
+      </c>
+      <c r="D65" t="s">
+        <v>198</v>
+      </c>
+      <c r="E65" t="s">
+        <v>222</v>
+      </c>
+      <c r="F65" t="s">
+        <v>279</v>
+      </c>
+      <c r="G65" t="s">
+        <v>316</v>
+      </c>
+      <c r="H65" t="s">
+        <v>320</v>
+      </c>
+      <c r="I65" t="s">
+        <v>322</v>
+      </c>
+      <c r="J65" t="s">
+        <v>323</v>
+      </c>
+      <c r="K65" t="s">
+        <v>324</v>
+      </c>
+      <c r="L65" t="s">
+        <v>321</v>
+      </c>
+      <c r="M65" t="n">
+        <v>800.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>20</v>
+      </c>
+      <c r="B66" t="s">
+        <v>102</v>
+      </c>
+      <c r="C66" t="s">
+        <v>143</v>
+      </c>
+      <c r="D66" t="s">
+        <v>199</v>
+      </c>
+      <c r="E66" t="s">
+        <v>232</v>
+      </c>
+      <c r="F66" t="s">
+        <v>261</v>
+      </c>
+      <c r="G66" t="s">
+        <v>317</v>
+      </c>
+      <c r="H66" t="s">
+        <v>320</v>
+      </c>
+      <c r="I66" t="s">
+        <v>322</v>
+      </c>
+      <c r="J66" t="s">
+        <v>323</v>
+      </c>
+      <c r="K66" t="s">
+        <v>324</v>
+      </c>
+      <c r="L66" t="s">
+        <v>321</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1500.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>22</v>
+      </c>
+      <c r="B67" t="s">
+        <v>103</v>
+      </c>
+      <c r="C67" t="s">
+        <v>130</v>
+      </c>
+      <c r="D67" t="s">
+        <v>200</v>
+      </c>
+      <c r="E67" t="s">
+        <v>234</v>
+      </c>
+      <c r="F67" t="s">
+        <v>280</v>
+      </c>
+      <c r="G67" t="s">
+        <v>318</v>
+      </c>
+      <c r="H67" t="s">
+        <v>320</v>
+      </c>
+      <c r="I67" t="s">
+        <v>322</v>
+      </c>
+      <c r="J67" t="s">
+        <v>323</v>
+      </c>
+      <c r="K67" t="s">
+        <v>324</v>
+      </c>
+      <c r="L67" t="s">
+        <v>321</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3000.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>23</v>
+      </c>
+      <c r="B68" t="s">
+        <v>104</v>
+      </c>
+      <c r="C68" t="s">
+        <v>132</v>
+      </c>
+      <c r="D68" t="s">
         <v>201</v>
       </c>
-      <c r="F62" t="s">
-        <v>232</v>
-      </c>
-      <c r="G62" t="s">
-        <v>265</v>
-      </c>
-      <c r="H62" t="s">
-        <v>267</v>
-      </c>
-      <c r="I62" t="s">
-        <v>269</v>
-      </c>
-      <c r="J62" t="s">
-        <v>270</v>
-      </c>
-      <c r="K62" t="s">
-        <v>274</v>
+      <c r="E68" t="s">
+        <v>209</v>
+      </c>
+      <c r="F68" t="s">
+        <v>281</v>
+      </c>
+      <c r="G68" t="s">
+        <v>209</v>
+      </c>
+      <c r="H68" t="s">
+        <v>320</v>
+      </c>
+      <c r="I68" t="s">
+        <v>322</v>
+      </c>
+      <c r="J68" t="s">
+        <v>323</v>
+      </c>
+      <c r="K68" t="s">
+        <v>324</v>
+      </c>
+      <c r="L68" t="s">
+        <v>321</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5000.0</v>
       </c>
     </row>
   </sheetData>

--- a/proj_wikipedia/records_athletics/records_athletics_table_main.xlsx
+++ b/proj_wikipedia/records_athletics/records_athletics_table_main.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="335">
   <si>
     <t>Event</t>
   </si>
@@ -47,12 +47,27 @@
     <t>category</t>
   </si>
   <si>
+    <t>Date_recorded</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
     <t>units</t>
   </si>
   <si>
     <t>distance</t>
   </si>
   <si>
+    <t>distance_category</t>
+  </si>
+  <si>
     <t>100 m</t>
   </si>
   <si>
@@ -993,13 +1008,24 @@
   </si>
   <si>
     <t>m (track)</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>middle</t>
+  </si>
+  <si>
+    <t>long</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11.0"/>
@@ -1029,8 +1055,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -1083,2752 +1111,3772 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E2" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="F2" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="G2" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="H2" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="I2" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="J2" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="K2" t="s">
-        <v>324</v>
-      </c>
-      <c r="L2" t="s">
-        <v>321</v>
+        <v>329</v>
+      </c>
+      <c r="L2" t="n" s="2">
+        <v>42196.0</v>
       </c>
       <c r="M2" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="P2" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q2" t="n">
         <v>100.0</v>
+      </c>
+      <c r="R2" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D3" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E3" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="F3" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="G3" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="H3" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="I3" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="J3" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="K3" t="s">
-        <v>324</v>
-      </c>
-      <c r="L3" t="s">
-        <v>321</v>
+        <v>329</v>
+      </c>
+      <c r="L3" t="n" s="2">
+        <v>42112.0</v>
       </c>
       <c r="M3" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="P3" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q3" t="n">
         <v>200.0</v>
+      </c>
+      <c r="R3" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D4" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E4" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F4" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="G4" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="H4" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="I4" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="J4" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="K4" t="s">
-        <v>324</v>
-      </c>
-      <c r="L4" t="s">
-        <v>321</v>
+        <v>329</v>
+      </c>
+      <c r="L4" t="n" s="2">
+        <v>33819.0</v>
       </c>
       <c r="M4" t="n">
+        <v>1992.0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P4" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q4" t="n">
         <v>400.0</v>
+      </c>
+      <c r="R4" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D5" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E5" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F5" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="G5" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="H5" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="I5" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="J5" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="K5" t="s">
-        <v>324</v>
-      </c>
-      <c r="L5" t="s">
-        <v>321</v>
+        <v>329</v>
+      </c>
+      <c r="L5" t="n" s="2">
+        <v>42623.0</v>
       </c>
       <c r="M5" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="P5" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q5" t="n">
         <v>500.0</v>
+      </c>
+      <c r="R5" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D6" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E6" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="F6" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="G6" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="H6" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="I6" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="J6" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="K6" t="s">
-        <v>324</v>
-      </c>
-      <c r="L6" t="s">
-        <v>321</v>
+        <v>329</v>
+      </c>
+      <c r="L6" t="n" s="2">
+        <v>42526.0</v>
       </c>
       <c r="M6" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P6" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q6" t="n">
         <v>600.0</v>
+      </c>
+      <c r="R6" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="E7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="G7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="H7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="I7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="J7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="K7" t="s">
-        <v>324</v>
-      </c>
-      <c r="L7" t="s">
-        <v>321</v>
+        <v>329</v>
+      </c>
+      <c r="L7" t="n" s="2">
+        <v>41130.0</v>
       </c>
       <c r="M7" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="P7" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q7" t="n">
         <v>800.0</v>
+      </c>
+      <c r="R7" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D8" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E8" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="F8" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="G8" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="H8" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="I8" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="J8" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="K8" t="s">
-        <v>324</v>
-      </c>
-      <c r="L8" t="s">
-        <v>321</v>
+        <v>329</v>
+      </c>
+      <c r="L8" t="n" s="2">
+        <v>36408.0</v>
       </c>
       <c r="M8" t="n">
+        <v>1999.0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P8" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q8" t="n">
         <v>1000.0</v>
+      </c>
+      <c r="R8" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D9" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="E9" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="F9" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="G9" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="H9" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="I9" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="J9" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="K9" t="s">
-        <v>324</v>
-      </c>
-      <c r="L9" t="s">
-        <v>321</v>
+        <v>329</v>
+      </c>
+      <c r="L9" t="n" s="2">
+        <v>37127.0</v>
       </c>
       <c r="M9" t="n">
+        <v>2001.0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="P9" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q9" t="n">
         <v>1500.0</v>
+      </c>
+      <c r="R9" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D10" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E10" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="F10" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="G10" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="H10" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="I10" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="J10" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="K10" t="s">
-        <v>324</v>
-      </c>
-      <c r="L10" t="s">
-        <v>321</v>
+        <v>329</v>
+      </c>
+      <c r="L10" t="n" s="2">
+        <v>36008.0</v>
       </c>
       <c r="M10" t="n">
+        <v>1998.0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P10" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q10" t="n">
         <v>2000.0</v>
+      </c>
+      <c r="R10" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D11" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="E11" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="F11" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="G11" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="H11" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="I11" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="J11" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="K11" t="s">
-        <v>324</v>
-      </c>
-      <c r="L11" t="s">
-        <v>321</v>
+        <v>329</v>
+      </c>
+      <c r="L11" t="n" s="2">
+        <v>35309.0</v>
       </c>
       <c r="M11" t="n">
+        <v>1996.0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P11" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q11" t="n">
         <v>3000.0</v>
+      </c>
+      <c r="R11" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D12" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E12" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="F12" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="G12" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="H12" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="I12" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="J12" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="K12" t="s">
-        <v>324</v>
-      </c>
-      <c r="L12" t="s">
-        <v>321</v>
+        <v>329</v>
+      </c>
+      <c r="L12" t="n" s="2">
+        <v>35664.0</v>
       </c>
       <c r="M12" t="n">
+        <v>1997.0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="P12" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q12" t="n">
         <v>5000.0</v>
+      </c>
+      <c r="R12" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D13" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E13" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="F13" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="G13" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="H13" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="I13" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="J13" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="K13" t="s">
-        <v>324</v>
-      </c>
-      <c r="L13" t="s">
-        <v>325</v>
+        <v>329</v>
+      </c>
+      <c r="L13" t="n" s="2">
+        <v>36611.0</v>
       </c>
       <c r="M13" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="P13" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q13" t="n">
         <v>5000.0</v>
+      </c>
+      <c r="R13" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D14" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="E14" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="F14" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="G14" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="H14" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="I14" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="J14" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="K14" t="s">
-        <v>324</v>
-      </c>
-      <c r="L14" t="s">
-        <v>325</v>
+        <v>329</v>
+      </c>
+      <c r="L14" t="n" s="2">
+        <v>41363.0</v>
       </c>
       <c r="M14" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="P14" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q14" t="n">
         <v>8000.0</v>
+      </c>
+      <c r="R14" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D15" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E15" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="F15" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="G15" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="H15" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="I15" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="J15" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="K15" t="s">
-        <v>324</v>
-      </c>
-      <c r="L15" t="s">
-        <v>321</v>
+        <v>329</v>
+      </c>
+      <c r="L15" t="n" s="2">
+        <v>35664.0</v>
       </c>
       <c r="M15" t="n">
+        <v>1997.0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="P15" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q15" t="n">
         <v>10000.0</v>
+      </c>
+      <c r="R15" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D16" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E16" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="F16" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="G16" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="H16" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="I16" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="J16" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="K16" t="s">
-        <v>324</v>
-      </c>
-      <c r="L16" t="s">
-        <v>325</v>
+        <v>329</v>
+      </c>
+      <c r="L16" t="n" s="2">
+        <v>40447.0</v>
       </c>
       <c r="M16" t="n">
+        <v>2010.0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="P16" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q16" t="n">
         <v>10000.0</v>
+      </c>
+      <c r="R16" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D17" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="E17" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="F17" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="G17" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="H17" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="I17" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="J17" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="K17" t="s">
-        <v>324</v>
-      </c>
-      <c r="L17" t="s">
-        <v>325</v>
+        <v>329</v>
+      </c>
+      <c r="L17" t="n" s="2">
+        <v>40503.0</v>
       </c>
       <c r="M17" t="n">
+        <v>2010.0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P17" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q17" t="n">
         <v>15000.0</v>
+      </c>
+      <c r="R17" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D18" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E18" t="s">
+        <v>219</v>
+      </c>
+      <c r="F18" t="s">
+        <v>253</v>
+      </c>
+      <c r="G18" t="s">
         <v>214</v>
       </c>
-      <c r="F18" t="s">
-        <v>248</v>
-      </c>
-      <c r="G18" t="s">
-        <v>209</v>
-      </c>
       <c r="H18" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="I18" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="J18" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="K18" t="s">
-        <v>324</v>
-      </c>
-      <c r="L18" t="s">
-        <v>325</v>
+        <v>329</v>
+      </c>
+      <c r="L18" t="n" s="2">
+        <v>38998.0</v>
       </c>
       <c r="M18" t="n">
+        <v>2006.0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="P18" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q18" t="n">
         <v>20000.0</v>
+      </c>
+      <c r="R18" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D19" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E19" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="F19" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="G19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="H19" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="I19" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="J19" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="K19" t="s">
+        <v>40</v>
+      </c>
+      <c r="L19" t="n" s="2">
+        <v>39158.0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2007.0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="P19" t="s">
         <v>35</v>
       </c>
-      <c r="L19" t="s">
-        <v>30</v>
-      </c>
-      <c r="M19" t="n">
+      <c r="Q19" t="n">
         <v>21000.0</v>
+      </c>
+      <c r="R19" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D20" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="E20" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="F20" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="G20" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="H20" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="I20" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="J20" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="K20" t="s">
-        <v>324</v>
-      </c>
-      <c r="L20" t="s">
-        <v>326</v>
+        <v>329</v>
+      </c>
+      <c r="L20" t="n" s="2">
+        <v>40697.0</v>
       </c>
       <c r="M20" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P20" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q20" t="n">
         <v>25000.0</v>
+      </c>
+      <c r="R20" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C21" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D21" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="E21" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="F21" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="G21" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="H21" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="I21" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="J21" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="K21" t="s">
-        <v>324</v>
-      </c>
-      <c r="L21" t="s">
-        <v>325</v>
+        <v>329</v>
+      </c>
+      <c r="L21" t="n" s="2">
+        <v>41035.0</v>
       </c>
       <c r="M21" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="P21" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q21" t="n">
         <v>25000.0</v>
+      </c>
+      <c r="R21" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D22" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="E22" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="F22" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="G22" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="H22" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="I22" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="J22" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="K22" t="s">
-        <v>324</v>
-      </c>
-      <c r="L22" t="s">
-        <v>326</v>
+        <v>329</v>
+      </c>
+      <c r="L22" t="n" s="2">
+        <v>40697.0</v>
       </c>
       <c r="M22" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P22" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q22" t="n">
         <v>30000.0</v>
+      </c>
+      <c r="R22" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C23" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D23" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E23" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="F23" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="G23" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="H23" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="I23" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="J23" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="K23" t="s">
-        <v>324</v>
-      </c>
-      <c r="L23" t="s">
-        <v>325</v>
+        <v>329</v>
+      </c>
+      <c r="L23" t="n" s="2">
+        <v>42484.0</v>
       </c>
       <c r="M23" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="P23" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q23" t="n">
         <v>30000.0</v>
+      </c>
+      <c r="R23" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C24" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D24" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E24" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="F24" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="G24" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="H24" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="I24" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="J24" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="K24" t="s">
-        <v>324</v>
-      </c>
-      <c r="L24" t="s">
-        <v>325</v>
+        <v>329</v>
+      </c>
+      <c r="L24" t="n" s="2">
+        <v>42484.0</v>
       </c>
       <c r="M24" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="P24" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q24" t="n">
         <v>30000.0</v>
+      </c>
+      <c r="R24" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C25" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D25" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E25" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="F25" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="G25" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="H25" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="I25" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="J25" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="K25" t="s">
-        <v>35</v>
-      </c>
-      <c r="L25" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="L25" t="n" s="2">
+        <v>41910.0</v>
       </c>
       <c r="M25" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="P25" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q25" t="n">
         <v>42000.0</v>
+      </c>
+      <c r="R25" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C26" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D26" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="E26" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="F26" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="G26" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="H26" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="I26" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="J26" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="K26" t="s">
-        <v>35</v>
-      </c>
-      <c r="L26" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="L26" t="n" s="2">
+        <v>42861.0</v>
       </c>
       <c r="M26" t="n">
+        <v>2017.0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="P26" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q26" t="n">
         <v>42000.0</v>
+      </c>
+      <c r="R26" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C27" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D27" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="E27" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="F27" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="G27" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="H27" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="I27" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="J27" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="K27" t="s">
-        <v>324</v>
-      </c>
-      <c r="L27" t="s">
-        <v>321</v>
+        <v>329</v>
+      </c>
+      <c r="L27" t="n" s="2">
+        <v>42261.0</v>
       </c>
       <c r="M27" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="P27" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q27" t="n">
         <v>100.0</v>
+      </c>
+      <c r="R27" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C28" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D28" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E28" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F28" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="G28" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="H28" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="I28" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="J28" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="K28" t="s">
-        <v>324</v>
-      </c>
-      <c r="L28" t="s">
-        <v>321</v>
+        <v>329</v>
+      </c>
+      <c r="L28" t="n" s="2">
+        <v>30902.0</v>
       </c>
       <c r="M28" t="n">
+        <v>1984.0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="P28" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q28" t="n">
         <v>200.0</v>
+      </c>
+      <c r="R28" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C29" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D29" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E29" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="F29" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="G29" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="H29" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="I29" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="J29" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="K29" t="s">
-        <v>324</v>
-      </c>
-      <c r="L29" t="s">
-        <v>321</v>
+        <v>329</v>
+      </c>
+      <c r="L29" t="n" s="2">
+        <v>42195.0</v>
       </c>
       <c r="M29" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="P29" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q29" t="n">
         <v>200.0</v>
+      </c>
+      <c r="R29" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C30" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D30" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E30" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="F30" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="G30" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="H30" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="I30" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="J30" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="K30" t="s">
-        <v>324</v>
-      </c>
-      <c r="L30" t="s">
-        <v>321</v>
+        <v>329</v>
+      </c>
+      <c r="L30" t="n" s="2">
+        <v>42196.0</v>
       </c>
       <c r="M30" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="P30" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q30" t="n">
         <v>400.0</v>
+      </c>
+      <c r="R30" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C31" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D31" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="E31" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="F31" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G31" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="H31" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="I31" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="J31" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="K31" t="s">
-        <v>324</v>
-      </c>
-      <c r="L31" t="s">
-        <v>321</v>
+        <v>329</v>
+      </c>
+      <c r="L31" t="n" s="2">
+        <v>42240.0</v>
       </c>
       <c r="M31" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="P31" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q31" t="n">
         <v>400.0</v>
+      </c>
+      <c r="R31" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B32" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C32" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D32" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E32" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="F32" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="G32" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="H32" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="I32" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="J32" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="K32" t="s">
-        <v>324</v>
-      </c>
-      <c r="L32" t="s">
-        <v>321</v>
+        <v>329</v>
+      </c>
+      <c r="L32" t="n" s="2">
+        <v>41095.0</v>
       </c>
       <c r="M32" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P32" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q32" t="n">
         <v>600.0</v>
+      </c>
+      <c r="R32" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B33" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C33" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D33" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="E33" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="F33" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="G33" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="H33" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="I33" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="J33" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="K33" t="s">
-        <v>324</v>
-      </c>
-      <c r="L33" t="s">
-        <v>321</v>
+        <v>329</v>
+      </c>
+      <c r="L33" t="n" s="2">
+        <v>39689.0</v>
       </c>
       <c r="M33" t="n">
+        <v>2008.0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="P33" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q33" t="n">
         <v>800.0</v>
+      </c>
+      <c r="R33" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B34" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C34" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D34" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="E34" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="F34" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="G34" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="H34" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="I34" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="J34" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="K34" t="s">
-        <v>324</v>
-      </c>
-      <c r="L34" t="s">
-        <v>321</v>
+        <v>329</v>
+      </c>
+      <c r="L34" t="n" s="2">
+        <v>37081.0</v>
       </c>
       <c r="M34" t="n">
+        <v>2001.0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="P34" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q34" t="n">
         <v>1000.0</v>
+      </c>
+      <c r="R34" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C35" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D35" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="E35" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="F35" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="G35" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="H35" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="I35" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="J35" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="K35" t="s">
-        <v>324</v>
-      </c>
-      <c r="L35" t="s">
-        <v>321</v>
+        <v>329</v>
+      </c>
+      <c r="L35" t="n" s="2">
+        <v>42518.0</v>
       </c>
       <c r="M35" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="P35" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q35" t="n">
         <v>1500.0</v>
+      </c>
+      <c r="R35" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B36" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C36" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D36" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="E36" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="F36" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="G36" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="H36" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="I36" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="J36" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="K36" t="s">
-        <v>324</v>
-      </c>
-      <c r="L36" t="s">
-        <v>321</v>
+        <v>329</v>
+      </c>
+      <c r="L36" t="n" s="2">
+        <v>39971.0</v>
       </c>
       <c r="M36" t="n">
+        <v>2009.0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="P36" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q36" t="n">
         <v>2000.0</v>
+      </c>
+      <c r="R36" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C37" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D37" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="E37" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="F37" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="G37" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="H37" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="I37" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="J37" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="K37" t="s">
-        <v>324</v>
-      </c>
-      <c r="L37" t="s">
-        <v>321</v>
+        <v>329</v>
+      </c>
+      <c r="L37" t="n" s="2">
+        <v>41768.0</v>
       </c>
       <c r="M37" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="P37" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q37" t="n">
         <v>3000.0</v>
+      </c>
+      <c r="R37" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B38" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C38" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D38" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="E38" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="F38" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="G38" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="H38" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="I38" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="J38" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="K38" t="s">
-        <v>324</v>
-      </c>
-      <c r="L38" t="s">
-        <v>321</v>
+        <v>329</v>
+      </c>
+      <c r="L38" t="n" s="2">
+        <v>40753.0</v>
       </c>
       <c r="M38" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="P38" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q38" t="n">
         <v>5000.0</v>
+      </c>
+      <c r="R38" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B39" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D39" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="E39" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F39" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="G39" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="H39" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="I39" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="J39" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="K39" t="s">
-        <v>324</v>
-      </c>
-      <c r="L39" t="s">
-        <v>321</v>
+        <v>329</v>
+      </c>
+      <c r="L39" t="n" s="2">
+        <v>42594.0</v>
       </c>
       <c r="M39" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="P39" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q39" t="n">
         <v>10000.0</v>
+      </c>
+      <c r="R39" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B40" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C40" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D40" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="E40" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="F40" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="G40" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="H40" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="I40" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="J40" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="K40" t="s">
-        <v>324</v>
-      </c>
-      <c r="L40" t="s">
-        <v>325</v>
+        <v>329</v>
+      </c>
+      <c r="L40" t="n" s="2">
+        <v>42826.0</v>
       </c>
       <c r="M40" t="n">
+        <v>2017.0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P40" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q40" t="n">
         <v>10000.0</v>
+      </c>
+      <c r="R40" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B41" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C41" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D41" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="E41" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="F41" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="G41" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="H41" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="I41" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="J41" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="K41" t="s">
-        <v>324</v>
-      </c>
-      <c r="L41" t="s">
-        <v>325</v>
+        <v>329</v>
+      </c>
+      <c r="L41" t="n" s="2">
+        <v>42826.0</v>
       </c>
       <c r="M41" t="n">
+        <v>2017.0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P41" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q41" t="n">
         <v>15000.0</v>
+      </c>
+      <c r="R41" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C42" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D42" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="E42" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="F42" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G42" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="H42" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="I42" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="J42" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="K42" t="s">
-        <v>324</v>
-      </c>
-      <c r="L42" t="s">
-        <v>326</v>
+        <v>329</v>
+      </c>
+      <c r="L42" t="n" s="2">
+        <v>36772.0</v>
       </c>
       <c r="M42" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P42" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q42" t="n">
         <v>20000.0</v>
+      </c>
+      <c r="R42" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B43" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C43" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D43" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="E43" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="F43" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="G43" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="H43" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="I43" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="J43" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="K43" t="s">
-        <v>324</v>
-      </c>
-      <c r="L43" t="s">
-        <v>325</v>
+        <v>329</v>
+      </c>
+      <c r="L43" t="n" s="2">
+        <v>42826.0</v>
       </c>
       <c r="M43" t="n">
+        <v>2017.0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P43" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q43" t="n">
         <v>20000.0</v>
+      </c>
+      <c r="R43" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B44" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C44" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D44" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="E44" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="F44" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="G44" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="H44" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="I44" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="J44" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="K44" t="s">
+        <v>40</v>
+      </c>
+      <c r="L44" t="n" s="2">
+        <v>42826.0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2017.0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P44" t="s">
         <v>35</v>
       </c>
-      <c r="L44" t="s">
-        <v>30</v>
-      </c>
-      <c r="M44" t="n">
+      <c r="Q44" t="n">
         <v>21000.0</v>
+      </c>
+      <c r="R44" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B45" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C45" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D45" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="E45" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="F45" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="G45" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="H45" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="I45" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="J45" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="K45" t="s">
-        <v>324</v>
-      </c>
-      <c r="L45" t="s">
-        <v>326</v>
+        <v>329</v>
+      </c>
+      <c r="L45" t="n" s="2">
+        <v>37520.0</v>
       </c>
       <c r="M45" t="n">
+        <v>2002.0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P45" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q45" t="n">
         <v>25000.0</v>
+      </c>
+      <c r="R45" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B46" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C46" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D46" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="E46" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="F46" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="G46" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="H46" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="I46" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="J46" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="K46" t="s">
-        <v>324</v>
-      </c>
-      <c r="L46" t="s">
-        <v>325</v>
+        <v>329</v>
+      </c>
+      <c r="L46" t="n" s="2">
+        <v>42848.0</v>
       </c>
       <c r="M46" t="n">
+        <v>2017.0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="P46" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q46" t="n">
         <v>25000.0</v>
+      </c>
+      <c r="R46" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B47" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C47" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D47" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="E47" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="F47" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="G47" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="H47" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="I47" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="J47" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="K47" t="s">
-        <v>324</v>
-      </c>
-      <c r="L47" t="s">
-        <v>326</v>
+        <v>329</v>
+      </c>
+      <c r="L47" t="n" s="2">
+        <v>37778.0</v>
       </c>
       <c r="M47" t="n">
+        <v>2003.0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="O47" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="P47" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q47" t="n">
         <v>30000.0</v>
+      </c>
+      <c r="R47" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B48" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C48" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D48" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="E48" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="F48" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="G48" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="H48" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="I48" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="J48" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="K48" t="s">
-        <v>324</v>
-      </c>
-      <c r="L48" t="s">
-        <v>325</v>
+        <v>329</v>
+      </c>
+      <c r="L48" t="n" s="2">
+        <v>42848.0</v>
       </c>
       <c r="M48" t="n">
+        <v>2017.0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="O48" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="P48" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q48" t="n">
         <v>30000.0</v>
+      </c>
+      <c r="R48" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B49" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C49" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D49" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="E49" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="F49" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="G49" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="H49" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="I49" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="J49" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="K49" t="s">
-        <v>35</v>
-      </c>
-      <c r="L49" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="L49" t="n" s="2">
+        <v>42848.0</v>
       </c>
       <c r="M49" t="n">
+        <v>2017.0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="O49" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="P49" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q49" t="n">
         <v>42000.0</v>
+      </c>
+      <c r="R49" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B50" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C50" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D50" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="E50" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="F50" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="G50" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="H50" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="I50" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="J50" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="K50" t="s">
-        <v>324</v>
-      </c>
-      <c r="L50" t="s">
-        <v>321</v>
+        <v>329</v>
+      </c>
+      <c r="L50" t="n" s="2">
+        <v>38380.0</v>
       </c>
       <c r="M50" t="n">
+        <v>2005.0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O50" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="P50" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q50" t="n">
         <v>60.0</v>
+      </c>
+      <c r="R50" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B51" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C51" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D51" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="E51" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="F51" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="G51" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="H51" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="I51" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="J51" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="K51" t="s">
-        <v>324</v>
-      </c>
-      <c r="L51" t="s">
-        <v>321</v>
+        <v>329</v>
+      </c>
+      <c r="L51" t="n" s="2">
+        <v>38052.0</v>
       </c>
       <c r="M51" t="n">
+        <v>2004.0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="P51" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q51" t="n">
         <v>200.0</v>
+      </c>
+      <c r="R51" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B52" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C52" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D52" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="E52" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="F52" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="G52" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="H52" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="I52" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="J52" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="K52" t="s">
-        <v>324</v>
-      </c>
-      <c r="L52" t="s">
-        <v>321</v>
+        <v>329</v>
+      </c>
+      <c r="L52" t="n" s="2">
+        <v>41615.0</v>
       </c>
       <c r="M52" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="O52" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="P52" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q52" t="n">
         <v>300.0</v>
+      </c>
+      <c r="R52" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B53" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C53" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D53" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="E53" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="F53" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="G53" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="H53" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="I53" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="J53" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="K53" t="s">
-        <v>324</v>
-      </c>
-      <c r="L53" t="s">
-        <v>321</v>
+        <v>329</v>
+      </c>
+      <c r="L53" t="n" s="2">
+        <v>34749.0</v>
       </c>
       <c r="M53" t="n">
+        <v>1995.0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O53" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="P53" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q53" t="n">
         <v>400.0</v>
+      </c>
+      <c r="R53" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B54" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C54" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D54" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="E54" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="F54" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="G54" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="H54" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="I54" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="J54" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="K54" t="s">
-        <v>324</v>
-      </c>
-      <c r="L54" t="s">
-        <v>321</v>
+        <v>329</v>
+      </c>
+      <c r="L54" t="n" s="2">
+        <v>42755.0</v>
       </c>
       <c r="M54" t="n">
+        <v>2017.0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O54" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P54" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q54" t="n">
         <v>600.0</v>
+      </c>
+      <c r="R54" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B55" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C55" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D55" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E55" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="F55" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="G55" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="H55" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="I55" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="J55" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="K55" t="s">
-        <v>324</v>
-      </c>
-      <c r="L55" t="s">
-        <v>321</v>
+        <v>329</v>
+      </c>
+      <c r="L55" t="n" s="2">
+        <v>38017.0</v>
       </c>
       <c r="M55" t="n">
+        <v>2004.0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O55" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="P55" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q55" t="n">
         <v>800.0</v>
+      </c>
+      <c r="R55" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B56" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C56" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D56" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="E56" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="F56" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="G56" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="H56" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="I56" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="J56" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="K56" t="s">
-        <v>324</v>
-      </c>
-      <c r="L56" t="s">
-        <v>321</v>
+        <v>329</v>
+      </c>
+      <c r="L56" t="n" s="2">
+        <v>36562.0</v>
       </c>
       <c r="M56" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O56" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="P56" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q56" t="n">
         <v>1000.0</v>
+      </c>
+      <c r="R56" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B57" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C57" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D57" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="E57" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="F57" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="G57" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="H57" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="I57" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="J57" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="K57" t="s">
-        <v>324</v>
-      </c>
-      <c r="L57" t="s">
-        <v>321</v>
+        <v>329</v>
+      </c>
+      <c r="L57" t="n" s="2">
+        <v>35827.0</v>
       </c>
       <c r="M57" t="n">
+        <v>1998.0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P57" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q57" t="n">
         <v>1500.0</v>
+      </c>
+      <c r="R57" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B58" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C58" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D58" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="E58" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="F58" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="G58" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="H58" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="I58" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="J58" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="K58" t="s">
-        <v>324</v>
-      </c>
-      <c r="L58" t="s">
-        <v>321</v>
+        <v>329</v>
+      </c>
+      <c r="L58" t="n" s="2">
+        <v>35832.0</v>
       </c>
       <c r="M58" t="n">
+        <v>1998.0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O58" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="P58" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q58" t="n">
         <v>3000.0</v>
+      </c>
+      <c r="R58" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B59" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C59" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D59" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="E59" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F59" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="G59" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="H59" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="I59" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="J59" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="K59" t="s">
-        <v>324</v>
-      </c>
-      <c r="L59" t="s">
-        <v>321</v>
+        <v>329</v>
+      </c>
+      <c r="L59" t="n" s="2">
+        <v>35845.0</v>
       </c>
       <c r="M59" t="n">
+        <v>1998.0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O59" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="P59" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q59" t="n">
         <v>5000.0</v>
+      </c>
+      <c r="R59" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B60" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C60" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D60" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="E60" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="F60" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="G60" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="H60" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="I60" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="J60" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="K60" t="s">
-        <v>324</v>
-      </c>
-      <c r="L60" t="s">
-        <v>321</v>
+        <v>329</v>
+      </c>
+      <c r="L60" t="n" s="2">
+        <v>37297.0</v>
       </c>
       <c r="M60" t="n">
+        <v>2002.0</v>
+      </c>
+      <c r="N60" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O60" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="P60" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q60" t="n">
         <v>10000.0</v>
+      </c>
+      <c r="R60" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B61" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C61" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D61" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="E61" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="F61" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="G61" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="H61" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="I61" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="J61" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="K61" t="s">
-        <v>324</v>
-      </c>
-      <c r="L61" t="s">
-        <v>321</v>
+        <v>329</v>
+      </c>
+      <c r="L61" t="n" s="2">
+        <v>40923.0</v>
       </c>
       <c r="M61" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O61" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="P61" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q61" t="n">
         <v>60.0</v>
+      </c>
+      <c r="R61" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B62" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C62" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D62" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="E62" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="F62" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="G62" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="H62" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="I62" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="J62" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="K62" t="s">
-        <v>324</v>
-      </c>
-      <c r="L62" t="s">
-        <v>321</v>
+        <v>329</v>
+      </c>
+      <c r="L62" t="n" s="2">
+        <v>31842.0</v>
       </c>
       <c r="M62" t="n">
+        <v>1987.0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O62" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="P62" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q62" t="n">
         <v>200.0</v>
+      </c>
+      <c r="R62" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B63" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C63" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D63" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="E63" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="F63" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="G63" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="H63" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="I63" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="J63" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="K63" t="s">
-        <v>324</v>
-      </c>
-      <c r="L63" t="s">
-        <v>321</v>
+        <v>329</v>
+      </c>
+      <c r="L63" t="n" s="2">
+        <v>30751.0</v>
       </c>
       <c r="M63" t="n">
+        <v>1984.0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O63" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="P63" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q63" t="n">
         <v>400.0</v>
+      </c>
+      <c r="R63" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B64" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C64" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D64" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E64" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="F64" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="G64" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="H64" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="I64" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="J64" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="K64" t="s">
-        <v>324</v>
-      </c>
-      <c r="L64" t="s">
-        <v>321</v>
+        <v>329</v>
+      </c>
+      <c r="L64" t="n" s="2">
+        <v>30744.0</v>
       </c>
       <c r="M64" t="n">
+        <v>1984.0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O64" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P64" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q64" t="n">
         <v>400.0</v>
+      </c>
+      <c r="R64" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B65" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C65" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D65" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="E65" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="F65" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="G65" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="H65" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="I65" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="J65" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="K65" t="s">
-        <v>324</v>
-      </c>
-      <c r="L65" t="s">
-        <v>321</v>
+        <v>329</v>
+      </c>
+      <c r="L65" t="n" s="2">
+        <v>40979.0</v>
       </c>
       <c r="M65" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O65" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="P65" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q65" t="n">
         <v>800.0</v>
+      </c>
+      <c r="R65" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B66" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C66" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D66" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="E66" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F66" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="G66" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="H66" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="I66" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="J66" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="K66" t="s">
-        <v>324</v>
-      </c>
-      <c r="L66" t="s">
-        <v>321</v>
+        <v>329</v>
+      </c>
+      <c r="L66" t="n" s="2">
+        <v>40596.0</v>
       </c>
       <c r="M66" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O66" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="P66" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q66" t="n">
         <v>1500.0</v>
+      </c>
+      <c r="R66" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B67" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C67" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D67" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="E67" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="F67" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="G67" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="H67" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="I67" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="J67" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="K67" t="s">
-        <v>324</v>
-      </c>
-      <c r="L67" t="s">
-        <v>321</v>
+        <v>329</v>
+      </c>
+      <c r="L67" t="n" s="2">
+        <v>42784.0</v>
       </c>
       <c r="M67" t="n">
+        <v>2017.0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O67" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="P67" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q67" t="n">
         <v>3000.0</v>
+      </c>
+      <c r="R67" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B68" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C68" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D68" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="E68" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="F68" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="G68" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="H68" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="I68" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="J68" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="K68" t="s">
-        <v>324</v>
-      </c>
-      <c r="L68" t="s">
-        <v>321</v>
+        <v>329</v>
+      </c>
+      <c r="L68" t="n" s="2">
+        <v>36204.0</v>
       </c>
       <c r="M68" t="n">
+        <v>1999.0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O68" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="P68" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q68" t="n">
         <v>5000.0</v>
+      </c>
+      <c r="R68" t="s">
+        <v>333</v>
       </c>
     </row>
   </sheetData>

--- a/proj_wikipedia/records_athletics/records_athletics_table_main.xlsx
+++ b/proj_wikipedia/records_athletics/records_athletics_table_main.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="401">
   <si>
     <t>Event</t>
   </si>
@@ -59,12 +59,12 @@
     <t>day</t>
   </si>
   <si>
+    <t>city</t>
+  </si>
+  <si>
     <t>country</t>
   </si>
   <si>
-    <t>city</t>
-  </si>
-  <si>
     <t>units</t>
   </si>
   <si>
@@ -83,6 +83,12 @@
     <t>400 m</t>
   </si>
   <si>
+    <t>500 m</t>
+  </si>
+  <si>
+    <t>600 m</t>
+  </si>
+  <si>
     <t>800 m</t>
   </si>
   <si>
@@ -92,6 +98,9 @@
     <t>1500 m</t>
   </si>
   <si>
+    <t>2000 m</t>
+  </si>
+  <si>
     <t>3000 m</t>
   </si>
   <si>
@@ -101,6 +110,9 @@
     <t>5 km (road)</t>
   </si>
   <si>
+    <t>8 km (road)</t>
+  </si>
+  <si>
     <t>10000 m</t>
   </si>
   <si>
@@ -110,625 +122,763 @@
     <t>15 km (road)</t>
   </si>
   <si>
+    <t>20 km (road)</t>
+  </si>
+  <si>
+    <t>Half marathon</t>
+  </si>
+  <si>
+    <t>25000 m (track)</t>
+  </si>
+  <si>
+    <t>25 km (road)</t>
+  </si>
+  <si>
+    <t>30000 m (track)</t>
+  </si>
+  <si>
+    <t>30 km (road)</t>
+  </si>
+  <si>
+    <t>Marathon</t>
+  </si>
+  <si>
     <t>20000 m (track)</t>
   </si>
   <si>
-    <t>20 km (road)</t>
-  </si>
-  <si>
-    <t>Half marathon</t>
-  </si>
-  <si>
-    <t>25 km (road)</t>
-  </si>
-  <si>
-    <t>30 km (road)</t>
-  </si>
-  <si>
-    <t>35 km (road)</t>
-  </si>
-  <si>
-    <t>40 km (road)</t>
-  </si>
-  <si>
-    <t>Marathon</t>
-  </si>
-  <si>
-    <t>2000 m</t>
-  </si>
-  <si>
     <t>60 m</t>
   </si>
   <si>
-    <t>600 m</t>
-  </si>
-  <si>
-    <t>10.61 A (-0.4 m/s)</t>
-  </si>
-  <si>
-    <t>10.1 A #</t>
-  </si>
-  <si>
-    <t>21.30</t>
-  </si>
-  <si>
-    <t>20.7 A #</t>
-  </si>
-  <si>
-    <t>45.42 A</t>
-  </si>
-  <si>
-    <t>1:42.37</t>
-  </si>
-  <si>
-    <t>2:15.75</t>
-  </si>
-  <si>
-    <t>3:29.91</t>
-  </si>
-  <si>
-    <t>7:25.09</t>
-  </si>
-  <si>
-    <t>12:37.35</t>
-  </si>
-  <si>
-    <t>13:10</t>
-  </si>
-  <si>
-    <t>26:17.53</t>
-  </si>
-  <si>
-    <t>27:02</t>
-  </si>
-  <si>
-    <t>41:29+</t>
-  </si>
-  <si>
-    <t>56:25.98+</t>
-  </si>
-  <si>
-    <t>55:48+</t>
-  </si>
-  <si>
-    <t>58:47</t>
-  </si>
-  <si>
-    <t>1:12:47+</t>
-  </si>
-  <si>
-    <t>1:11:37 #</t>
-  </si>
-  <si>
-    <t>1:27:30+</t>
-  </si>
-  <si>
-    <t>1:42:01+</t>
-  </si>
-  <si>
-    <t>1:56:55+</t>
-  </si>
-  <si>
-    <t>2:03:03</t>
-  </si>
-  <si>
-    <t>12.10</t>
-  </si>
-  <si>
-    <t>11.8 A #</t>
-  </si>
-  <si>
-    <t>11.55 A #</t>
-  </si>
-  <si>
-    <t>23.84 A (-1.6 m/s)</t>
-  </si>
-  <si>
-    <t>51.44 A</t>
-  </si>
-  <si>
-    <t>1:57.48</t>
-  </si>
-  <si>
-    <t>3:50.07</t>
-  </si>
-  <si>
-    <t>5:27.50</t>
-  </si>
-  <si>
-    <t>8:22.22</t>
-  </si>
-  <si>
-    <t>14:11.15</t>
-  </si>
-  <si>
-    <t>14:46</t>
-  </si>
-  <si>
-    <t>29:17.45</t>
-  </si>
-  <si>
-    <t>30:30</t>
-  </si>
-  <si>
-    <t>46:27.7</t>
-  </si>
-  <si>
-    <t>1:05:35.3</t>
-  </si>
-  <si>
-    <t>1:02:47+</t>
-  </si>
-  <si>
-    <t>1:06:14</t>
-  </si>
-  <si>
-    <t>1:20:51+</t>
-  </si>
-  <si>
-    <t>1:37:23+</t>
-  </si>
-  <si>
-    <t>2:17:56</t>
-  </si>
-  <si>
-    <t>6.82</t>
-  </si>
-  <si>
-    <t>21.90</t>
-  </si>
-  <si>
-    <t>46.96</t>
-  </si>
-  <si>
-    <t>1:15.31</t>
-  </si>
-  <si>
-    <t>1:44.52</t>
-  </si>
-  <si>
-    <t>3:31.76</t>
-  </si>
-  <si>
-    <t>4:49.99</t>
-  </si>
-  <si>
-    <t>7:26.15</t>
-  </si>
-  <si>
-    <t>12:49.60</t>
-  </si>
-  <si>
-    <t>1:29.36+</t>
-  </si>
-  <si>
-    <t>1:59.17</t>
-  </si>
-  <si>
-    <t>2:33.06</t>
-  </si>
-  <si>
-    <t>3:55.17</t>
-  </si>
-  <si>
-    <t>5:23.75</t>
-  </si>
-  <si>
-    <t>8:16.60</t>
-  </si>
-  <si>
-    <t>14:18.86</t>
-  </si>
-  <si>
-    <t>Wetere Galcha</t>
-  </si>
-  <si>
-    <t>Gebre Gebregzi</t>
-  </si>
-  <si>
-    <t>Negussie Gechamo</t>
-  </si>
-  <si>
-    <t>Tegegne Bezabeh</t>
-  </si>
-  <si>
-    <t>Mohamed Aman</t>
-  </si>
-  <si>
-    <t>Aman Wote</t>
-  </si>
-  <si>
-    <t>Haile Gebrselassie</t>
-  </si>
-  <si>
-    <t>Kenenisa Bekele</t>
-  </si>
-  <si>
-    <t>Birhanu Dejene</t>
-  </si>
-  <si>
-    <t>Deriba Merga</t>
-  </si>
-  <si>
-    <t>Atsedu Tsegay</t>
-  </si>
-  <si>
-    <t>Fethiya Hassen</t>
-  </si>
-  <si>
-    <t>Atkelt Wubeshet</t>
-  </si>
-  <si>
-    <t>Tegest Tamangnu Yuma</t>
-  </si>
-  <si>
-    <t>Genet Lire</t>
-  </si>
-  <si>
-    <t>Fantu Magiso</t>
-  </si>
-  <si>
-    <t>Genzebe Dibaba</t>
-  </si>
-  <si>
-    <t>Almaz Ayana</t>
-  </si>
-  <si>
-    <t>Tirunesh Dibaba</t>
-  </si>
-  <si>
-    <t>Meseret Defar</t>
-  </si>
-  <si>
-    <t>Dire Tune</t>
-  </si>
-  <si>
-    <t>Worknesh Degefa</t>
-  </si>
-  <si>
-    <t>Berhane Haile</t>
-  </si>
-  <si>
-    <t>Alemayehu Gudeta</t>
-  </si>
-  <si>
-    <t>Mohammed Aman</t>
-  </si>
-  <si>
-    <t>Kutre Dulecha</t>
-  </si>
-  <si>
-    <t>30 April 2008</t>
-  </si>
-  <si>
-    <t>6 June 1971</t>
-  </si>
-  <si>
-    <t>31 May 2007</t>
-  </si>
-  <si>
-    <t>17 May 1998</t>
-  </si>
-  <si>
-    <t>18 October 1968</t>
-  </si>
-  <si>
-    <t>6 September 2013</t>
-  </si>
-  <si>
-    <t>5 September 2014</t>
-  </si>
-  <si>
-    <t>18 July 2014</t>
-  </si>
-  <si>
-    <t>28 August 1998</t>
-  </si>
-  <si>
-    <t>31 May 2004</t>
-  </si>
-  <si>
-    <t>3 April 2005</t>
-  </si>
-  <si>
-    <t>26 August 2005</t>
-  </si>
-  <si>
-    <t>11 December 2002</t>
-  </si>
-  <si>
-    <t>20 February 2009</t>
-  </si>
-  <si>
-    <t>27 June 2007</t>
-  </si>
-  <si>
-    <t>15 January 2006</t>
-  </si>
-  <si>
-    <t>31 March 2012</t>
-  </si>
-  <si>
-    <t>25 September 2016</t>
-  </si>
-  <si>
-    <t>12 March 2006</t>
+    <t>300 m</t>
+  </si>
+  <si>
+    <t>10.23 A (+0.8 m/s)</t>
+  </si>
+  <si>
+    <t>20.14 (+1.9 m/s)</t>
+  </si>
+  <si>
+    <t>44.18</t>
+  </si>
+  <si>
+    <t>57.69 [4]</t>
+  </si>
+  <si>
+    <t>1:13.10</t>
+  </si>
+  <si>
+    <t>1:40.91</t>
+  </si>
+  <si>
+    <t>2:11.96</t>
+  </si>
+  <si>
+    <t>3:26.34</t>
+  </si>
+  <si>
+    <t>4:48.74</t>
+  </si>
+  <si>
+    <t>7:20.67</t>
+  </si>
+  <si>
+    <t>12:39.74</t>
+  </si>
+  <si>
+    <t>12:59.5</t>
+  </si>
+  <si>
+    <t>21:54+</t>
+  </si>
+  <si>
+    <t>26:27.85</t>
+  </si>
+  <si>
+    <t>26:44</t>
+  </si>
+  <si>
+    <t>41:13</t>
+  </si>
+  <si>
+    <t>56:41</t>
+  </si>
+  <si>
+    <t>58:33</t>
+  </si>
+  <si>
+    <t>1:12:25.4+</t>
+  </si>
+  <si>
+    <t>1:11:18</t>
+  </si>
+  <si>
+    <t>1:26:47.4</t>
+  </si>
+  <si>
+    <t>1:27:13+</t>
+  </si>
+  <si>
+    <t>2:02:57</t>
+  </si>
+  <si>
+    <t>2:00:25</t>
+  </si>
+  <si>
+    <t>11.47 (+0.6 m/s)</t>
+  </si>
+  <si>
+    <t>23.37</t>
+  </si>
+  <si>
+    <t>22.4 A (ht)</t>
+  </si>
+  <si>
+    <t>51.14 A</t>
+  </si>
+  <si>
+    <t>50.71 X</t>
+  </si>
+  <si>
+    <t>1:23.35</t>
+  </si>
+  <si>
+    <t>1:54.01</t>
+  </si>
+  <si>
+    <t>2:35.39</t>
+  </si>
+  <si>
+    <t>3:56.41</t>
+  </si>
+  <si>
+    <t>5:31.52</t>
+  </si>
+  <si>
+    <t>8:20.68</t>
+  </si>
+  <si>
+    <t>14:20.87</t>
+  </si>
+  <si>
+    <t>29:32.53</t>
+  </si>
+  <si>
+    <t>30:04+</t>
+  </si>
+  <si>
+    <t>45:37+</t>
+  </si>
+  <si>
+    <t>1:05:26.6</t>
+  </si>
+  <si>
+    <t>1:01:25+</t>
+  </si>
+  <si>
+    <t>1:04:52</t>
+  </si>
+  <si>
+    <t>1:27:05.84</t>
+  </si>
+  <si>
+    <t>1:19:43+</t>
+  </si>
+  <si>
+    <t>1:45:50.00</t>
+  </si>
+  <si>
+    <t>1:36:05+</t>
+  </si>
+  <si>
+    <t>2:17:01</t>
+  </si>
+  <si>
+    <t>6.70</t>
+  </si>
+  <si>
+    <t>20.85</t>
+  </si>
+  <si>
+    <t>32.60 OT</t>
+  </si>
+  <si>
+    <t>45.98</t>
+  </si>
+  <si>
+    <t>1:14.97 A</t>
+  </si>
+  <si>
+    <t>1:44.71</t>
+  </si>
+  <si>
+    <t>2:15.50</t>
+  </si>
+  <si>
+    <t>3:32.11</t>
+  </si>
+  <si>
+    <t>7:24.90</t>
+  </si>
+  <si>
+    <t>12:51.48</t>
+  </si>
+  <si>
+    <t>27:50.29</t>
+  </si>
+  <si>
+    <t>7.89</t>
+  </si>
+  <si>
+    <t>25.30</t>
+  </si>
+  <si>
+    <t>54.21</t>
+  </si>
+  <si>
+    <t>53.34 A OT</t>
+  </si>
+  <si>
+    <t>1:58.83</t>
+  </si>
+  <si>
+    <t>4:05.17</t>
+  </si>
+  <si>
+    <t>8:29.41</t>
+  </si>
+  <si>
+    <t>14:51.69</t>
+  </si>
+  <si>
+    <t>Mike Mokamba Nyang'au</t>
+  </si>
+  <si>
+    <t>Carvin Nkanata</t>
+  </si>
+  <si>
+    <t>Samson Kitur</t>
+  </si>
+  <si>
+    <t>David Rudisha</t>
+  </si>
+  <si>
+    <t>Noah Ngeny</t>
+  </si>
+  <si>
+    <t>Bernard Lagat</t>
+  </si>
+  <si>
+    <t>John Kemboi Kibowen</t>
+  </si>
+  <si>
+    <t>Daniel Komen</t>
+  </si>
+  <si>
+    <t>Sammy Kipketer</t>
+  </si>
+  <si>
+    <t>Isaiah Kiplangat Koech</t>
+  </si>
+  <si>
+    <t>Paul Tergat</t>
+  </si>
+  <si>
+    <t>Leonard Patrick Komon</t>
+  </si>
+  <si>
+    <t>Robert Kipchumba</t>
+  </si>
+  <si>
+    <t>Samuel Wanjiru</t>
+  </si>
+  <si>
+    <t>Moses Mosop</t>
+  </si>
+  <si>
+    <t>Dennis Kipruto Kimetto</t>
+  </si>
+  <si>
+    <t>Stanley Biwott</t>
+  </si>
+  <si>
+    <t>Eliud Kipchoge</t>
+  </si>
+  <si>
+    <t>Eunice Kadogo</t>
+  </si>
+  <si>
+    <t>Ruth Waithera</t>
+  </si>
+  <si>
+    <t>Joyce Zakari</t>
+  </si>
+  <si>
+    <t>Pamela Jelimo</t>
+  </si>
+  <si>
+    <t>Faith Macharia</t>
+  </si>
+  <si>
+    <t>Faith Kipyegon</t>
+  </si>
+  <si>
+    <t>Vivian Cheruiyot</t>
+  </si>
+  <si>
+    <t>Hellen Obiri</t>
+  </si>
+  <si>
+    <t>Joyciline Jepkosgei</t>
+  </si>
+  <si>
+    <t>Tegla Loroupe</t>
+  </si>
+  <si>
+    <t>Mary Jepkosgei Keitany</t>
+  </si>
+  <si>
+    <t>Paulvince Obuon</t>
+  </si>
+  <si>
+    <t>Charles Gitonga</t>
+  </si>
+  <si>
+    <t>Emmanuel Korir</t>
+  </si>
+  <si>
+    <t>Joseph Mwengi Mutua</t>
+  </si>
+  <si>
+    <t>Kennedy Kimwetich</t>
+  </si>
+  <si>
+    <t>Laban Rotich</t>
+  </si>
+  <si>
+    <t>Mark Bett</t>
+  </si>
+  <si>
+    <t>Ivy Atieno</t>
+  </si>
+  <si>
+    <t>Joyce Odhiambo</t>
+  </si>
+  <si>
+    <t>Irene Jelagat</t>
+  </si>
+  <si>
+    <t>11 July 2015</t>
+  </si>
+  <si>
+    <t>18 April 2015</t>
+  </si>
+  <si>
+    <t>3 August 1992</t>
+  </si>
+  <si>
+    <t>10 September 2016</t>
+  </si>
+  <si>
+    <t>5 June 2016</t>
+  </si>
+  <si>
+    <t>9 August 2012</t>
+  </si>
+  <si>
+    <t>5 September 1999</t>
+  </si>
+  <si>
+    <t>24 August 2001</t>
+  </si>
+  <si>
+    <t>1 August 1998</t>
+  </si>
+  <si>
+    <t>1 September 1996</t>
+  </si>
+  <si>
+    <t>22 August 1997</t>
+  </si>
+  <si>
+    <t>26 March 2000</t>
+  </si>
+  <si>
+    <t>30 March 2013</t>
+  </si>
+  <si>
+    <t>26 September 2010</t>
+  </si>
+  <si>
+    <t>21 November 2010</t>
+  </si>
+  <si>
+    <t>8 October 2006</t>
+  </si>
+  <si>
+    <t>17 March 2007</t>
   </si>
   <si>
     <t>3 June 2011</t>
   </si>
   <si>
-    <t>5 May 2005</t>
-  </si>
-  <si>
-    <t>20 April 2006</t>
-  </si>
-  <si>
-    <t>8 March 2015</t>
-  </si>
-  <si>
-    <t>13 June 2014</t>
-  </si>
-  <si>
-    <t>9 June 2012</t>
-  </si>
-  <si>
-    <t>17 July 2015</t>
-  </si>
-  <si>
-    <t>17 June 2014</t>
-  </si>
-  <si>
-    <t>14 June 2015</t>
-  </si>
-  <si>
-    <t>6 June 2008</t>
-  </si>
-  <si>
-    <t>9 April 2006</t>
+    <t>6 May 2012</t>
+  </si>
+  <si>
+    <t>24 April 2016</t>
+  </si>
+  <si>
+    <t>28 September 2014</t>
+  </si>
+  <si>
+    <t>6 May 2017</t>
+  </si>
+  <si>
+    <t>14 September 2015</t>
+  </si>
+  <si>
+    <t>8 August 1984</t>
+  </si>
+  <si>
+    <t>10 July 2015</t>
+  </si>
+  <si>
+    <t>24 August 2015</t>
+  </si>
+  <si>
+    <t>5 July 2012</t>
+  </si>
+  <si>
+    <t>29 August 2008</t>
+  </si>
+  <si>
+    <t>9 July 2001</t>
+  </si>
+  <si>
+    <t>28 May 2016</t>
+  </si>
+  <si>
+    <t>7 June 2009</t>
+  </si>
+  <si>
+    <t>9 May 2014</t>
+  </si>
+  <si>
+    <t>29 July 2011</t>
   </si>
   <si>
     <t>12 August 2016</t>
   </si>
   <si>
-    <t>1 September 2013</t>
-  </si>
-  <si>
-    <t>15 November 2009</t>
-  </si>
-  <si>
-    <t>12 June 2008</t>
-  </si>
-  <si>
-    <t>2 April 2016</t>
+    <t>1 April 2017</t>
+  </si>
+  <si>
+    <t>3 September 2000</t>
+  </si>
+  <si>
+    <t>21 September 2002</t>
   </si>
   <si>
     <t>23 April 2017</t>
   </si>
   <si>
-    <t>12 January 1991</t>
-  </si>
-  <si>
-    <t>3 March 1989</t>
-  </si>
-  <si>
-    <t>5 March 1989</t>
-  </si>
-  <si>
-    <t>2 February 2014</t>
-  </si>
-  <si>
-    <t>15 February 2014</t>
+    <t>6 June 2003</t>
+  </si>
+  <si>
+    <t>28 January 2005</t>
+  </si>
+  <si>
+    <t>6 March 2004</t>
+  </si>
+  <si>
+    <t>7 December 2013</t>
+  </si>
+  <si>
+    <t>19 February 1995</t>
+  </si>
+  <si>
+    <t>20 January 2017</t>
+  </si>
+  <si>
+    <t>31 January 2004</t>
+  </si>
+  <si>
+    <t>6 February 2000</t>
   </si>
   <si>
     <t>1 February 1998</t>
   </si>
   <si>
-    <t>17 February 2007</t>
-  </si>
-  <si>
-    <t>25 January 1998</t>
-  </si>
-  <si>
-    <t>20 February 2004</t>
-  </si>
-  <si>
-    <t>24 February 2017</t>
-  </si>
-  <si>
-    <t>14 February 1999</t>
-  </si>
-  <si>
-    <t>1 February 2014</t>
-  </si>
-  <si>
-    <t>7 February 2017</t>
-  </si>
-  <si>
-    <t>6 February 2014</t>
-  </si>
-  <si>
-    <t>19 February 2015</t>
-  </si>
-  <si>
-    <t>African Championships</t>
+    <t>6 February 1998</t>
+  </si>
+  <si>
+    <t>19 February 1998</t>
+  </si>
+  <si>
+    <t>10 February 2002</t>
+  </si>
+  <si>
+    <t>15 January 2012</t>
+  </si>
+  <si>
+    <t>6 March 1987</t>
+  </si>
+  <si>
+    <t>10 March 1984</t>
+  </si>
+  <si>
+    <t>3 March 1984</t>
+  </si>
+  <si>
+    <t>11 March 2012</t>
+  </si>
+  <si>
+    <t>22 February 2011</t>
+  </si>
+  <si>
+    <t>18 February 2017</t>
+  </si>
+  <si>
+    <t>13 February 1999</t>
+  </si>
+  <si>
+    <t>Kenyan Championships</t>
+  </si>
+  <si>
+    <t>NTC Pure Athletics Sprint Elite Meet</t>
+  </si>
+  <si>
+    <t>Olympic Games</t>
+  </si>
+  <si>
+    <t>Great North CityGames</t>
+  </si>
+  <si>
+    <t>British Grand Prix</t>
+  </si>
+  <si>
+    <t>IAAF Grand Prix</t>
+  </si>
+  <si>
+    <t>Memorial Van Damme</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Olympic Games</t>
-  </si>
-  <si>
-    <t>Memorial Van Damme</t>
-  </si>
-  <si>
-    <t>Herculis</t>
-  </si>
-  <si>
-    <t>20th Carlsbad 5000</t>
-  </si>
-  <si>
-    <t>Ras Al Khaimah Half Marathon</t>
-  </si>
-  <si>
-    <t>Golden Spike Ostrava</t>
+    <t>15th Carlsbad 5000</t>
+  </si>
+  <si>
+    <t>Allstate Sugar Bowl Crescent City Classic</t>
+  </si>
+  <si>
+    <t>Singelloop</t>
+  </si>
+  <si>
+    <t>Zevenheuvelenloop</t>
+  </si>
+  <si>
+    <t>World Road Running Championships</t>
+  </si>
+  <si>
+    <t>City-Pier-City Loop</t>
+  </si>
+  <si>
+    <t>Prefontaine Classic</t>
+  </si>
+  <si>
+    <t>BIG 25</t>
+  </si>
+  <si>
+    <t>London Marathon</t>
+  </si>
+  <si>
+    <t>Berlin Marathon</t>
+  </si>
+  <si>
+    <t>Breaking2</t>
+  </si>
+  <si>
+    <t>All-Africa Games</t>
+  </si>
+  <si>
+    <t>World Championships</t>
+  </si>
+  <si>
+    <t>Meeting de la Province de Liège</t>
+  </si>
+  <si>
+    <t>Weltklasse Zürich</t>
+  </si>
+  <si>
+    <t>Qatar Athletic Super Grand Prix</t>
+  </si>
+  <si>
+    <t>DN Galan</t>
   </si>
   <si>
     <t>Prague Half Marathon</t>
   </si>
   <si>
-    <t>Berlin Marathon</t>
-  </si>
-  <si>
-    <t>20 van Alphen</t>
-  </si>
-  <si>
-    <t>African Junior Championships</t>
-  </si>
-  <si>
-    <t>Ethiopian Championships</t>
-  </si>
-  <si>
-    <t>Adidas Grand Prix</t>
-  </si>
-  <si>
-    <t>Meeting International Mohammed VI d'Athlétisme de Rabat</t>
-  </si>
-  <si>
-    <t>Bislett Games</t>
-  </si>
-  <si>
-    <t>15th Carlsbad 5000</t>
-  </si>
-  <si>
-    <t>Tilburg Ten Miles</t>
-  </si>
-  <si>
-    <t>Zevenheuvelenloop</t>
-  </si>
-  <si>
-    <t>London Marathon</t>
-  </si>
-  <si>
-    <t>World Championships</t>
-  </si>
-  <si>
-    <t>Russian Winter Meeting</t>
-  </si>
-  <si>
-    <t>Aviva Indoor Grand Prix</t>
+    <t>Kent State Golden Flash Gala</t>
+  </si>
+  <si>
+    <t>Meeting Pas de Calais</t>
+  </si>
+  <si>
+    <t>Cherry &amp; Silver Collegiate Invitational</t>
   </si>
   <si>
     <t>Sparkassen Cup</t>
   </si>
   <si>
-    <t>BW-Bank Meeting</t>
-  </si>
-  <si>
-    <t>Meeting Ville de Madrid</t>
-  </si>
-  <si>
-    <t>Weltklasse in Karlsruhe</t>
-  </si>
-  <si>
-    <t>Míting Internacional de Catalunya</t>
-  </si>
-  <si>
-    <t>XL Galan</t>
-  </si>
-  <si>
-    <t>Addis Ababa, Ethiopia</t>
-  </si>
-  <si>
-    <t>Kampala, Uganda</t>
-  </si>
-  <si>
-    <t>Mexico City, Mexico</t>
+    <t>GE Galan</t>
+  </si>
+  <si>
+    <t>Indoor Flanders Meeting</t>
+  </si>
+  <si>
+    <t>Birmingham Indoor Grand Prix</t>
+  </si>
+  <si>
+    <t>Kasarani, Kenya</t>
+  </si>
+  <si>
+    <t>Clermont, United States</t>
+  </si>
+  <si>
+    <t>Barcelona, Spain</t>
+  </si>
+  <si>
+    <t>Newcastle, United Kingdom</t>
+  </si>
+  <si>
+    <t>Birmingham, Great Britain</t>
+  </si>
+  <si>
+    <t>London, United Kingdom</t>
+  </si>
+  <si>
+    <t>Rieti, Italy</t>
   </si>
   <si>
     <t>Brussels, Belgium</t>
   </si>
   <si>
-    <t>Fontvieille, Monaco</t>
-  </si>
-  <si>
-    <t>Hengelo, Netherlands</t>
+    <t>Hechtel-Eksel, Belgium</t>
   </si>
   <si>
     <t>Carlsbad, United States</t>
   </si>
   <si>
+    <t>New Orleans, United States</t>
+  </si>
+  <si>
+    <t>Utrecht, Netherlands</t>
+  </si>
+  <si>
+    <t>Nijmegen, Netherlands</t>
+  </si>
+  <si>
+    <t>Debrecen, Hungary</t>
+  </si>
+  <si>
+    <t>The Hague, Netherlands</t>
+  </si>
+  <si>
+    <t>Eugene, United States</t>
+  </si>
+  <si>
+    <t>Berlin, Germany</t>
+  </si>
+  <si>
+    <t>London, Great Britain</t>
+  </si>
+  <si>
+    <t>Monza, Italy</t>
+  </si>
+  <si>
+    <t>Brazzaville, Republic of the Congo</t>
+  </si>
+  <si>
+    <t>Los Angeles, United States</t>
+  </si>
+  <si>
+    <t>Beijing, China</t>
+  </si>
+  <si>
+    <t>Liège, Belgium</t>
+  </si>
+  <si>
+    <t>Zürich, Switzerland</t>
+  </si>
+  <si>
+    <t>Nice, France</t>
+  </si>
+  <si>
     <t>Doha, Qatar</t>
   </si>
   <si>
-    <t>Ras al-Khaimah, United Arab Emirates</t>
-  </si>
-  <si>
-    <t>Ostrava, Czech Republic</t>
-  </si>
-  <si>
-    <t>Phoenix, United States</t>
+    <t>Stockholm, Sweden</t>
+  </si>
+  <si>
+    <t>Rio de Janeiro, Brazil</t>
   </si>
   <si>
     <t>Prague, Czech Republic</t>
   </si>
   <si>
-    <t>Berlin, Germany</t>
-  </si>
-  <si>
-    <t>Alphen aan den Rijn, Netherlands</t>
-  </si>
-  <si>
-    <t>Dar es Salaam, Tanzania</t>
-  </si>
-  <si>
-    <t>New York City, United States</t>
-  </si>
-  <si>
-    <t>Rabat, Morocco</t>
-  </si>
-  <si>
-    <t>Oslo, Norway</t>
-  </si>
-  <si>
-    <t>Rio de Janeiro, Brazil</t>
-  </si>
-  <si>
-    <t>Tilburg, Netherlands</t>
-  </si>
-  <si>
-    <t>Nijmegen, Netherlands</t>
-  </si>
-  <si>
-    <t>London, United Kingdom</t>
-  </si>
-  <si>
-    <t>Gothenburg, Sweden</t>
+    <t>Borgholzhausen, Germany</t>
+  </si>
+  <si>
+    <t>Mengerskirchen, Germany</t>
+  </si>
+  <si>
+    <t>Warstein, Germany</t>
+  </si>
+  <si>
+    <t>State College, United States</t>
+  </si>
+  <si>
+    <t>Allston, United States</t>
+  </si>
+  <si>
+    <t>Kent, United States</t>
+  </si>
+  <si>
+    <t>Liévin, France</t>
+  </si>
+  <si>
+    <t>Albuquerque, United States</t>
+  </si>
+  <si>
+    <t>Stuttgart, Germany</t>
   </si>
   <si>
     <t>Budapest, Hungary</t>
   </si>
   <si>
-    <t>Moscow, Russia</t>
+    <t>Ghent, Belgium</t>
+  </si>
+  <si>
+    <t>Leverkusen, Germany</t>
+  </si>
+  <si>
+    <t>Indianapolis, United States</t>
+  </si>
+  <si>
+    <t>Syracuse, United States</t>
+  </si>
+  <si>
+    <t>Flagstaff, United States</t>
+  </si>
+  <si>
+    <t>Istanbul, Turkey</t>
   </si>
   <si>
     <t>Birmingham, United Kingdom</t>
   </si>
   <si>
-    <t>Stuttgart, Germany</t>
-  </si>
-  <si>
-    <t>Karlsruhe, Germany</t>
-  </si>
-  <si>
-    <t>Madrid, Spain</t>
-  </si>
-  <si>
-    <t>Sabadell, Spain</t>
-  </si>
-  <si>
-    <t>Stockholm, Sweden</t>
+    <t>Dortmund, Germany</t>
   </si>
   <si>
     <t>[1]</t>
@@ -746,6 +896,9 @@
     <t>[6]</t>
   </si>
   <si>
+    <t>[7]</t>
+  </si>
+  <si>
     <t>[8]</t>
   </si>
   <si>
@@ -761,7 +914,13 @@
     <t>[12]</t>
   </si>
   <si>
-    <t>[19]</t>
+    <t>[15][16]</t>
+  </si>
+  <si>
+    <t>[17][18]</t>
+  </si>
+  <si>
+    <t>[15][19]</t>
   </si>
   <si>
     <t>[20]</t>
@@ -773,28 +932,7 @@
     <t>[22]</t>
   </si>
   <si>
-    <t>[24]</t>
-  </si>
-  <si>
-    <t>[25]</t>
-  </si>
-  <si>
-    <t>[26]</t>
-  </si>
-  <si>
-    <t>[27]</t>
-  </si>
-  <si>
-    <t>[28]</t>
-  </si>
-  <si>
-    <t>[29]</t>
-  </si>
-  <si>
-    <t>[31]</t>
-  </si>
-  <si>
-    <t>[32]</t>
+    <t>[23]</t>
   </si>
   <si>
     <t>[33]</t>
@@ -803,7 +941,31 @@
     <t>[34]</t>
   </si>
   <si>
-    <t>[35]</t>
+    <t>[35][36]</t>
+  </si>
+  <si>
+    <t>[37]</t>
+  </si>
+  <si>
+    <t>[39]</t>
+  </si>
+  <si>
+    <t>[40]</t>
+  </si>
+  <si>
+    <t>[42]</t>
+  </si>
+  <si>
+    <t>[43]</t>
+  </si>
+  <si>
+    <t>[44]</t>
+  </si>
+  <si>
+    <t>[46]</t>
+  </si>
+  <si>
+    <t>[47]</t>
   </si>
   <si>
     <t>[48]</t>
@@ -812,22 +974,22 @@
     <t>[49]</t>
   </si>
   <si>
-    <t>[53]</t>
-  </si>
-  <si>
-    <t>[54]</t>
-  </si>
-  <si>
-    <t>[55]</t>
-  </si>
-  <si>
-    <t>[57]</t>
-  </si>
-  <si>
-    <t>[58]</t>
-  </si>
-  <si>
-    <t>[60]</t>
+    <t>[50]</t>
+  </si>
+  <si>
+    <t>[65]</t>
+  </si>
+  <si>
+    <t>[66]</t>
+  </si>
+  <si>
+    <t>[71]</t>
+  </si>
+  <si>
+    <t>[72]</t>
+  </si>
+  <si>
+    <t>[73]</t>
   </si>
   <si>
     <t>outdoor</t>
@@ -842,163 +1004,202 @@
     <t>f</t>
   </si>
   <si>
-    <t>Ethiopian</t>
+    <t>Kenyan</t>
   </si>
   <si>
     <t>main</t>
   </si>
   <si>
-    <t>Ethiopia</t>
-  </si>
-  <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>Mexico</t>
+    <t>Kasarani</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Barcelona</t>
+  </si>
+  <si>
+    <t>Newcastle</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Rieti</t>
+  </si>
+  <si>
+    <t>Brussels</t>
+  </si>
+  <si>
+    <t>Hechtel-Eksel</t>
+  </si>
+  <si>
+    <t>Carlsbad</t>
+  </si>
+  <si>
+    <t>New Orleans</t>
+  </si>
+  <si>
+    <t>Utrecht</t>
+  </si>
+  <si>
+    <t>Nijmegen</t>
+  </si>
+  <si>
+    <t>Debrecen</t>
+  </si>
+  <si>
+    <t>The Hague</t>
+  </si>
+  <si>
+    <t>Eugene</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Monza</t>
+  </si>
+  <si>
+    <t>Brazzaville</t>
+  </si>
+  <si>
+    <t>Los Angeles</t>
+  </si>
+  <si>
+    <t>Beijing</t>
+  </si>
+  <si>
+    <t>Liège</t>
+  </si>
+  <si>
+    <t>Zürich</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Doha</t>
+  </si>
+  <si>
+    <t>Stockholm</t>
+  </si>
+  <si>
+    <t>Rio de Janeiro</t>
+  </si>
+  <si>
+    <t>Prague</t>
+  </si>
+  <si>
+    <t>Borgholzhausen</t>
+  </si>
+  <si>
+    <t>Mengerskirchen</t>
+  </si>
+  <si>
+    <t>Warstein</t>
+  </si>
+  <si>
+    <t>State College</t>
+  </si>
+  <si>
+    <t>Allston</t>
+  </si>
+  <si>
+    <t>Kent</t>
+  </si>
+  <si>
+    <t>Liévin</t>
+  </si>
+  <si>
+    <t>Albuquerque</t>
+  </si>
+  <si>
+    <t>Stuttgart</t>
+  </si>
+  <si>
+    <t>Budapest</t>
+  </si>
+  <si>
+    <t>Ghent</t>
+  </si>
+  <si>
+    <t>Leverkusen</t>
+  </si>
+  <si>
+    <t>Indianapolis</t>
+  </si>
+  <si>
+    <t>Syracuse</t>
+  </si>
+  <si>
+    <t>Flagstaff</t>
+  </si>
+  <si>
+    <t>Istanbul</t>
+  </si>
+  <si>
+    <t>Dortmund</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Great Britain</t>
+  </si>
+  <si>
+    <t>Italy</t>
   </si>
   <si>
     <t>Belgium</t>
   </si>
   <si>
-    <t>Monaco</t>
-  </si>
-  <si>
     <t>Netherlands</t>
   </si>
   <si>
-    <t>United States</t>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Republic of the Congo</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>France</t>
   </si>
   <si>
     <t>Qatar</t>
   </si>
   <si>
-    <t>United Arab Emirates</t>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Brazil</t>
   </si>
   <si>
     <t>Czech Republic</t>
   </si>
   <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>Tanzania</t>
-  </si>
-  <si>
-    <t>Morocco</t>
-  </si>
-  <si>
-    <t>Norway</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>Sweden</t>
-  </si>
-  <si>
-    <t>Hungary</t>
-  </si>
-  <si>
-    <t>Russia</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>Addis Ababa</t>
-  </si>
-  <si>
-    <t>Kampala</t>
-  </si>
-  <si>
-    <t>Mexico City</t>
-  </si>
-  <si>
-    <t>Brussels</t>
-  </si>
-  <si>
-    <t>Fontvieille</t>
-  </si>
-  <si>
-    <t>Hengelo</t>
-  </si>
-  <si>
-    <t>Carlsbad</t>
-  </si>
-  <si>
-    <t>Doha</t>
-  </si>
-  <si>
-    <t>Ras al-Khaimah</t>
-  </si>
-  <si>
-    <t>Ostrava</t>
-  </si>
-  <si>
-    <t>Phoenix</t>
-  </si>
-  <si>
-    <t>Prague</t>
-  </si>
-  <si>
-    <t>Berlin</t>
-  </si>
-  <si>
-    <t>Alphen aan den Rijn</t>
-  </si>
-  <si>
-    <t>Dar es Salaam</t>
-  </si>
-  <si>
-    <t>New York City</t>
-  </si>
-  <si>
-    <t>Rabat</t>
-  </si>
-  <si>
-    <t>Oslo</t>
-  </si>
-  <si>
-    <t>Rio de Janeiro</t>
-  </si>
-  <si>
-    <t>Tilburg</t>
-  </si>
-  <si>
-    <t>Nijmegen</t>
-  </si>
-  <si>
-    <t>London</t>
-  </si>
-  <si>
-    <t>Gothenburg</t>
-  </si>
-  <si>
-    <t>Budapest</t>
-  </si>
-  <si>
-    <t>Moscow</t>
-  </si>
-  <si>
-    <t>Birmingham</t>
-  </si>
-  <si>
-    <t>Stuttgart</t>
-  </si>
-  <si>
-    <t>Karlsruhe</t>
-  </si>
-  <si>
-    <t>Madrid</t>
-  </si>
-  <si>
-    <t>Sabadell</t>
-  </si>
-  <si>
-    <t>Stockholm</t>
+    <t>Turkey</t>
   </si>
   <si>
     <t>km (road)</t>
@@ -1135,412 +1336,412 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="D2" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="E2" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="F2" t="s">
-        <v>208</v>
+        <v>242</v>
       </c>
       <c r="G2" t="s">
-        <v>180</v>
+        <v>289</v>
       </c>
       <c r="H2" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
       <c r="I2" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="J2" t="s">
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="K2" t="s">
-        <v>277</v>
+        <v>331</v>
       </c>
       <c r="L2" t="n" s="2">
-        <v>39568.0</v>
+        <v>42196.0</v>
       </c>
       <c r="M2" t="n">
-        <v>2008.0</v>
+        <v>2015.0</v>
       </c>
       <c r="N2" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="O2" t="n">
-        <v>30.0</v>
+        <v>11.0</v>
       </c>
       <c r="P2" t="s">
-        <v>278</v>
+        <v>332</v>
       </c>
       <c r="Q2" t="s">
-        <v>298</v>
+        <v>377</v>
       </c>
       <c r="R2" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="S2" t="n">
         <v>100.0</v>
       </c>
       <c r="T2" t="s">
-        <v>331</v>
+        <v>398</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="D3" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="E3" t="s">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="F3" t="s">
-        <v>208</v>
+        <v>243</v>
       </c>
       <c r="G3" t="s">
-        <v>180</v>
+        <v>290</v>
       </c>
       <c r="H3" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
       <c r="I3" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="J3" t="s">
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="K3" t="s">
-        <v>277</v>
+        <v>331</v>
       </c>
       <c r="L3" t="n" s="2">
-        <v>26090.0</v>
+        <v>42112.0</v>
       </c>
       <c r="M3" t="n">
-        <v>1971.0</v>
+        <v>2015.0</v>
       </c>
       <c r="N3" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="O3" t="n">
-        <v>6.0</v>
+        <v>18.0</v>
       </c>
       <c r="P3" t="s">
-        <v>278</v>
+        <v>333</v>
       </c>
       <c r="Q3" t="s">
-        <v>298</v>
+        <v>378</v>
       </c>
       <c r="R3" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="S3" t="n">
-        <v>100.0</v>
+        <v>200.0</v>
       </c>
       <c r="T3" t="s">
-        <v>331</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="D4" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="E4" t="s">
-        <v>180</v>
+        <v>211</v>
       </c>
       <c r="F4" t="s">
-        <v>209</v>
+        <v>244</v>
       </c>
       <c r="G4" t="s">
-        <v>180</v>
+        <v>291</v>
       </c>
       <c r="H4" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
       <c r="I4" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="J4" t="s">
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="K4" t="s">
-        <v>277</v>
+        <v>331</v>
       </c>
       <c r="L4" t="n" s="2">
-        <v>39233.0</v>
+        <v>33819.0</v>
       </c>
       <c r="M4" t="n">
-        <v>2007.0</v>
+        <v>1992.0</v>
       </c>
       <c r="N4" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="O4" t="n">
-        <v>31.0</v>
+        <v>3.0</v>
       </c>
       <c r="P4" t="s">
-        <v>279</v>
+        <v>334</v>
       </c>
       <c r="Q4" t="s">
-        <v>299</v>
+        <v>379</v>
       </c>
       <c r="R4" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="S4" t="n">
-        <v>200.0</v>
+        <v>400.0</v>
       </c>
       <c r="T4" t="s">
-        <v>331</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D5" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="E5" t="s">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="F5" t="s">
-        <v>208</v>
+        <v>245</v>
       </c>
       <c r="G5" t="s">
-        <v>180</v>
+        <v>292</v>
       </c>
       <c r="H5" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
       <c r="I5" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="J5" t="s">
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="K5" t="s">
-        <v>277</v>
+        <v>331</v>
       </c>
       <c r="L5" t="n" s="2">
-        <v>35932.0</v>
+        <v>42623.0</v>
       </c>
       <c r="M5" t="n">
-        <v>1998.0</v>
+        <v>2016.0</v>
       </c>
       <c r="N5" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="O5" t="n">
-        <v>17.0</v>
+        <v>10.0</v>
       </c>
       <c r="P5" t="s">
-        <v>278</v>
+        <v>335</v>
       </c>
       <c r="Q5" t="s">
-        <v>298</v>
+        <v>380</v>
       </c>
       <c r="R5" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="S5" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="T5" t="s">
-        <v>331</v>
+        <v>398</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="D6" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="E6" t="s">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="F6" t="s">
-        <v>210</v>
+        <v>246</v>
       </c>
       <c r="G6" t="s">
-        <v>180</v>
+        <v>293</v>
       </c>
       <c r="H6" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
       <c r="I6" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="J6" t="s">
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="K6" t="s">
-        <v>277</v>
+        <v>331</v>
       </c>
       <c r="L6" t="n" s="2">
-        <v>25129.0</v>
+        <v>42526.0</v>
       </c>
       <c r="M6" t="n">
-        <v>1968.0</v>
+        <v>2016.0</v>
       </c>
       <c r="N6" t="n">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="O6" t="n">
-        <v>18.0</v>
+        <v>5.0</v>
       </c>
       <c r="P6" t="s">
-        <v>280</v>
+        <v>336</v>
       </c>
       <c r="Q6" t="s">
-        <v>300</v>
+        <v>381</v>
       </c>
       <c r="R6" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="S6" t="n">
-        <v>400.0</v>
+        <v>600.0</v>
       </c>
       <c r="T6" t="s">
-        <v>331</v>
+        <v>398</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="D7" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="E7" t="s">
-        <v>182</v>
+        <v>211</v>
       </c>
       <c r="F7" t="s">
-        <v>211</v>
+        <v>247</v>
       </c>
       <c r="G7" t="s">
-        <v>239</v>
+        <v>294</v>
       </c>
       <c r="H7" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
       <c r="I7" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="J7" t="s">
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="K7" t="s">
-        <v>277</v>
+        <v>331</v>
       </c>
       <c r="L7" t="n" s="2">
-        <v>41523.0</v>
+        <v>41130.0</v>
       </c>
       <c r="M7" t="n">
-        <v>2013.0</v>
+        <v>2012.0</v>
       </c>
       <c r="N7" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="O7" t="n">
         <v>9.0</v>
       </c>
-      <c r="O7" t="n">
-        <v>6.0</v>
-      </c>
       <c r="P7" t="s">
-        <v>281</v>
+        <v>337</v>
       </c>
       <c r="Q7" t="s">
-        <v>301</v>
+        <v>380</v>
       </c>
       <c r="R7" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="S7" t="n">
         <v>800.0</v>
       </c>
       <c r="T7" t="s">
-        <v>331</v>
+        <v>398</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="D8" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="E8" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="F8" t="s">
-        <v>211</v>
+        <v>248</v>
       </c>
       <c r="G8" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="H8" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
       <c r="I8" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="J8" t="s">
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="K8" t="s">
-        <v>277</v>
+        <v>331</v>
       </c>
       <c r="L8" t="n" s="2">
-        <v>41887.0</v>
+        <v>36408.0</v>
       </c>
       <c r="M8" t="n">
-        <v>2014.0</v>
+        <v>1999.0</v>
       </c>
       <c r="N8" t="n">
         <v>9.0</v>
@@ -1549,119 +1750,119 @@
         <v>5.0</v>
       </c>
       <c r="P8" t="s">
-        <v>281</v>
+        <v>338</v>
       </c>
       <c r="Q8" t="s">
-        <v>301</v>
+        <v>382</v>
       </c>
       <c r="R8" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="S8" t="n">
         <v>1000.0</v>
       </c>
       <c r="T8" t="s">
-        <v>331</v>
+        <v>398</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D9" t="s">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="E9" t="s">
-        <v>183</v>
+        <v>215</v>
       </c>
       <c r="F9" t="s">
-        <v>212</v>
+        <v>249</v>
       </c>
       <c r="G9" t="s">
-        <v>241</v>
+        <v>295</v>
       </c>
       <c r="H9" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
       <c r="I9" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="J9" t="s">
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="K9" t="s">
-        <v>277</v>
+        <v>331</v>
       </c>
       <c r="L9" t="n" s="2">
-        <v>41838.0</v>
+        <v>37127.0</v>
       </c>
       <c r="M9" t="n">
-        <v>2014.0</v>
+        <v>2001.0</v>
       </c>
       <c r="N9" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="O9" t="n">
-        <v>18.0</v>
+        <v>24.0</v>
       </c>
       <c r="P9" t="s">
-        <v>282</v>
+        <v>339</v>
       </c>
       <c r="Q9" t="s">
-        <v>302</v>
+        <v>383</v>
       </c>
       <c r="R9" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="S9" t="n">
         <v>1500.0</v>
       </c>
       <c r="T9" t="s">
-        <v>332</v>
+        <v>399</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D10" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="E10" t="s">
-        <v>182</v>
+        <v>216</v>
       </c>
       <c r="F10" t="s">
-        <v>211</v>
+        <v>250</v>
       </c>
       <c r="G10" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="H10" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
       <c r="I10" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="J10" t="s">
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="K10" t="s">
-        <v>277</v>
+        <v>331</v>
       </c>
       <c r="L10" t="n" s="2">
-        <v>36035.0</v>
+        <v>36008.0</v>
       </c>
       <c r="M10" t="n">
         <v>1998.0</v>
@@ -1670,1014 +1871,1014 @@
         <v>8.0</v>
       </c>
       <c r="O10" t="n">
-        <v>28.0</v>
+        <v>1.0</v>
       </c>
       <c r="P10" t="s">
-        <v>281</v>
+        <v>340</v>
       </c>
       <c r="Q10" t="s">
-        <v>301</v>
+        <v>383</v>
       </c>
       <c r="R10" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="S10" t="n">
-        <v>3000.0</v>
+        <v>2000.0</v>
       </c>
       <c r="T10" t="s">
-        <v>332</v>
+        <v>399</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D11" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="E11" t="s">
-        <v>180</v>
+        <v>214</v>
       </c>
       <c r="F11" t="s">
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="G11" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="H11" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
       <c r="I11" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="J11" t="s">
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="K11" t="s">
-        <v>277</v>
+        <v>331</v>
       </c>
       <c r="L11" t="n" s="2">
-        <v>38138.0</v>
+        <v>35309.0</v>
       </c>
       <c r="M11" t="n">
-        <v>2004.0</v>
+        <v>1996.0</v>
       </c>
       <c r="N11" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="O11" t="n">
-        <v>31.0</v>
+        <v>1.0</v>
       </c>
       <c r="P11" t="s">
-        <v>283</v>
+        <v>338</v>
       </c>
       <c r="Q11" t="s">
-        <v>303</v>
+        <v>382</v>
       </c>
       <c r="R11" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="S11" t="n">
-        <v>5000.0</v>
+        <v>3000.0</v>
       </c>
       <c r="T11" t="s">
-        <v>332</v>
+        <v>399</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="D12" t="s">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="E12" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="F12" t="s">
-        <v>214</v>
+        <v>249</v>
       </c>
       <c r="G12" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="H12" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
       <c r="I12" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="J12" t="s">
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="K12" t="s">
-        <v>277</v>
+        <v>331</v>
       </c>
       <c r="L12" t="n" s="2">
-        <v>38445.0</v>
+        <v>35664.0</v>
       </c>
       <c r="M12" t="n">
-        <v>2005.0</v>
+        <v>1997.0</v>
       </c>
       <c r="N12" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="O12" t="n">
-        <v>3.0</v>
+        <v>22.0</v>
       </c>
       <c r="P12" t="s">
-        <v>284</v>
+        <v>339</v>
       </c>
       <c r="Q12" t="s">
-        <v>304</v>
+        <v>383</v>
       </c>
       <c r="R12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="S12" t="n">
         <v>5000.0</v>
       </c>
       <c r="T12" t="s">
-        <v>332</v>
+        <v>399</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="D13" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="E13" t="s">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="F13" t="s">
-        <v>211</v>
+        <v>251</v>
       </c>
       <c r="G13" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="H13" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
       <c r="I13" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="J13" t="s">
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="K13" t="s">
-        <v>277</v>
+        <v>331</v>
       </c>
       <c r="L13" t="n" s="2">
-        <v>38590.0</v>
+        <v>36611.0</v>
       </c>
       <c r="M13" t="n">
-        <v>2005.0</v>
+        <v>2000.0</v>
       </c>
       <c r="N13" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="O13" t="n">
         <v>26.0</v>
       </c>
       <c r="P13" t="s">
-        <v>281</v>
+        <v>341</v>
       </c>
       <c r="Q13" t="s">
-        <v>301</v>
+        <v>378</v>
       </c>
       <c r="R13" t="s">
-        <v>274</v>
+        <v>396</v>
       </c>
       <c r="S13" t="n">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="T13" t="s">
-        <v>332</v>
+        <v>399</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="D14" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="E14" t="s">
-        <v>180</v>
+        <v>218</v>
       </c>
       <c r="F14" t="s">
-        <v>215</v>
+        <v>252</v>
       </c>
       <c r="G14" t="s">
-        <v>180</v>
+        <v>296</v>
       </c>
       <c r="H14" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
       <c r="I14" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="J14" t="s">
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="K14" t="s">
-        <v>277</v>
+        <v>331</v>
       </c>
       <c r="L14" t="n" s="2">
-        <v>37601.0</v>
+        <v>41363.0</v>
       </c>
       <c r="M14" t="n">
-        <v>2002.0</v>
+        <v>2013.0</v>
       </c>
       <c r="N14" t="n">
-        <v>12.0</v>
+        <v>3.0</v>
       </c>
       <c r="O14" t="n">
-        <v>11.0</v>
+        <v>30.0</v>
       </c>
       <c r="P14" t="s">
-        <v>285</v>
+        <v>342</v>
       </c>
       <c r="Q14" t="s">
-        <v>305</v>
+        <v>378</v>
       </c>
       <c r="R14" t="s">
-        <v>329</v>
+        <v>396</v>
       </c>
       <c r="S14" t="n">
-        <v>10000.0</v>
+        <v>8000.0</v>
       </c>
       <c r="T14" t="s">
-        <v>332</v>
+        <v>399</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="D15" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="E15" t="s">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c r="F15" t="s">
-        <v>216</v>
+        <v>249</v>
       </c>
       <c r="G15" t="s">
-        <v>180</v>
+        <v>297</v>
       </c>
       <c r="H15" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
       <c r="I15" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="J15" t="s">
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="K15" t="s">
-        <v>277</v>
+        <v>331</v>
       </c>
       <c r="L15" t="n" s="2">
-        <v>39864.0</v>
+        <v>35664.0</v>
       </c>
       <c r="M15" t="n">
-        <v>2009.0</v>
+        <v>1997.0</v>
       </c>
       <c r="N15" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="O15" t="n">
-        <v>20.0</v>
+        <v>22.0</v>
       </c>
       <c r="P15" t="s">
-        <v>286</v>
+        <v>339</v>
       </c>
       <c r="Q15" t="s">
-        <v>306</v>
+        <v>383</v>
       </c>
       <c r="R15" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="S15" t="n">
-        <v>15000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="T15" t="s">
-        <v>333</v>
+        <v>399</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="D16" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="E16" t="s">
-        <v>186</v>
+        <v>219</v>
       </c>
       <c r="F16" t="s">
-        <v>217</v>
+        <v>253</v>
       </c>
       <c r="G16" t="s">
-        <v>242</v>
+        <v>298</v>
       </c>
       <c r="H16" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
       <c r="I16" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="J16" t="s">
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="K16" t="s">
-        <v>277</v>
+        <v>331</v>
       </c>
       <c r="L16" t="n" s="2">
-        <v>39260.0</v>
+        <v>40447.0</v>
       </c>
       <c r="M16" t="n">
-        <v>2007.0</v>
+        <v>2010.0</v>
       </c>
       <c r="N16" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="O16" t="n">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
       <c r="P16" t="s">
-        <v>287</v>
+        <v>343</v>
       </c>
       <c r="Q16" t="s">
-        <v>307</v>
+        <v>384</v>
       </c>
       <c r="R16" t="s">
-        <v>330</v>
+        <v>396</v>
       </c>
       <c r="S16" t="n">
-        <v>20000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="T16" t="s">
-        <v>333</v>
+        <v>399</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C17" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="D17" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="E17" t="s">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="F17" t="s">
-        <v>218</v>
+        <v>254</v>
       </c>
       <c r="G17" t="s">
-        <v>180</v>
+        <v>299</v>
       </c>
       <c r="H17" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
       <c r="I17" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="J17" t="s">
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="K17" t="s">
-        <v>277</v>
+        <v>331</v>
       </c>
       <c r="L17" t="n" s="2">
-        <v>38732.0</v>
+        <v>40503.0</v>
       </c>
       <c r="M17" t="n">
-        <v>2006.0</v>
+        <v>2010.0</v>
       </c>
       <c r="N17" t="n">
-        <v>1.0</v>
+        <v>11.0</v>
       </c>
       <c r="O17" t="n">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
       <c r="P17" t="s">
-        <v>284</v>
+        <v>344</v>
       </c>
       <c r="Q17" t="s">
-        <v>308</v>
+        <v>384</v>
       </c>
       <c r="R17" t="s">
-        <v>329</v>
+        <v>396</v>
       </c>
       <c r="S17" t="n">
-        <v>20000.0</v>
+        <v>15000.0</v>
       </c>
       <c r="T17" t="s">
-        <v>333</v>
+        <v>400</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C18" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="D18" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="E18" t="s">
-        <v>187</v>
+        <v>221</v>
       </c>
       <c r="F18" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="G18" t="s">
-        <v>243</v>
+        <v>216</v>
       </c>
       <c r="H18" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
       <c r="I18" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="J18" t="s">
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="K18" t="s">
-        <v>39</v>
+        <v>331</v>
       </c>
       <c r="L18" t="n" s="2">
-        <v>40999.0</v>
+        <v>38998.0</v>
       </c>
       <c r="M18" t="n">
-        <v>2012.0</v>
+        <v>2006.0</v>
       </c>
       <c r="N18" t="n">
-        <v>3.0</v>
+        <v>10.0</v>
       </c>
       <c r="O18" t="n">
-        <v>31.0</v>
+        <v>8.0</v>
       </c>
       <c r="P18" t="s">
-        <v>287</v>
+        <v>345</v>
       </c>
       <c r="Q18" t="s">
-        <v>309</v>
+        <v>385</v>
       </c>
       <c r="R18" t="s">
-        <v>34</v>
+        <v>396</v>
       </c>
       <c r="S18" t="n">
-        <v>21000.0</v>
+        <v>20000.0</v>
       </c>
       <c r="T18" t="s">
-        <v>333</v>
+        <v>400</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C19" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="D19" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="E19" t="s">
-        <v>188</v>
+        <v>222</v>
       </c>
       <c r="F19" t="s">
-        <v>220</v>
+        <v>256</v>
       </c>
       <c r="G19" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="H19" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
       <c r="I19" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="J19" t="s">
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="K19" t="s">
-        <v>277</v>
+        <v>42</v>
       </c>
       <c r="L19" t="n" s="2">
-        <v>42638.0</v>
+        <v>39158.0</v>
       </c>
       <c r="M19" t="n">
-        <v>2016.0</v>
+        <v>2007.0</v>
       </c>
       <c r="N19" t="n">
-        <v>9.0</v>
+        <v>3.0</v>
       </c>
       <c r="O19" t="n">
-        <v>25.0</v>
+        <v>17.0</v>
       </c>
       <c r="P19" t="s">
-        <v>288</v>
+        <v>346</v>
       </c>
       <c r="Q19" t="s">
-        <v>310</v>
+        <v>384</v>
       </c>
       <c r="R19" t="s">
-        <v>329</v>
+        <v>37</v>
       </c>
       <c r="S19" t="n">
-        <v>25000.0</v>
+        <v>21000.0</v>
       </c>
       <c r="T19" t="s">
-        <v>333</v>
+        <v>400</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="D20" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="E20" t="s">
-        <v>189</v>
+        <v>223</v>
       </c>
       <c r="F20" t="s">
-        <v>221</v>
+        <v>257</v>
       </c>
       <c r="G20" t="s">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="H20" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
       <c r="I20" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="J20" t="s">
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="K20" t="s">
-        <v>277</v>
+        <v>331</v>
       </c>
       <c r="L20" t="n" s="2">
-        <v>38788.0</v>
+        <v>40697.0</v>
       </c>
       <c r="M20" t="n">
-        <v>2006.0</v>
+        <v>2011.0</v>
       </c>
       <c r="N20" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="O20" t="n">
         <v>3.0</v>
       </c>
-      <c r="O20" t="n">
-        <v>12.0</v>
-      </c>
       <c r="P20" t="s">
-        <v>283</v>
+        <v>347</v>
       </c>
       <c r="Q20" t="s">
-        <v>311</v>
+        <v>378</v>
       </c>
       <c r="R20" t="s">
-        <v>329</v>
+        <v>397</v>
       </c>
       <c r="S20" t="n">
         <v>25000.0</v>
       </c>
       <c r="T20" t="s">
-        <v>333</v>
+        <v>400</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="D21" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="E21" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="F21" t="s">
-        <v>220</v>
+        <v>258</v>
       </c>
       <c r="G21" t="s">
-        <v>245</v>
+        <v>301</v>
       </c>
       <c r="H21" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
       <c r="I21" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="J21" t="s">
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="K21" t="s">
-        <v>277</v>
+        <v>331</v>
       </c>
       <c r="L21" t="n" s="2">
-        <v>42638.0</v>
+        <v>41035.0</v>
       </c>
       <c r="M21" t="n">
-        <v>2016.0</v>
+        <v>2012.0</v>
       </c>
       <c r="N21" t="n">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="O21" t="n">
-        <v>25.0</v>
+        <v>6.0</v>
       </c>
       <c r="P21" t="s">
-        <v>288</v>
+        <v>348</v>
       </c>
       <c r="Q21" t="s">
-        <v>310</v>
+        <v>386</v>
       </c>
       <c r="R21" t="s">
-        <v>329</v>
+        <v>396</v>
       </c>
       <c r="S21" t="n">
-        <v>30000.0</v>
+        <v>25000.0</v>
       </c>
       <c r="T21" t="s">
-        <v>333</v>
+        <v>400</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C22" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="D22" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="E22" t="s">
-        <v>188</v>
+        <v>223</v>
       </c>
       <c r="F22" t="s">
-        <v>220</v>
+        <v>257</v>
       </c>
       <c r="G22" t="s">
-        <v>246</v>
+        <v>302</v>
       </c>
       <c r="H22" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
       <c r="I22" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="J22" t="s">
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="K22" t="s">
-        <v>277</v>
+        <v>331</v>
       </c>
       <c r="L22" t="n" s="2">
-        <v>42638.0</v>
+        <v>40697.0</v>
       </c>
       <c r="M22" t="n">
-        <v>2016.0</v>
+        <v>2011.0</v>
       </c>
       <c r="N22" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="O22" t="n">
-        <v>25.0</v>
+        <v>3.0</v>
       </c>
       <c r="P22" t="s">
-        <v>288</v>
+        <v>347</v>
       </c>
       <c r="Q22" t="s">
-        <v>310</v>
+        <v>378</v>
       </c>
       <c r="R22" t="s">
-        <v>329</v>
+        <v>397</v>
       </c>
       <c r="S22" t="n">
-        <v>35000.0</v>
+        <v>30000.0</v>
       </c>
       <c r="T22" t="s">
-        <v>333</v>
+        <v>400</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C23" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="D23" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="E23" t="s">
-        <v>188</v>
+        <v>225</v>
       </c>
       <c r="F23" t="s">
-        <v>220</v>
+        <v>259</v>
       </c>
       <c r="G23" t="s">
-        <v>247</v>
+        <v>303</v>
       </c>
       <c r="H23" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
       <c r="I23" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="J23" t="s">
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="K23" t="s">
-        <v>277</v>
+        <v>331</v>
       </c>
       <c r="L23" t="n" s="2">
-        <v>42638.0</v>
+        <v>42484.0</v>
       </c>
       <c r="M23" t="n">
         <v>2016.0</v>
       </c>
       <c r="N23" t="n">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="O23" t="n">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
       <c r="P23" t="s">
-        <v>288</v>
+        <v>337</v>
       </c>
       <c r="Q23" t="s">
-        <v>310</v>
+        <v>381</v>
       </c>
       <c r="R23" t="s">
-        <v>329</v>
+        <v>396</v>
       </c>
       <c r="S23" t="n">
-        <v>40000.0</v>
+        <v>30000.0</v>
       </c>
       <c r="T23" t="s">
-        <v>333</v>
+        <v>400</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C24" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="D24" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="E24" t="s">
-        <v>188</v>
+        <v>225</v>
       </c>
       <c r="F24" t="s">
-        <v>220</v>
+        <v>259</v>
       </c>
       <c r="G24" t="s">
-        <v>248</v>
+        <v>304</v>
       </c>
       <c r="H24" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
       <c r="I24" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="J24" t="s">
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="K24" t="s">
-        <v>39</v>
+        <v>331</v>
       </c>
       <c r="L24" t="n" s="2">
-        <v>42638.0</v>
+        <v>42484.0</v>
       </c>
       <c r="M24" t="n">
         <v>2016.0</v>
       </c>
       <c r="N24" t="n">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="O24" t="n">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
       <c r="P24" t="s">
-        <v>288</v>
+        <v>337</v>
       </c>
       <c r="Q24" t="s">
-        <v>310</v>
+        <v>381</v>
       </c>
       <c r="R24" t="s">
-        <v>39</v>
+        <v>396</v>
       </c>
       <c r="S24" t="n">
-        <v>42000.0</v>
+        <v>30000.0</v>
       </c>
       <c r="T24" t="s">
-        <v>333</v>
+        <v>400</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C25" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="D25" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="E25" t="s">
-        <v>180</v>
+        <v>226</v>
       </c>
       <c r="F25" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="G25" t="s">
-        <v>180</v>
+        <v>305</v>
       </c>
       <c r="H25" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
       <c r="I25" t="s">
-        <v>275</v>
+        <v>328</v>
       </c>
       <c r="J25" t="s">
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="K25" t="s">
-        <v>277</v>
+        <v>42</v>
       </c>
       <c r="L25" t="n" s="2">
-        <v>40697.0</v>
+        <v>41910.0</v>
       </c>
       <c r="M25" t="n">
-        <v>2011.0</v>
+        <v>2014.0</v>
       </c>
       <c r="N25" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="O25" t="n">
-        <v>3.0</v>
+        <v>28.0</v>
       </c>
       <c r="P25" t="s">
-        <v>289</v>
+        <v>348</v>
       </c>
       <c r="Q25" t="s">
-        <v>312</v>
+        <v>386</v>
       </c>
       <c r="R25" t="s">
-        <v>274</v>
+        <v>42</v>
       </c>
       <c r="S25" t="n">
-        <v>100.0</v>
+        <v>42000.0</v>
       </c>
       <c r="T25" t="s">
-        <v>331</v>
+        <v>400</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C26" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="D26" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="E26" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="F26" t="s">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="G26" t="s">
-        <v>180</v>
+        <v>306</v>
       </c>
       <c r="H26" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
       <c r="I26" t="s">
-        <v>275</v>
+        <v>328</v>
       </c>
       <c r="J26" t="s">
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="K26" t="s">
-        <v>277</v>
+        <v>42</v>
       </c>
       <c r="L26" t="n" s="2">
-        <v>38477.0</v>
+        <v>42861.0</v>
       </c>
       <c r="M26" t="n">
-        <v>2005.0</v>
+        <v>2017.0</v>
       </c>
       <c r="N26" t="n">
         <v>5.0</v>
       </c>
       <c r="O26" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="P26" t="s">
-        <v>278</v>
+        <v>349</v>
       </c>
       <c r="Q26" t="s">
-        <v>298</v>
+        <v>382</v>
       </c>
       <c r="R26" t="s">
-        <v>274</v>
+        <v>42</v>
       </c>
       <c r="S26" t="n">
-        <v>100.0</v>
+        <v>42000.0</v>
       </c>
       <c r="T26" t="s">
-        <v>331</v>
+        <v>400</v>
       </c>
     </row>
     <row r="27">
@@ -2685,61 +2886,61 @@
         <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C27" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="D27" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="E27" t="s">
-        <v>180</v>
+        <v>228</v>
       </c>
       <c r="F27" t="s">
-        <v>208</v>
+        <v>261</v>
       </c>
       <c r="G27" t="s">
-        <v>180</v>
+        <v>307</v>
       </c>
       <c r="H27" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
       <c r="I27" t="s">
-        <v>275</v>
+        <v>329</v>
       </c>
       <c r="J27" t="s">
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="K27" t="s">
-        <v>277</v>
+        <v>331</v>
       </c>
       <c r="L27" t="n" s="2">
-        <v>38827.0</v>
+        <v>42261.0</v>
       </c>
       <c r="M27" t="n">
-        <v>2006.0</v>
+        <v>2015.0</v>
       </c>
       <c r="N27" t="n">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="O27" t="n">
-        <v>20.0</v>
+        <v>14.0</v>
       </c>
       <c r="P27" t="s">
-        <v>278</v>
+        <v>350</v>
       </c>
       <c r="Q27" t="s">
-        <v>298</v>
+        <v>387</v>
       </c>
       <c r="R27" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="S27" t="n">
         <v>100.0</v>
       </c>
       <c r="T27" t="s">
-        <v>331</v>
+        <v>398</v>
       </c>
     </row>
     <row r="28">
@@ -2747,929 +2948,929 @@
         <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C28" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="D28" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="E28" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="F28" t="s">
-        <v>208</v>
+        <v>262</v>
       </c>
       <c r="G28" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="H28" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
       <c r="I28" t="s">
-        <v>275</v>
+        <v>329</v>
       </c>
       <c r="J28" t="s">
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="K28" t="s">
-        <v>277</v>
+        <v>331</v>
       </c>
       <c r="L28" t="n" s="2">
-        <v>42071.0</v>
+        <v>30902.0</v>
       </c>
       <c r="M28" t="n">
-        <v>2015.0</v>
+        <v>1984.0</v>
       </c>
       <c r="N28" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="O28" t="n">
         <v>8.0</v>
       </c>
       <c r="P28" t="s">
-        <v>278</v>
+        <v>351</v>
       </c>
       <c r="Q28" t="s">
-        <v>298</v>
+        <v>378</v>
       </c>
       <c r="R28" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="S28" t="n">
         <v>200.0</v>
       </c>
       <c r="T28" t="s">
-        <v>331</v>
+        <v>398</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C29" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="D29" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="E29" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="F29" t="s">
-        <v>208</v>
+        <v>242</v>
       </c>
       <c r="G29" t="s">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="H29" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
       <c r="I29" t="s">
-        <v>275</v>
+        <v>329</v>
       </c>
       <c r="J29" t="s">
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="K29" t="s">
-        <v>277</v>
+        <v>331</v>
       </c>
       <c r="L29" t="n" s="2">
-        <v>41803.0</v>
+        <v>42195.0</v>
       </c>
       <c r="M29" t="n">
-        <v>2014.0</v>
+        <v>2015.0</v>
       </c>
       <c r="N29" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="O29" t="n">
-        <v>13.0</v>
+        <v>10.0</v>
       </c>
       <c r="P29" t="s">
-        <v>278</v>
+        <v>332</v>
       </c>
       <c r="Q29" t="s">
-        <v>298</v>
+        <v>377</v>
       </c>
       <c r="R29" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="S29" t="n">
-        <v>400.0</v>
+        <v>200.0</v>
       </c>
       <c r="T29" t="s">
-        <v>331</v>
+        <v>398</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C30" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="D30" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E30" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="F30" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="G30" t="s">
-        <v>251</v>
+        <v>289</v>
       </c>
       <c r="H30" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
       <c r="I30" t="s">
-        <v>275</v>
+        <v>329</v>
       </c>
       <c r="J30" t="s">
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="K30" t="s">
-        <v>277</v>
+        <v>331</v>
       </c>
       <c r="L30" t="n" s="2">
-        <v>41069.0</v>
+        <v>42196.0</v>
       </c>
       <c r="M30" t="n">
-        <v>2012.0</v>
+        <v>2015.0</v>
       </c>
       <c r="N30" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="O30" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="P30" t="s">
-        <v>284</v>
+        <v>332</v>
       </c>
       <c r="Q30" t="s">
-        <v>313</v>
+        <v>377</v>
       </c>
       <c r="R30" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="S30" t="n">
-        <v>800.0</v>
+        <v>400.0</v>
       </c>
       <c r="T30" t="s">
-        <v>331</v>
+        <v>398</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C31" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="D31" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="E31" t="s">
-        <v>183</v>
+        <v>229</v>
       </c>
       <c r="F31" t="s">
-        <v>212</v>
+        <v>263</v>
       </c>
       <c r="G31" t="s">
-        <v>252</v>
+        <v>308</v>
       </c>
       <c r="H31" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
       <c r="I31" t="s">
-        <v>275</v>
+        <v>329</v>
       </c>
       <c r="J31" t="s">
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="K31" t="s">
-        <v>277</v>
+        <v>331</v>
       </c>
       <c r="L31" t="n" s="2">
-        <v>42202.0</v>
+        <v>42240.0</v>
       </c>
       <c r="M31" t="n">
         <v>2015.0</v>
       </c>
       <c r="N31" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="O31" t="n">
-        <v>17.0</v>
+        <v>24.0</v>
       </c>
       <c r="P31" t="s">
-        <v>282</v>
+        <v>352</v>
       </c>
       <c r="Q31" t="s">
-        <v>302</v>
+        <v>388</v>
       </c>
       <c r="R31" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="S31" t="n">
-        <v>1500.0</v>
+        <v>400.0</v>
       </c>
       <c r="T31" t="s">
-        <v>332</v>
+        <v>398</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B32" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C32" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="D32" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="E32" t="s">
-        <v>186</v>
+        <v>230</v>
       </c>
       <c r="F32" t="s">
-        <v>217</v>
+        <v>264</v>
       </c>
       <c r="G32" t="s">
-        <v>253</v>
+        <v>309</v>
       </c>
       <c r="H32" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
       <c r="I32" t="s">
-        <v>275</v>
+        <v>329</v>
       </c>
       <c r="J32" t="s">
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="K32" t="s">
-        <v>277</v>
+        <v>331</v>
       </c>
       <c r="L32" t="n" s="2">
-        <v>41807.0</v>
+        <v>41095.0</v>
       </c>
       <c r="M32" t="n">
-        <v>2014.0</v>
+        <v>2012.0</v>
       </c>
       <c r="N32" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="O32" t="n">
-        <v>17.0</v>
+        <v>5.0</v>
       </c>
       <c r="P32" t="s">
-        <v>287</v>
+        <v>353</v>
       </c>
       <c r="Q32" t="s">
-        <v>307</v>
+        <v>383</v>
       </c>
       <c r="R32" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="S32" t="n">
-        <v>2000.0</v>
+        <v>600.0</v>
       </c>
       <c r="T32" t="s">
-        <v>332</v>
+        <v>398</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C33" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="D33" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="E33" t="s">
-        <v>193</v>
+        <v>231</v>
       </c>
       <c r="F33" t="s">
-        <v>224</v>
+        <v>265</v>
       </c>
       <c r="G33" t="s">
-        <v>254</v>
+        <v>216</v>
       </c>
       <c r="H33" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
       <c r="I33" t="s">
-        <v>275</v>
+        <v>329</v>
       </c>
       <c r="J33" t="s">
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="K33" t="s">
-        <v>277</v>
+        <v>331</v>
       </c>
       <c r="L33" t="n" s="2">
-        <v>42169.0</v>
+        <v>39689.0</v>
       </c>
       <c r="M33" t="n">
-        <v>2015.0</v>
+        <v>2008.0</v>
       </c>
       <c r="N33" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="O33" t="n">
-        <v>14.0</v>
+        <v>29.0</v>
       </c>
       <c r="P33" t="s">
-        <v>290</v>
+        <v>354</v>
       </c>
       <c r="Q33" t="s">
-        <v>314</v>
+        <v>389</v>
       </c>
       <c r="R33" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="S33" t="n">
-        <v>3000.0</v>
+        <v>800.0</v>
       </c>
       <c r="T33" t="s">
-        <v>332</v>
+        <v>398</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C34" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="D34" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="E34" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="F34" t="s">
-        <v>225</v>
+        <v>266</v>
       </c>
       <c r="G34" t="s">
-        <v>255</v>
+        <v>216</v>
       </c>
       <c r="H34" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
       <c r="I34" t="s">
-        <v>275</v>
+        <v>329</v>
       </c>
       <c r="J34" t="s">
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="K34" t="s">
-        <v>277</v>
+        <v>331</v>
       </c>
       <c r="L34" t="n" s="2">
-        <v>39605.0</v>
+        <v>37081.0</v>
       </c>
       <c r="M34" t="n">
-        <v>2008.0</v>
+        <v>2001.0</v>
       </c>
       <c r="N34" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="O34" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="P34" t="s">
-        <v>291</v>
+        <v>355</v>
       </c>
       <c r="Q34" t="s">
-        <v>315</v>
+        <v>390</v>
       </c>
       <c r="R34" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="S34" t="n">
-        <v>5000.0</v>
+        <v>1000.0</v>
       </c>
       <c r="T34" t="s">
-        <v>332</v>
+        <v>398</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C35" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="D35" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="E35" t="s">
-        <v>195</v>
+        <v>223</v>
       </c>
       <c r="F35" t="s">
-        <v>214</v>
+        <v>257</v>
       </c>
       <c r="G35" t="s">
-        <v>180</v>
+        <v>310</v>
       </c>
       <c r="H35" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
       <c r="I35" t="s">
-        <v>275</v>
+        <v>329</v>
       </c>
       <c r="J35" t="s">
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="K35" t="s">
-        <v>277</v>
+        <v>331</v>
       </c>
       <c r="L35" t="n" s="2">
-        <v>38816.0</v>
+        <v>42518.0</v>
       </c>
       <c r="M35" t="n">
-        <v>2006.0</v>
+        <v>2016.0</v>
       </c>
       <c r="N35" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="O35" t="n">
-        <v>9.0</v>
+        <v>28.0</v>
       </c>
       <c r="P35" t="s">
-        <v>284</v>
+        <v>347</v>
       </c>
       <c r="Q35" t="s">
-        <v>304</v>
+        <v>378</v>
       </c>
       <c r="R35" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="S35" t="n">
-        <v>5000.0</v>
+        <v>1500.0</v>
       </c>
       <c r="T35" t="s">
-        <v>332</v>
+        <v>399</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B36" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C36" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="D36" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="E36" t="s">
-        <v>181</v>
+        <v>223</v>
       </c>
       <c r="F36" t="s">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="G36" t="s">
-        <v>256</v>
+        <v>216</v>
       </c>
       <c r="H36" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
       <c r="I36" t="s">
-        <v>275</v>
+        <v>329</v>
       </c>
       <c r="J36" t="s">
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="K36" t="s">
-        <v>277</v>
+        <v>331</v>
       </c>
       <c r="L36" t="n" s="2">
-        <v>42594.0</v>
+        <v>39971.0</v>
       </c>
       <c r="M36" t="n">
-        <v>2016.0</v>
+        <v>2009.0</v>
       </c>
       <c r="N36" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="O36" t="n">
-        <v>12.0</v>
+        <v>7.0</v>
       </c>
       <c r="P36" t="s">
-        <v>292</v>
+        <v>347</v>
       </c>
       <c r="Q36" t="s">
-        <v>316</v>
+        <v>378</v>
       </c>
       <c r="R36" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="S36" t="n">
-        <v>10000.0</v>
+        <v>2000.0</v>
       </c>
       <c r="T36" t="s">
-        <v>332</v>
+        <v>399</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B37" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C37" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="D37" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="E37" t="s">
-        <v>196</v>
+        <v>232</v>
       </c>
       <c r="F37" t="s">
-        <v>227</v>
+        <v>267</v>
       </c>
       <c r="G37" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="H37" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
       <c r="I37" t="s">
-        <v>275</v>
+        <v>329</v>
       </c>
       <c r="J37" t="s">
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="K37" t="s">
-        <v>277</v>
+        <v>331</v>
       </c>
       <c r="L37" t="n" s="2">
-        <v>41518.0</v>
+        <v>41768.0</v>
       </c>
       <c r="M37" t="n">
-        <v>2013.0</v>
+        <v>2014.0</v>
       </c>
       <c r="N37" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="O37" t="n">
         <v>9.0</v>
       </c>
-      <c r="O37" t="n">
-        <v>1.0</v>
-      </c>
       <c r="P37" t="s">
-        <v>283</v>
+        <v>356</v>
       </c>
       <c r="Q37" t="s">
-        <v>317</v>
+        <v>391</v>
       </c>
       <c r="R37" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="S37" t="n">
-        <v>10000.0</v>
+        <v>3000.0</v>
       </c>
       <c r="T37" t="s">
-        <v>332</v>
+        <v>399</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B38" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C38" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="D38" t="s">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="E38" t="s">
-        <v>197</v>
+        <v>233</v>
       </c>
       <c r="F38" t="s">
-        <v>228</v>
+        <v>268</v>
       </c>
       <c r="G38" t="s">
-        <v>258</v>
+        <v>312</v>
       </c>
       <c r="H38" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
       <c r="I38" t="s">
-        <v>275</v>
+        <v>329</v>
       </c>
       <c r="J38" t="s">
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="K38" t="s">
-        <v>277</v>
+        <v>331</v>
       </c>
       <c r="L38" t="n" s="2">
-        <v>40132.0</v>
+        <v>40753.0</v>
       </c>
       <c r="M38" t="n">
-        <v>2009.0</v>
+        <v>2011.0</v>
       </c>
       <c r="N38" t="n">
-        <v>11.0</v>
+        <v>7.0</v>
       </c>
       <c r="O38" t="n">
-        <v>15.0</v>
+        <v>29.0</v>
       </c>
       <c r="P38" t="s">
-        <v>283</v>
+        <v>357</v>
       </c>
       <c r="Q38" t="s">
-        <v>318</v>
+        <v>392</v>
       </c>
       <c r="R38" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="S38" t="n">
-        <v>15000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="T38" t="s">
-        <v>333</v>
+        <v>399</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B39" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C39" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="D39" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="E39" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="F39" t="s">
-        <v>217</v>
+        <v>269</v>
       </c>
       <c r="G39" t="s">
-        <v>180</v>
+        <v>313</v>
       </c>
       <c r="H39" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
       <c r="I39" t="s">
-        <v>275</v>
+        <v>329</v>
       </c>
       <c r="J39" t="s">
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="K39" t="s">
-        <v>277</v>
+        <v>331</v>
       </c>
       <c r="L39" t="n" s="2">
-        <v>39611.0</v>
+        <v>42594.0</v>
       </c>
       <c r="M39" t="n">
-        <v>2008.0</v>
+        <v>2016.0</v>
       </c>
       <c r="N39" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="O39" t="n">
         <v>12.0</v>
       </c>
       <c r="P39" t="s">
-        <v>287</v>
+        <v>358</v>
       </c>
       <c r="Q39" t="s">
-        <v>307</v>
+        <v>393</v>
       </c>
       <c r="R39" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="S39" t="n">
-        <v>20000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="T39" t="s">
-        <v>333</v>
+        <v>399</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C40" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="D40" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="E40" t="s">
-        <v>187</v>
+        <v>234</v>
       </c>
       <c r="F40" t="s">
-        <v>219</v>
+        <v>270</v>
       </c>
       <c r="G40" t="s">
-        <v>259</v>
+        <v>314</v>
       </c>
       <c r="H40" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
       <c r="I40" t="s">
-        <v>275</v>
+        <v>329</v>
       </c>
       <c r="J40" t="s">
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="K40" t="s">
-        <v>277</v>
+        <v>331</v>
       </c>
       <c r="L40" t="n" s="2">
-        <v>42462.0</v>
+        <v>42826.0</v>
       </c>
       <c r="M40" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
       <c r="N40" t="n">
         <v>4.0</v>
       </c>
       <c r="O40" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="P40" t="s">
-        <v>287</v>
+        <v>359</v>
       </c>
       <c r="Q40" t="s">
-        <v>309</v>
+        <v>394</v>
       </c>
       <c r="R40" t="s">
-        <v>329</v>
+        <v>396</v>
       </c>
       <c r="S40" t="n">
-        <v>20000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="T40" t="s">
-        <v>333</v>
+        <v>399</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C41" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="D41" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="E41" t="s">
-        <v>187</v>
+        <v>234</v>
       </c>
       <c r="F41" t="s">
-        <v>219</v>
+        <v>270</v>
       </c>
       <c r="G41" t="s">
-        <v>260</v>
+        <v>315</v>
       </c>
       <c r="H41" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
       <c r="I41" t="s">
-        <v>275</v>
+        <v>329</v>
       </c>
       <c r="J41" t="s">
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="K41" t="s">
-        <v>39</v>
+        <v>331</v>
       </c>
       <c r="L41" t="n" s="2">
-        <v>42462.0</v>
+        <v>42826.0</v>
       </c>
       <c r="M41" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
       <c r="N41" t="n">
         <v>4.0</v>
       </c>
       <c r="O41" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="P41" t="s">
-        <v>287</v>
+        <v>359</v>
       </c>
       <c r="Q41" t="s">
-        <v>309</v>
+        <v>394</v>
       </c>
       <c r="R41" t="s">
-        <v>34</v>
+        <v>396</v>
       </c>
       <c r="S41" t="n">
-        <v>21000.0</v>
+        <v>15000.0</v>
       </c>
       <c r="T41" t="s">
-        <v>333</v>
+        <v>400</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C42" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="D42" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="E42" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="F42" t="s">
-        <v>229</v>
+        <v>271</v>
       </c>
       <c r="G42" t="s">
-        <v>261</v>
+        <v>216</v>
       </c>
       <c r="H42" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
       <c r="I42" t="s">
-        <v>275</v>
+        <v>329</v>
       </c>
       <c r="J42" t="s">
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="K42" t="s">
-        <v>277</v>
+        <v>331</v>
       </c>
       <c r="L42" t="n" s="2">
-        <v>42848.0</v>
+        <v>36772.0</v>
       </c>
       <c r="M42" t="n">
-        <v>2017.0</v>
+        <v>2000.0</v>
       </c>
       <c r="N42" t="n">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="O42" t="n">
-        <v>23.0</v>
+        <v>3.0</v>
       </c>
       <c r="P42" t="s">
-        <v>293</v>
+        <v>360</v>
       </c>
       <c r="Q42" t="s">
-        <v>319</v>
+        <v>386</v>
       </c>
       <c r="R42" t="s">
-        <v>329</v>
+        <v>397</v>
       </c>
       <c r="S42" t="n">
-        <v>25000.0</v>
+        <v>20000.0</v>
       </c>
       <c r="T42" t="s">
-        <v>333</v>
+        <v>400</v>
       </c>
     </row>
     <row r="43">
@@ -3677,37 +3878,37 @@
         <v>36</v>
       </c>
       <c r="B43" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C43" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="D43" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="E43" t="s">
-        <v>198</v>
+        <v>234</v>
       </c>
       <c r="F43" t="s">
-        <v>229</v>
+        <v>270</v>
       </c>
       <c r="G43" t="s">
-        <v>262</v>
+        <v>316</v>
       </c>
       <c r="H43" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
       <c r="I43" t="s">
-        <v>275</v>
+        <v>329</v>
       </c>
       <c r="J43" t="s">
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="K43" t="s">
-        <v>277</v>
+        <v>331</v>
       </c>
       <c r="L43" t="n" s="2">
-        <v>42848.0</v>
+        <v>42826.0</v>
       </c>
       <c r="M43" t="n">
         <v>2017.0</v>
@@ -3716,60 +3917,60 @@
         <v>4.0</v>
       </c>
       <c r="O43" t="n">
-        <v>23.0</v>
+        <v>1.0</v>
       </c>
       <c r="P43" t="s">
-        <v>293</v>
+        <v>359</v>
       </c>
       <c r="Q43" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
       <c r="R43" t="s">
-        <v>329</v>
+        <v>396</v>
       </c>
       <c r="S43" t="n">
-        <v>30000.0</v>
+        <v>20000.0</v>
       </c>
       <c r="T43" t="s">
-        <v>333</v>
+        <v>400</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B44" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C44" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="D44" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="E44" t="s">
-        <v>198</v>
+        <v>234</v>
       </c>
       <c r="F44" t="s">
-        <v>229</v>
+        <v>270</v>
       </c>
       <c r="G44" t="s">
-        <v>263</v>
+        <v>317</v>
       </c>
       <c r="H44" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
       <c r="I44" t="s">
-        <v>275</v>
+        <v>329</v>
       </c>
       <c r="J44" t="s">
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="K44" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L44" t="n" s="2">
-        <v>42848.0</v>
+        <v>42826.0</v>
       </c>
       <c r="M44" t="n">
         <v>2017.0</v>
@@ -3778,270 +3979,270 @@
         <v>4.0</v>
       </c>
       <c r="O44" t="n">
-        <v>23.0</v>
+        <v>1.0</v>
       </c>
       <c r="P44" t="s">
-        <v>293</v>
+        <v>359</v>
       </c>
       <c r="Q44" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
       <c r="R44" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="S44" t="n">
-        <v>42000.0</v>
+        <v>21000.0</v>
       </c>
       <c r="T44" t="s">
-        <v>333</v>
+        <v>400</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B45" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C45" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="D45" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="E45" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="F45" t="s">
-        <v>230</v>
+        <v>272</v>
       </c>
       <c r="G45" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="H45" t="s">
-        <v>273</v>
+        <v>326</v>
       </c>
       <c r="I45" t="s">
-        <v>274</v>
+        <v>329</v>
       </c>
       <c r="J45" t="s">
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="K45" t="s">
-        <v>277</v>
+        <v>331</v>
       </c>
       <c r="L45" t="n" s="2">
-        <v>33250.0</v>
+        <v>37520.0</v>
       </c>
       <c r="M45" t="n">
-        <v>1991.0</v>
+        <v>2002.0</v>
       </c>
       <c r="N45" t="n">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c r="O45" t="n">
-        <v>12.0</v>
+        <v>21.0</v>
       </c>
       <c r="P45" t="s">
-        <v>294</v>
+        <v>361</v>
       </c>
       <c r="Q45" t="s">
-        <v>320</v>
+        <v>386</v>
       </c>
       <c r="R45" t="s">
-        <v>274</v>
+        <v>397</v>
       </c>
       <c r="S45" t="n">
-        <v>60.0</v>
+        <v>25000.0</v>
       </c>
       <c r="T45" t="s">
-        <v>331</v>
+        <v>400</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B46" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C46" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="D46" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="E46" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="F46" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="G46" t="s">
-        <v>180</v>
+        <v>318</v>
       </c>
       <c r="H46" t="s">
-        <v>273</v>
+        <v>326</v>
       </c>
       <c r="I46" t="s">
-        <v>274</v>
+        <v>329</v>
       </c>
       <c r="J46" t="s">
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="K46" t="s">
-        <v>277</v>
+        <v>331</v>
       </c>
       <c r="L46" t="n" s="2">
-        <v>32570.0</v>
+        <v>42848.0</v>
       </c>
       <c r="M46" t="n">
-        <v>1989.0</v>
+        <v>2017.0</v>
       </c>
       <c r="N46" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="O46" t="n">
-        <v>3.0</v>
+        <v>23.0</v>
       </c>
       <c r="P46" t="s">
-        <v>295</v>
+        <v>337</v>
       </c>
       <c r="Q46" t="s">
-        <v>321</v>
+        <v>380</v>
       </c>
       <c r="R46" t="s">
-        <v>274</v>
+        <v>396</v>
       </c>
       <c r="S46" t="n">
-        <v>200.0</v>
+        <v>25000.0</v>
       </c>
       <c r="T46" t="s">
-        <v>331</v>
+        <v>400</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B47" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C47" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="D47" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="E47" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="F47" t="s">
-        <v>231</v>
+        <v>273</v>
       </c>
       <c r="G47" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="H47" t="s">
-        <v>273</v>
+        <v>326</v>
       </c>
       <c r="I47" t="s">
-        <v>274</v>
+        <v>329</v>
       </c>
       <c r="J47" t="s">
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="K47" t="s">
-        <v>277</v>
+        <v>331</v>
       </c>
       <c r="L47" t="n" s="2">
-        <v>32570.0</v>
+        <v>37778.0</v>
       </c>
       <c r="M47" t="n">
-        <v>1989.0</v>
+        <v>2003.0</v>
       </c>
       <c r="N47" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="O47" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="P47" t="s">
-        <v>295</v>
+        <v>362</v>
       </c>
       <c r="Q47" t="s">
-        <v>321</v>
+        <v>386</v>
       </c>
       <c r="R47" t="s">
-        <v>274</v>
+        <v>397</v>
       </c>
       <c r="S47" t="n">
-        <v>200.0</v>
+        <v>30000.0</v>
       </c>
       <c r="T47" t="s">
-        <v>331</v>
+        <v>400</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B48" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C48" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="D48" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="E48" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="F48" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="G48" t="s">
-        <v>180</v>
+        <v>319</v>
       </c>
       <c r="H48" t="s">
-        <v>273</v>
+        <v>326</v>
       </c>
       <c r="I48" t="s">
-        <v>274</v>
+        <v>329</v>
       </c>
       <c r="J48" t="s">
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="K48" t="s">
-        <v>277</v>
+        <v>331</v>
       </c>
       <c r="L48" t="n" s="2">
-        <v>32572.0</v>
+        <v>42848.0</v>
       </c>
       <c r="M48" t="n">
-        <v>1989.0</v>
+        <v>2017.0</v>
       </c>
       <c r="N48" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="O48" t="n">
-        <v>5.0</v>
+        <v>23.0</v>
       </c>
       <c r="P48" t="s">
-        <v>295</v>
+        <v>337</v>
       </c>
       <c r="Q48" t="s">
-        <v>321</v>
+        <v>380</v>
       </c>
       <c r="R48" t="s">
-        <v>274</v>
+        <v>396</v>
       </c>
       <c r="S48" t="n">
-        <v>400.0</v>
+        <v>30000.0</v>
       </c>
       <c r="T48" t="s">
-        <v>331</v>
+        <v>400</v>
       </c>
     </row>
     <row r="49">
@@ -4049,805 +4250,1239 @@
         <v>42</v>
       </c>
       <c r="B49" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C49" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="D49" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="E49" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="F49" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="G49" t="s">
-        <v>264</v>
+        <v>320</v>
       </c>
       <c r="H49" t="s">
-        <v>273</v>
+        <v>326</v>
       </c>
       <c r="I49" t="s">
-        <v>274</v>
+        <v>329</v>
       </c>
       <c r="J49" t="s">
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="K49" t="s">
-        <v>277</v>
+        <v>42</v>
       </c>
       <c r="L49" t="n" s="2">
-        <v>41672.0</v>
+        <v>42848.0</v>
       </c>
       <c r="M49" t="n">
-        <v>2014.0</v>
+        <v>2017.0</v>
       </c>
       <c r="N49" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="O49" t="n">
-        <v>2.0</v>
+        <v>23.0</v>
       </c>
       <c r="P49" t="s">
-        <v>296</v>
+        <v>337</v>
       </c>
       <c r="Q49" t="s">
-        <v>322</v>
+        <v>380</v>
       </c>
       <c r="R49" t="s">
-        <v>274</v>
+        <v>42</v>
       </c>
       <c r="S49" t="n">
-        <v>600.0</v>
+        <v>42000.0</v>
       </c>
       <c r="T49" t="s">
-        <v>331</v>
+        <v>400</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B50" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C50" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="D50" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="E50" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="F50" t="s">
-        <v>233</v>
+        <v>274</v>
       </c>
       <c r="G50" t="s">
-        <v>265</v>
+        <v>216</v>
       </c>
       <c r="H50" t="s">
-        <v>273</v>
+        <v>327</v>
       </c>
       <c r="I50" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="J50" t="s">
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="K50" t="s">
-        <v>277</v>
+        <v>331</v>
       </c>
       <c r="L50" t="n" s="2">
-        <v>41685.0</v>
+        <v>38380.0</v>
       </c>
       <c r="M50" t="n">
-        <v>2014.0</v>
+        <v>2005.0</v>
       </c>
       <c r="N50" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="O50" t="n">
-        <v>15.0</v>
+        <v>28.0</v>
       </c>
       <c r="P50" t="s">
-        <v>293</v>
+        <v>363</v>
       </c>
       <c r="Q50" t="s">
-        <v>323</v>
+        <v>378</v>
       </c>
       <c r="R50" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="S50" t="n">
-        <v>800.0</v>
+        <v>60.0</v>
       </c>
       <c r="T50" t="s">
-        <v>331</v>
+        <v>398</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B51" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C51" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="D51" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="E51" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F51" t="s">
-        <v>234</v>
+        <v>275</v>
       </c>
       <c r="G51" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="H51" t="s">
-        <v>273</v>
+        <v>327</v>
       </c>
       <c r="I51" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="J51" t="s">
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="K51" t="s">
-        <v>277</v>
+        <v>331</v>
       </c>
       <c r="L51" t="n" s="2">
-        <v>35827.0</v>
+        <v>38052.0</v>
       </c>
       <c r="M51" t="n">
-        <v>1998.0</v>
+        <v>2004.0</v>
       </c>
       <c r="N51" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="O51" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="P51" t="s">
-        <v>288</v>
+        <v>364</v>
       </c>
       <c r="Q51" t="s">
-        <v>324</v>
+        <v>378</v>
       </c>
       <c r="R51" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="S51" t="n">
-        <v>1500.0</v>
+        <v>200.0</v>
       </c>
       <c r="T51" t="s">
-        <v>332</v>
+        <v>398</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B52" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C52" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D52" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="E52" t="s">
-        <v>201</v>
+        <v>235</v>
       </c>
       <c r="F52" t="s">
-        <v>233</v>
+        <v>276</v>
       </c>
       <c r="G52" t="s">
-        <v>180</v>
+        <v>321</v>
       </c>
       <c r="H52" t="s">
-        <v>273</v>
+        <v>327</v>
       </c>
       <c r="I52" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="J52" t="s">
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="K52" t="s">
-        <v>277</v>
+        <v>331</v>
       </c>
       <c r="L52" t="n" s="2">
-        <v>39130.0</v>
+        <v>41615.0</v>
       </c>
       <c r="M52" t="n">
-        <v>2007.0</v>
+        <v>2013.0</v>
       </c>
       <c r="N52" t="n">
-        <v>2.0</v>
+        <v>12.0</v>
       </c>
       <c r="O52" t="n">
-        <v>17.0</v>
+        <v>7.0</v>
       </c>
       <c r="P52" t="s">
-        <v>293</v>
+        <v>365</v>
       </c>
       <c r="Q52" t="s">
-        <v>323</v>
+        <v>378</v>
       </c>
       <c r="R52" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="S52" t="n">
-        <v>2000.0</v>
+        <v>300.0</v>
       </c>
       <c r="T52" t="s">
-        <v>332</v>
+        <v>398</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B53" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C53" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="D53" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="E53" t="s">
-        <v>203</v>
+        <v>236</v>
       </c>
       <c r="F53" t="s">
-        <v>235</v>
+        <v>277</v>
       </c>
       <c r="G53" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="H53" t="s">
-        <v>273</v>
+        <v>327</v>
       </c>
       <c r="I53" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="J53" t="s">
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="K53" t="s">
-        <v>277</v>
+        <v>331</v>
       </c>
       <c r="L53" t="n" s="2">
-        <v>35820.0</v>
+        <v>34749.0</v>
       </c>
       <c r="M53" t="n">
-        <v>1998.0</v>
+        <v>1995.0</v>
       </c>
       <c r="N53" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="O53" t="n">
-        <v>25.0</v>
+        <v>19.0</v>
       </c>
       <c r="P53" t="s">
-        <v>288</v>
+        <v>366</v>
       </c>
       <c r="Q53" t="s">
-        <v>325</v>
+        <v>390</v>
       </c>
       <c r="R53" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="S53" t="n">
-        <v>3000.0</v>
+        <v>400.0</v>
       </c>
       <c r="T53" t="s">
-        <v>332</v>
+        <v>398</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B54" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C54" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="D54" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="E54" t="s">
-        <v>201</v>
+        <v>237</v>
       </c>
       <c r="F54" t="s">
-        <v>233</v>
+        <v>278</v>
       </c>
       <c r="G54" t="s">
-        <v>180</v>
+        <v>322</v>
       </c>
       <c r="H54" t="s">
-        <v>273</v>
+        <v>327</v>
       </c>
       <c r="I54" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="J54" t="s">
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="K54" t="s">
-        <v>277</v>
+        <v>331</v>
       </c>
       <c r="L54" t="n" s="2">
-        <v>38037.0</v>
+        <v>42755.0</v>
       </c>
       <c r="M54" t="n">
-        <v>2004.0</v>
+        <v>2017.0</v>
       </c>
       <c r="N54" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="O54" t="n">
         <v>20.0</v>
       </c>
       <c r="P54" t="s">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="Q54" t="s">
-        <v>323</v>
+        <v>378</v>
       </c>
       <c r="R54" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="S54" t="n">
-        <v>5000.0</v>
+        <v>600.0</v>
       </c>
       <c r="T54" t="s">
-        <v>332</v>
+        <v>398</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="B55" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C55" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="D55" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="E55" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="F55" t="s">
-        <v>236</v>
+        <v>279</v>
       </c>
       <c r="G55" t="s">
-        <v>266</v>
+        <v>216</v>
       </c>
       <c r="H55" t="s">
-        <v>273</v>
+        <v>327</v>
       </c>
       <c r="I55" t="s">
-        <v>275</v>
+        <v>328</v>
       </c>
       <c r="J55" t="s">
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="K55" t="s">
-        <v>277</v>
+        <v>331</v>
       </c>
       <c r="L55" t="n" s="2">
-        <v>42790.0</v>
+        <v>38017.0</v>
       </c>
       <c r="M55" t="n">
-        <v>2017.0</v>
+        <v>2004.0</v>
       </c>
       <c r="N55" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="O55" t="n">
-        <v>24.0</v>
+        <v>31.0</v>
       </c>
       <c r="P55" t="s">
-        <v>297</v>
+        <v>368</v>
       </c>
       <c r="Q55" t="s">
-        <v>326</v>
+        <v>386</v>
       </c>
       <c r="R55" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="S55" t="n">
-        <v>600.0</v>
+        <v>800.0</v>
       </c>
       <c r="T55" t="s">
-        <v>331</v>
+        <v>398</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B56" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C56" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="D56" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="E56" t="s">
-        <v>201</v>
+        <v>238</v>
       </c>
       <c r="F56" t="s">
-        <v>233</v>
+        <v>279</v>
       </c>
       <c r="G56" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="H56" t="s">
-        <v>273</v>
+        <v>327</v>
       </c>
       <c r="I56" t="s">
-        <v>275</v>
+        <v>328</v>
       </c>
       <c r="J56" t="s">
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="K56" t="s">
-        <v>277</v>
+        <v>331</v>
       </c>
       <c r="L56" t="n" s="2">
-        <v>36205.0</v>
+        <v>36562.0</v>
       </c>
       <c r="M56" t="n">
-        <v>1999.0</v>
+        <v>2000.0</v>
       </c>
       <c r="N56" t="n">
         <v>2.0</v>
       </c>
       <c r="O56" t="n">
-        <v>14.0</v>
+        <v>6.0</v>
       </c>
       <c r="P56" t="s">
-        <v>293</v>
+        <v>368</v>
       </c>
       <c r="Q56" t="s">
-        <v>323</v>
+        <v>386</v>
       </c>
       <c r="R56" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="S56" t="n">
-        <v>800.0</v>
+        <v>1000.0</v>
       </c>
       <c r="T56" t="s">
-        <v>331</v>
+        <v>398</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B57" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C57" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="D57" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="E57" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="F57" t="s">
-        <v>236</v>
+        <v>279</v>
       </c>
       <c r="G57" t="s">
-        <v>267</v>
+        <v>216</v>
       </c>
       <c r="H57" t="s">
-        <v>273</v>
+        <v>327</v>
       </c>
       <c r="I57" t="s">
-        <v>275</v>
+        <v>328</v>
       </c>
       <c r="J57" t="s">
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="K57" t="s">
-        <v>277</v>
+        <v>331</v>
       </c>
       <c r="L57" t="n" s="2">
-        <v>42790.0</v>
+        <v>35827.0</v>
       </c>
       <c r="M57" t="n">
-        <v>2017.0</v>
+        <v>1998.0</v>
       </c>
       <c r="N57" t="n">
         <v>2.0</v>
       </c>
       <c r="O57" t="n">
-        <v>24.0</v>
+        <v>1.0</v>
       </c>
       <c r="P57" t="s">
-        <v>297</v>
+        <v>368</v>
       </c>
       <c r="Q57" t="s">
-        <v>326</v>
+        <v>386</v>
       </c>
       <c r="R57" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="S57" t="n">
-        <v>1000.0</v>
+        <v>1500.0</v>
       </c>
       <c r="T57" t="s">
-        <v>331</v>
+        <v>399</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B58" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C58" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D58" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="E58" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="F58" t="s">
-        <v>235</v>
+        <v>280</v>
       </c>
       <c r="G58" t="s">
-        <v>268</v>
+        <v>216</v>
       </c>
       <c r="H58" t="s">
-        <v>273</v>
+        <v>327</v>
       </c>
       <c r="I58" t="s">
-        <v>275</v>
+        <v>328</v>
       </c>
       <c r="J58" t="s">
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="K58" t="s">
-        <v>277</v>
+        <v>331</v>
       </c>
       <c r="L58" t="n" s="2">
-        <v>41671.0</v>
+        <v>35832.0</v>
       </c>
       <c r="M58" t="n">
-        <v>2014.0</v>
+        <v>1998.0</v>
       </c>
       <c r="N58" t="n">
         <v>2.0</v>
       </c>
       <c r="O58" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="P58" t="s">
-        <v>288</v>
+        <v>369</v>
       </c>
       <c r="Q58" t="s">
-        <v>325</v>
+        <v>385</v>
       </c>
       <c r="R58" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="S58" t="n">
-        <v>1500.0</v>
+        <v>3000.0</v>
       </c>
       <c r="T58" t="s">
-        <v>332</v>
+        <v>399</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B59" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C59" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D59" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="E59" t="s">
-        <v>206</v>
+        <v>239</v>
       </c>
       <c r="F59" t="s">
-        <v>237</v>
+        <v>268</v>
       </c>
       <c r="G59" t="s">
-        <v>269</v>
+        <v>216</v>
       </c>
       <c r="H59" t="s">
-        <v>273</v>
+        <v>327</v>
       </c>
       <c r="I59" t="s">
-        <v>275</v>
+        <v>328</v>
       </c>
       <c r="J59" t="s">
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="K59" t="s">
-        <v>277</v>
+        <v>331</v>
       </c>
       <c r="L59" t="n" s="2">
-        <v>42773.0</v>
+        <v>35845.0</v>
       </c>
       <c r="M59" t="n">
-        <v>2017.0</v>
+        <v>1998.0</v>
       </c>
       <c r="N59" t="n">
         <v>2.0</v>
       </c>
       <c r="O59" t="n">
-        <v>7.0</v>
+        <v>19.0</v>
       </c>
       <c r="P59" t="s">
-        <v>297</v>
+        <v>357</v>
       </c>
       <c r="Q59" t="s">
-        <v>327</v>
+        <v>392</v>
       </c>
       <c r="R59" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="S59" t="n">
-        <v>2000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="T59" t="s">
-        <v>332</v>
+        <v>399</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B60" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C60" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="D60" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="E60" t="s">
-        <v>207</v>
+        <v>240</v>
       </c>
       <c r="F60" t="s">
-        <v>238</v>
+        <v>281</v>
       </c>
       <c r="G60" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
       <c r="H60" t="s">
-        <v>273</v>
+        <v>327</v>
       </c>
       <c r="I60" t="s">
-        <v>275</v>
+        <v>328</v>
       </c>
       <c r="J60" t="s">
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="K60" t="s">
-        <v>277</v>
+        <v>331</v>
       </c>
       <c r="L60" t="n" s="2">
-        <v>41676.0</v>
+        <v>37297.0</v>
       </c>
       <c r="M60" t="n">
-        <v>2014.0</v>
+        <v>2002.0</v>
       </c>
       <c r="N60" t="n">
         <v>2.0</v>
       </c>
       <c r="O60" t="n">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c r="P60" t="s">
-        <v>294</v>
+        <v>370</v>
       </c>
       <c r="Q60" t="s">
-        <v>328</v>
+        <v>383</v>
       </c>
       <c r="R60" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="S60" t="n">
-        <v>3000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="T60" t="s">
-        <v>332</v>
+        <v>399</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
+        <v>44</v>
+      </c>
+      <c r="B61" t="s">
+        <v>104</v>
+      </c>
+      <c r="C61" t="s">
+        <v>148</v>
+      </c>
+      <c r="D61" t="s">
+        <v>201</v>
+      </c>
+      <c r="E61" t="s">
+        <v>216</v>
+      </c>
+      <c r="F61" t="s">
+        <v>282</v>
+      </c>
+      <c r="G61" t="s">
+        <v>216</v>
+      </c>
+      <c r="H61" t="s">
+        <v>327</v>
+      </c>
+      <c r="I61" t="s">
+        <v>329</v>
+      </c>
+      <c r="J61" t="s">
+        <v>330</v>
+      </c>
+      <c r="K61" t="s">
+        <v>331</v>
+      </c>
+      <c r="L61" t="n" s="2">
+        <v>40923.0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O61" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="P61" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>386</v>
+      </c>
+      <c r="R61" t="s">
+        <v>328</v>
+      </c>
+      <c r="S61" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="T61" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>21</v>
+      </c>
+      <c r="B62" t="s">
+        <v>105</v>
+      </c>
+      <c r="C62" t="s">
+        <v>149</v>
+      </c>
+      <c r="D62" t="s">
+        <v>202</v>
+      </c>
+      <c r="E62" t="s">
+        <v>229</v>
+      </c>
+      <c r="F62" t="s">
+        <v>283</v>
+      </c>
+      <c r="G62" t="s">
+        <v>216</v>
+      </c>
+      <c r="H62" t="s">
+        <v>327</v>
+      </c>
+      <c r="I62" t="s">
+        <v>329</v>
+      </c>
+      <c r="J62" t="s">
+        <v>330</v>
+      </c>
+      <c r="K62" t="s">
+        <v>331</v>
+      </c>
+      <c r="L62" t="n" s="2">
+        <v>31842.0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1987.0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O62" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="P62" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>378</v>
+      </c>
+      <c r="R62" t="s">
+        <v>328</v>
+      </c>
+      <c r="S62" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="T62" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>22</v>
+      </c>
+      <c r="B63" t="s">
+        <v>106</v>
+      </c>
+      <c r="C63" t="s">
+        <v>131</v>
+      </c>
+      <c r="D63" t="s">
+        <v>203</v>
+      </c>
+      <c r="E63" t="s">
+        <v>216</v>
+      </c>
+      <c r="F63" t="s">
+        <v>284</v>
+      </c>
+      <c r="G63" t="s">
+        <v>216</v>
+      </c>
+      <c r="H63" t="s">
+        <v>327</v>
+      </c>
+      <c r="I63" t="s">
+        <v>329</v>
+      </c>
+      <c r="J63" t="s">
+        <v>330</v>
+      </c>
+      <c r="K63" t="s">
+        <v>331</v>
+      </c>
+      <c r="L63" t="n" s="2">
+        <v>30751.0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1984.0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O63" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="P63" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>378</v>
+      </c>
+      <c r="R63" t="s">
+        <v>328</v>
+      </c>
+      <c r="S63" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="T63" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>22</v>
+      </c>
+      <c r="B64" t="s">
+        <v>107</v>
+      </c>
+      <c r="C64" t="s">
+        <v>131</v>
+      </c>
+      <c r="D64" t="s">
+        <v>204</v>
+      </c>
+      <c r="E64" t="s">
+        <v>216</v>
+      </c>
+      <c r="F64" t="s">
+        <v>285</v>
+      </c>
+      <c r="G64" t="s">
+        <v>216</v>
+      </c>
+      <c r="H64" t="s">
+        <v>327</v>
+      </c>
+      <c r="I64" t="s">
+        <v>329</v>
+      </c>
+      <c r="J64" t="s">
+        <v>330</v>
+      </c>
+      <c r="K64" t="s">
+        <v>331</v>
+      </c>
+      <c r="L64" t="n" s="2">
+        <v>30744.0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1984.0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O64" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P64" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>378</v>
+      </c>
+      <c r="R64" t="s">
+        <v>328</v>
+      </c>
+      <c r="S64" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="T64" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>25</v>
+      </c>
+      <c r="B65" t="s">
+        <v>108</v>
+      </c>
+      <c r="C65" t="s">
+        <v>133</v>
+      </c>
+      <c r="D65" t="s">
+        <v>205</v>
+      </c>
+      <c r="E65" t="s">
+        <v>229</v>
+      </c>
+      <c r="F65" t="s">
+        <v>286</v>
+      </c>
+      <c r="G65" t="s">
+        <v>323</v>
+      </c>
+      <c r="H65" t="s">
+        <v>327</v>
+      </c>
+      <c r="I65" t="s">
+        <v>329</v>
+      </c>
+      <c r="J65" t="s">
+        <v>330</v>
+      </c>
+      <c r="K65" t="s">
+        <v>331</v>
+      </c>
+      <c r="L65" t="n" s="2">
+        <v>40979.0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O65" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="P65" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>395</v>
+      </c>
+      <c r="R65" t="s">
+        <v>328</v>
+      </c>
+      <c r="S65" t="n">
+        <v>800.0</v>
+      </c>
+      <c r="T65" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
         <v>27</v>
       </c>
-      <c r="B61" t="s">
-        <v>101</v>
-      </c>
-      <c r="C61" t="s">
-        <v>118</v>
-      </c>
-      <c r="D61" t="s">
-        <v>178</v>
-      </c>
-      <c r="E61" t="s">
+      <c r="B66" t="s">
+        <v>109</v>
+      </c>
+      <c r="C66" t="s">
+        <v>150</v>
+      </c>
+      <c r="D66" t="s">
+        <v>206</v>
+      </c>
+      <c r="E66" t="s">
+        <v>239</v>
+      </c>
+      <c r="F66" t="s">
+        <v>268</v>
+      </c>
+      <c r="G66" t="s">
+        <v>324</v>
+      </c>
+      <c r="H66" t="s">
+        <v>327</v>
+      </c>
+      <c r="I66" t="s">
+        <v>329</v>
+      </c>
+      <c r="J66" t="s">
+        <v>330</v>
+      </c>
+      <c r="K66" t="s">
+        <v>331</v>
+      </c>
+      <c r="L66" t="n" s="2">
+        <v>40596.0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O66" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="P66" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>392</v>
+      </c>
+      <c r="R66" t="s">
+        <v>328</v>
+      </c>
+      <c r="S66" t="n">
+        <v>1500.0</v>
+      </c>
+      <c r="T66" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>29</v>
+      </c>
+      <c r="B67" t="s">
+        <v>110</v>
+      </c>
+      <c r="C67" t="s">
+        <v>137</v>
+      </c>
+      <c r="D67" t="s">
         <v>207</v>
       </c>
-      <c r="F61" t="s">
-        <v>238</v>
-      </c>
-      <c r="G61" t="s">
-        <v>271</v>
-      </c>
-      <c r="H61" t="s">
-        <v>273</v>
-      </c>
-      <c r="I61" t="s">
-        <v>275</v>
-      </c>
-      <c r="J61" t="s">
-        <v>276</v>
-      </c>
-      <c r="K61" t="s">
-        <v>277</v>
-      </c>
-      <c r="L61" t="n" s="2">
-        <v>42054.0</v>
-      </c>
-      <c r="M61" t="n">
-        <v>2015.0</v>
-      </c>
-      <c r="N61" t="n">
+      <c r="E67" t="s">
+        <v>241</v>
+      </c>
+      <c r="F67" t="s">
+        <v>287</v>
+      </c>
+      <c r="G67" t="s">
+        <v>325</v>
+      </c>
+      <c r="H67" t="s">
+        <v>327</v>
+      </c>
+      <c r="I67" t="s">
+        <v>329</v>
+      </c>
+      <c r="J67" t="s">
+        <v>330</v>
+      </c>
+      <c r="K67" t="s">
+        <v>331</v>
+      </c>
+      <c r="L67" t="n" s="2">
+        <v>42784.0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>2017.0</v>
+      </c>
+      <c r="N67" t="n">
         <v>2.0</v>
       </c>
-      <c r="O61" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="P61" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>328</v>
-      </c>
-      <c r="R61" t="s">
-        <v>274</v>
-      </c>
-      <c r="S61" t="n">
+      <c r="O67" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="P67" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>380</v>
+      </c>
+      <c r="R67" t="s">
+        <v>328</v>
+      </c>
+      <c r="S67" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="T67" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>30</v>
+      </c>
+      <c r="B68" t="s">
+        <v>111</v>
+      </c>
+      <c r="C68" t="s">
+        <v>139</v>
+      </c>
+      <c r="D68" t="s">
+        <v>208</v>
+      </c>
+      <c r="E68" t="s">
+        <v>216</v>
+      </c>
+      <c r="F68" t="s">
+        <v>288</v>
+      </c>
+      <c r="G68" t="s">
+        <v>216</v>
+      </c>
+      <c r="H68" t="s">
+        <v>327</v>
+      </c>
+      <c r="I68" t="s">
+        <v>329</v>
+      </c>
+      <c r="J68" t="s">
+        <v>330</v>
+      </c>
+      <c r="K68" t="s">
+        <v>331</v>
+      </c>
+      <c r="L68" t="n" s="2">
+        <v>36204.0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1999.0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O68" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="P68" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>386</v>
+      </c>
+      <c r="R68" t="s">
+        <v>328</v>
+      </c>
+      <c r="S68" t="n">
         <v>5000.0</v>
       </c>
-      <c r="T61" t="s">
-        <v>332</v>
+      <c r="T68" t="s">
+        <v>399</v>
       </c>
     </row>
   </sheetData>
